--- a/SimulationStudyData/Model2/SimCase9_Yobs_SimRun1.xlsx
+++ b/SimulationStudyData/Model2/SimCase9_Yobs_SimRun1.xlsx
@@ -407,6402 +407,6402 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9.82775265862446</v>
+        <v>10.0540067687992</v>
       </c>
       <c r="B2" t="n">
-        <v>11.239965621794</v>
+        <v>11.5420564744159</v>
       </c>
       <c r="C2" t="n">
-        <v>11.8209494292016</v>
+        <v>11.2133460127771</v>
       </c>
       <c r="D2" t="n">
-        <v>12.49436790492</v>
+        <v>12.3571226342221</v>
       </c>
       <c r="E2" t="n">
-        <v>12.8646907845398</v>
+        <v>14.3721168470203</v>
       </c>
       <c r="F2" t="n">
-        <v>11.9810208276934</v>
+        <v>11.7850035331174</v>
       </c>
       <c r="G2" t="n">
-        <v>11.3851289498862</v>
+        <v>11.3798460881255</v>
       </c>
       <c r="H2" t="n">
-        <v>11.592850383704</v>
+        <v>12.2293052146966</v>
       </c>
       <c r="I2" t="n">
-        <v>12.1129789172569</v>
+        <v>11.2330973841872</v>
       </c>
       <c r="J2" t="n">
-        <v>10.5743733321587</v>
+        <v>10.0481599255876</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>9.75068704244066</v>
+        <v>-5.07624879023148</v>
       </c>
       <c r="B3" t="n">
-        <v>10.65401995651</v>
+        <v>-5.17260000106851</v>
       </c>
       <c r="C3" t="n">
-        <v>10.7940146302398</v>
+        <v>-5.25045456417425</v>
       </c>
       <c r="D3" t="n">
-        <v>11.4452733630269</v>
+        <v>-4.65450540663711</v>
       </c>
       <c r="E3" t="n">
-        <v>10.7020757480215</v>
+        <v>-3.64457477109005</v>
       </c>
       <c r="F3" t="n">
-        <v>11.7553676215511</v>
+        <v>-2.07474898253291</v>
       </c>
       <c r="G3" t="n">
-        <v>12.4051730560898</v>
+        <v>-0.253294959395722</v>
       </c>
       <c r="H3" t="n">
-        <v>11.551138097278</v>
+        <v>1.46023716689369</v>
       </c>
       <c r="I3" t="n">
-        <v>11.7721279618165</v>
+        <v>3.80951836286384</v>
       </c>
       <c r="J3" t="n">
-        <v>10.5361607209371</v>
+        <v>6.0208742926049</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>10.1366136959465</v>
+        <v>10.1894253188971</v>
       </c>
       <c r="B4" t="n">
-        <v>10.7784455193814</v>
+        <v>12.3340637570697</v>
       </c>
       <c r="C4" t="n">
-        <v>12.3567173614612</v>
+        <v>12.5350054201254</v>
       </c>
       <c r="D4" t="n">
-        <v>11.7250326337579</v>
+        <v>10.8803078780649</v>
       </c>
       <c r="E4" t="n">
-        <v>12.53300049188</v>
+        <v>12.5580151073881</v>
       </c>
       <c r="F4" t="n">
-        <v>12.3823020706783</v>
+        <v>12.8447355032822</v>
       </c>
       <c r="G4" t="n">
-        <v>13.7081552852632</v>
+        <v>13.3977201291668</v>
       </c>
       <c r="H4" t="n">
-        <v>11.4618381688221</v>
+        <v>13.0923176012632</v>
       </c>
       <c r="I4" t="n">
-        <v>11.4177737619896</v>
+        <v>10.2084124370595</v>
       </c>
       <c r="J4" t="n">
-        <v>9.88822393793235</v>
+        <v>10.8268043394181</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>10.7936517652987</v>
+        <v>8.31811040584203</v>
       </c>
       <c r="B5" t="n">
-        <v>10.6370761869119</v>
+        <v>11.2476411669496</v>
       </c>
       <c r="C5" t="n">
-        <v>13.1617822111133</v>
+        <v>10.5891024018893</v>
       </c>
       <c r="D5" t="n">
-        <v>12.2206450097872</v>
+        <v>12.1736010300362</v>
       </c>
       <c r="E5" t="n">
-        <v>11.8755877732352</v>
+        <v>11.4921870737493</v>
       </c>
       <c r="F5" t="n">
-        <v>12.4324225118718</v>
+        <v>11.1438179425145</v>
       </c>
       <c r="G5" t="n">
-        <v>13.1696756233126</v>
+        <v>11.7598135225433</v>
       </c>
       <c r="H5" t="n">
-        <v>11.9467303873418</v>
+        <v>12.4129448588269</v>
       </c>
       <c r="I5" t="n">
-        <v>12.0151474715118</v>
+        <v>12.4294717354776</v>
       </c>
       <c r="J5" t="n">
-        <v>10.5529497475403</v>
+        <v>10.8506483416138</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-5.01842148569036</v>
+        <v>9.61907044502111</v>
       </c>
       <c r="B6" t="n">
-        <v>-5.35080166788095</v>
+        <v>10.169569401496</v>
       </c>
       <c r="C6" t="n">
-        <v>-5.13399570507427</v>
+        <v>11.5316630690912</v>
       </c>
       <c r="D6" t="n">
-        <v>-4.63414272625823</v>
+        <v>12.2384655378561</v>
       </c>
       <c r="E6" t="n">
-        <v>-4.03952568183393</v>
+        <v>12.760046671854</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.51568722596857</v>
+        <v>12.0788271936191</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.430447716532939</v>
+        <v>12.1232870383717</v>
       </c>
       <c r="H6" t="n">
-        <v>1.84357853160403</v>
+        <v>12.8594570669442</v>
       </c>
       <c r="I6" t="n">
-        <v>3.76965666646684</v>
+        <v>11.4402103520134</v>
       </c>
       <c r="J6" t="n">
-        <v>6.47717829738553</v>
+        <v>10.4367902859123</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>9.63218238472986</v>
+        <v>-4.80770012953712</v>
       </c>
       <c r="B7" t="n">
-        <v>9.96116315767172</v>
+        <v>-5.03538280543879</v>
       </c>
       <c r="C7" t="n">
-        <v>11.6946771075401</v>
+        <v>-4.67590271504037</v>
       </c>
       <c r="D7" t="n">
-        <v>11.9401513393505</v>
+        <v>-4.33373784410882</v>
       </c>
       <c r="E7" t="n">
-        <v>13.1277422723271</v>
+        <v>-4.09821307303147</v>
       </c>
       <c r="F7" t="n">
-        <v>11.9281395643107</v>
+        <v>-2.62553597468329</v>
       </c>
       <c r="G7" t="n">
-        <v>11.524230732587</v>
+        <v>-1.16954001966646</v>
       </c>
       <c r="H7" t="n">
-        <v>12.1898506253038</v>
+        <v>0.962856195544692</v>
       </c>
       <c r="I7" t="n">
-        <v>11.6447899853422</v>
+        <v>3.42205928546681</v>
       </c>
       <c r="J7" t="n">
-        <v>11.4806050937351</v>
+        <v>6.66144475252777</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>9.2666608484089</v>
+        <v>9.63247838338058</v>
       </c>
       <c r="B8" t="n">
-        <v>11.3666050156701</v>
+        <v>10.5307407634748</v>
       </c>
       <c r="C8" t="n">
-        <v>12.2038797057804</v>
+        <v>11.9862450285742</v>
       </c>
       <c r="D8" t="n">
-        <v>12.731410554425</v>
+        <v>12.5011704013173</v>
       </c>
       <c r="E8" t="n">
-        <v>12.6210196236896</v>
+        <v>11.3098014993188</v>
       </c>
       <c r="F8" t="n">
-        <v>13.1602660685668</v>
+        <v>12.1392662389679</v>
       </c>
       <c r="G8" t="n">
-        <v>12.0650357718798</v>
+        <v>12.4633595476759</v>
       </c>
       <c r="H8" t="n">
-        <v>12.8960353828795</v>
+        <v>10.9031341565744</v>
       </c>
       <c r="I8" t="n">
-        <v>11.2621653407778</v>
+        <v>11.6432032285875</v>
       </c>
       <c r="J8" t="n">
-        <v>11.364131969386</v>
+        <v>11.7330406591631</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>9.67118928591103</v>
+        <v>8.84450404301629</v>
       </c>
       <c r="B9" t="n">
-        <v>9.79079714255584</v>
+        <v>10.3094893558327</v>
       </c>
       <c r="C9" t="n">
-        <v>13.0270038161082</v>
+        <v>12.33667794906</v>
       </c>
       <c r="D9" t="n">
-        <v>11.5675473501469</v>
+        <v>12.186500190824</v>
       </c>
       <c r="E9" t="n">
-        <v>11.787695840358</v>
+        <v>12.1678663942072</v>
       </c>
       <c r="F9" t="n">
-        <v>12.6119310395113</v>
+        <v>12.4617664102796</v>
       </c>
       <c r="G9" t="n">
-        <v>12.6946165500176</v>
+        <v>12.6004302938182</v>
       </c>
       <c r="H9" t="n">
-        <v>11.1832581079422</v>
+        <v>12.8269334333459</v>
       </c>
       <c r="I9" t="n">
-        <v>10.2239828748334</v>
+        <v>12.3058260197774</v>
       </c>
       <c r="J9" t="n">
-        <v>11.1999642026828</v>
+        <v>10.3411676653092</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>10.005796107442</v>
+        <v>9.01094704522714</v>
       </c>
       <c r="B10" t="n">
-        <v>10.210286608506</v>
+        <v>8.80852363352814</v>
       </c>
       <c r="C10" t="n">
-        <v>10.8444101618029</v>
+        <v>11.5896230576212</v>
       </c>
       <c r="D10" t="n">
-        <v>13.6738483026984</v>
+        <v>12.0017665204509</v>
       </c>
       <c r="E10" t="n">
-        <v>11.1246571060182</v>
+        <v>12.0839266662953</v>
       </c>
       <c r="F10" t="n">
-        <v>11.9705249350198</v>
+        <v>12.7532340678838</v>
       </c>
       <c r="G10" t="n">
-        <v>12.576480339769</v>
+        <v>12.4878205501485</v>
       </c>
       <c r="H10" t="n">
-        <v>12.8681305037981</v>
+        <v>13.7144408526575</v>
       </c>
       <c r="I10" t="n">
-        <v>11.0325159920761</v>
+        <v>11.8059653984729</v>
       </c>
       <c r="J10" t="n">
-        <v>11.5718732053825</v>
+        <v>10.542911721281</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-5.04905126620242</v>
+        <v>-5.23905610954619</v>
       </c>
       <c r="B11" t="n">
-        <v>-5.40729692628014</v>
+        <v>-4.78995623217278</v>
       </c>
       <c r="C11" t="n">
-        <v>-4.99298317994402</v>
+        <v>-5.13394660388568</v>
       </c>
       <c r="D11" t="n">
-        <v>-5.26570258267477</v>
+        <v>-4.62870314477686</v>
       </c>
       <c r="E11" t="n">
-        <v>-3.8374928159915</v>
+        <v>-3.88185587001018</v>
       </c>
       <c r="F11" t="n">
-        <v>-2.70004176218369</v>
+        <v>-2.30690318349753</v>
       </c>
       <c r="G11" t="n">
-        <v>-1.16494140566662</v>
+        <v>-0.796399143131525</v>
       </c>
       <c r="H11" t="n">
-        <v>1.34221347944691</v>
+        <v>1.23127454535417</v>
       </c>
       <c r="I11" t="n">
-        <v>3.37547394147657</v>
+        <v>3.45499818547261</v>
       </c>
       <c r="J11" t="n">
-        <v>6.59077568034801</v>
+        <v>6.80529126945261</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>10.4401015137677</v>
+        <v>10.4523408921405</v>
       </c>
       <c r="B12" t="n">
-        <v>10.1228923542968</v>
+        <v>10.6453325899776</v>
       </c>
       <c r="C12" t="n">
-        <v>10.0131044659153</v>
+        <v>12.0598304041751</v>
       </c>
       <c r="D12" t="n">
-        <v>11.5753230089328</v>
+        <v>10.8507316318688</v>
       </c>
       <c r="E12" t="n">
-        <v>13.5662177086201</v>
+        <v>11.109046799456</v>
       </c>
       <c r="F12" t="n">
-        <v>12.0881190690415</v>
+        <v>12.6578817392391</v>
       </c>
       <c r="G12" t="n">
-        <v>11.8007122179772</v>
+        <v>12.5368199413229</v>
       </c>
       <c r="H12" t="n">
-        <v>12.9431468848277</v>
+        <v>12.4506256447464</v>
       </c>
       <c r="I12" t="n">
-        <v>9.93310401475707</v>
+        <v>12.1011944003074</v>
       </c>
       <c r="J12" t="n">
-        <v>11.5009223599564</v>
+        <v>11.109241318211</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>9.90806855704421</v>
+        <v>11.3321720421391</v>
       </c>
       <c r="B13" t="n">
-        <v>11.0360539105253</v>
+        <v>10.9197348357967</v>
       </c>
       <c r="C13" t="n">
-        <v>9.99983317191221</v>
+        <v>10.6534660971551</v>
       </c>
       <c r="D13" t="n">
-        <v>11.524436848494</v>
+        <v>12.3368816268025</v>
       </c>
       <c r="E13" t="n">
-        <v>12.2271941848995</v>
+        <v>12.359343648035</v>
       </c>
       <c r="F13" t="n">
-        <v>12.8084284896321</v>
+        <v>11.8379641898202</v>
       </c>
       <c r="G13" t="n">
-        <v>12.6746217881456</v>
+        <v>11.6025836888797</v>
       </c>
       <c r="H13" t="n">
-        <v>13.2609573604157</v>
+        <v>12.7039000924728</v>
       </c>
       <c r="I13" t="n">
-        <v>11.1966606842242</v>
+        <v>10.8827559785803</v>
       </c>
       <c r="J13" t="n">
-        <v>11.7125843843032</v>
+        <v>11.1399592647738</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-5.05130891129856</v>
+        <v>8.82725461506291</v>
       </c>
       <c r="B14" t="n">
-        <v>-5.29596907114645</v>
+        <v>11.0247540473046</v>
       </c>
       <c r="C14" t="n">
-        <v>-5.14688247623017</v>
+        <v>11.9296250095492</v>
       </c>
       <c r="D14" t="n">
-        <v>-4.50457336081397</v>
+        <v>12.529418898754</v>
       </c>
       <c r="E14" t="n">
-        <v>-3.65234092680004</v>
+        <v>11.9760850300282</v>
       </c>
       <c r="F14" t="n">
-        <v>-2.67589950298233</v>
+        <v>11.906033880575</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.946200108138647</v>
+        <v>12.1710909547149</v>
       </c>
       <c r="H14" t="n">
-        <v>0.890548466944516</v>
+        <v>11.2905281896192</v>
       </c>
       <c r="I14" t="n">
-        <v>3.74322717832197</v>
+        <v>10.9994349768948</v>
       </c>
       <c r="J14" t="n">
-        <v>6.62398485875674</v>
+        <v>12.386191384923</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-4.93504805211274</v>
+        <v>10.0500117845093</v>
       </c>
       <c r="B15" t="n">
-        <v>-5.41448463817639</v>
+        <v>11.4193889359466</v>
       </c>
       <c r="C15" t="n">
-        <v>-4.61703567027294</v>
+        <v>10.6763948489874</v>
       </c>
       <c r="D15" t="n">
-        <v>-4.36184222495343</v>
+        <v>11.7514855028984</v>
       </c>
       <c r="E15" t="n">
-        <v>-3.47586869363856</v>
+        <v>13.610355053753</v>
       </c>
       <c r="F15" t="n">
-        <v>-2.86489924432507</v>
+        <v>12.5554420679977</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.913247590467246</v>
+        <v>11.8091580403149</v>
       </c>
       <c r="H15" t="n">
-        <v>1.33232932362263</v>
+        <v>12.528740223065</v>
       </c>
       <c r="I15" t="n">
-        <v>4.12943310168618</v>
+        <v>11.7455015283767</v>
       </c>
       <c r="J15" t="n">
-        <v>6.55825210645288</v>
+        <v>10.5106832632408</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>10.7019520087585</v>
+        <v>10.626661242652</v>
       </c>
       <c r="B16" t="n">
-        <v>10.0957343026925</v>
+        <v>11.9097336572578</v>
       </c>
       <c r="C16" t="n">
-        <v>11.8174718702158</v>
+        <v>13.0651192012408</v>
       </c>
       <c r="D16" t="n">
-        <v>13.1635635672972</v>
+        <v>13.2410649723456</v>
       </c>
       <c r="E16" t="n">
-        <v>11.2197579360061</v>
+        <v>12.107867681881</v>
       </c>
       <c r="F16" t="n">
-        <v>12.2755166624236</v>
+        <v>11.7542467831751</v>
       </c>
       <c r="G16" t="n">
-        <v>13.3010251637416</v>
+        <v>11.4079374130467</v>
       </c>
       <c r="H16" t="n">
-        <v>13.0284268898653</v>
+        <v>12.5147766416767</v>
       </c>
       <c r="I16" t="n">
-        <v>12.1666592362526</v>
+        <v>12.4128176188878</v>
       </c>
       <c r="J16" t="n">
-        <v>11.1787707620142</v>
+        <v>10.3895936993793</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>9.43176942785613</v>
+        <v>-5.23867140466784</v>
       </c>
       <c r="B17" t="n">
-        <v>10.4028294844965</v>
+        <v>-5.56834506520091</v>
       </c>
       <c r="C17" t="n">
-        <v>11.0549459187232</v>
+        <v>-5.14160085798186</v>
       </c>
       <c r="D17" t="n">
-        <v>12.4999118542257</v>
+        <v>-4.88745587621676</v>
       </c>
       <c r="E17" t="n">
-        <v>13.7271916346309</v>
+        <v>-3.96800517268099</v>
       </c>
       <c r="F17" t="n">
-        <v>12.8371696765467</v>
+        <v>-2.72929047573814</v>
       </c>
       <c r="G17" t="n">
-        <v>13.5809031149081</v>
+        <v>-0.804916294573176</v>
       </c>
       <c r="H17" t="n">
-        <v>11.3982227777698</v>
+        <v>1.37622523211241</v>
       </c>
       <c r="I17" t="n">
-        <v>10.8088552208946</v>
+        <v>4.07372217385568</v>
       </c>
       <c r="J17" t="n">
-        <v>10.8760695230412</v>
+        <v>6.70087485282414</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>9.17483632233046</v>
+        <v>10.0905827046899</v>
       </c>
       <c r="B18" t="n">
-        <v>11.807805511467</v>
+        <v>10.3274678285065</v>
       </c>
       <c r="C18" t="n">
-        <v>11.1824461434176</v>
+        <v>11.9280359355345</v>
       </c>
       <c r="D18" t="n">
-        <v>12.4299469630203</v>
+        <v>11.9848685150785</v>
       </c>
       <c r="E18" t="n">
-        <v>12.547384355503</v>
+        <v>12.5579811680811</v>
       </c>
       <c r="F18" t="n">
-        <v>12.3622742806875</v>
+        <v>10.8901538131721</v>
       </c>
       <c r="G18" t="n">
-        <v>12.0744639789204</v>
+        <v>12.328287971641</v>
       </c>
       <c r="H18" t="n">
-        <v>11.0813779842478</v>
+        <v>13.0456662748088</v>
       </c>
       <c r="I18" t="n">
-        <v>10.8506757623657</v>
+        <v>11.4540230771908</v>
       </c>
       <c r="J18" t="n">
-        <v>11.3062556954964</v>
+        <v>11.1278807879643</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-5.21158472029999</v>
+        <v>10.3929294135321</v>
       </c>
       <c r="B19" t="n">
-        <v>-5.24849017741025</v>
+        <v>11.5043491557343</v>
       </c>
       <c r="C19" t="n">
-        <v>-5.27962312275398</v>
+        <v>11.9459357854672</v>
       </c>
       <c r="D19" t="n">
-        <v>-4.61370719189954</v>
+        <v>12.0819607661218</v>
       </c>
       <c r="E19" t="n">
-        <v>-3.6980406718379</v>
+        <v>11.3189798865438</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.99446265411891</v>
+        <v>13.1406913720375</v>
       </c>
       <c r="G19" t="n">
-        <v>-1.05223917608524</v>
+        <v>13.0787808661564</v>
       </c>
       <c r="H19" t="n">
-        <v>1.67368714799237</v>
+        <v>11.9652587273355</v>
       </c>
       <c r="I19" t="n">
-        <v>4.08796172029847</v>
+        <v>9.50911949108466</v>
       </c>
       <c r="J19" t="n">
-        <v>6.6971125538102</v>
+        <v>11.5328403795703</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-5.21268326405623</v>
+        <v>9.56576584299016</v>
       </c>
       <c r="B20" t="n">
-        <v>-5.40188182177543</v>
+        <v>11.0149152271077</v>
       </c>
       <c r="C20" t="n">
-        <v>-5.18574952426873</v>
+        <v>11.5407207272653</v>
       </c>
       <c r="D20" t="n">
-        <v>-4.92675182543565</v>
+        <v>11.4002908607806</v>
       </c>
       <c r="E20" t="n">
-        <v>-3.81310339246058</v>
+        <v>11.8573713552902</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.19376484650439</v>
+        <v>11.5547832512553</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.619329800678702</v>
+        <v>12.9680539620468</v>
       </c>
       <c r="H20" t="n">
-        <v>1.57097142917939</v>
+        <v>10.8147929110842</v>
       </c>
       <c r="I20" t="n">
-        <v>4.03245797568803</v>
+        <v>11.7163780383171</v>
       </c>
       <c r="J20" t="n">
-        <v>6.95147659306367</v>
+        <v>10.783407269171</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>10.4032730738707</v>
+        <v>-4.88656542722239</v>
       </c>
       <c r="B21" t="n">
-        <v>11.1597542227338</v>
+        <v>-5.11067943949753</v>
       </c>
       <c r="C21" t="n">
-        <v>11.2212585140542</v>
+        <v>-5.49726704161568</v>
       </c>
       <c r="D21" t="n">
-        <v>12.9518003419835</v>
+        <v>-4.6227642078934</v>
       </c>
       <c r="E21" t="n">
-        <v>11.4968665792338</v>
+        <v>-4.19783571657198</v>
       </c>
       <c r="F21" t="n">
-        <v>13.1968938963469</v>
+        <v>-2.52677324370637</v>
       </c>
       <c r="G21" t="n">
-        <v>13.3358197836049</v>
+        <v>-0.826665795235993</v>
       </c>
       <c r="H21" t="n">
-        <v>11.584513404691</v>
+        <v>1.01270549467484</v>
       </c>
       <c r="I21" t="n">
-        <v>11.4844887339388</v>
+        <v>3.67309528402401</v>
       </c>
       <c r="J21" t="n">
-        <v>10.767113260027</v>
+        <v>7.03133952575866</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>7.72446708601048</v>
+        <v>-4.77615030598137</v>
       </c>
       <c r="B22" t="n">
-        <v>10.9308408539526</v>
+        <v>-5.39388537672356</v>
       </c>
       <c r="C22" t="n">
-        <v>11.2934799959794</v>
+        <v>-4.9734693329317</v>
       </c>
       <c r="D22" t="n">
-        <v>13.7046374836328</v>
+        <v>-5.00588043926278</v>
       </c>
       <c r="E22" t="n">
-        <v>13.2448175677728</v>
+        <v>-3.57101228499665</v>
       </c>
       <c r="F22" t="n">
-        <v>12.7700866548866</v>
+        <v>-2.78133555690047</v>
       </c>
       <c r="G22" t="n">
-        <v>13.4726965957947</v>
+        <v>-0.453963058879944</v>
       </c>
       <c r="H22" t="n">
-        <v>11.1930507180733</v>
+        <v>1.1578451521607</v>
       </c>
       <c r="I22" t="n">
-        <v>11.8524320930911</v>
+        <v>3.93848323185705</v>
       </c>
       <c r="J22" t="n">
-        <v>10.2044947959188</v>
+        <v>6.51316765005388</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>9.3656542942541</v>
+        <v>9.98679626858829</v>
       </c>
       <c r="B23" t="n">
-        <v>10.7859157291489</v>
+        <v>11.4528073601897</v>
       </c>
       <c r="C23" t="n">
-        <v>11.601509611253</v>
+        <v>10.8885957544063</v>
       </c>
       <c r="D23" t="n">
-        <v>11.9346129829411</v>
+        <v>11.5405566280566</v>
       </c>
       <c r="E23" t="n">
-        <v>11.634696665862</v>
+        <v>11.7837687347552</v>
       </c>
       <c r="F23" t="n">
-        <v>13.1645926948178</v>
+        <v>12.2673303619099</v>
       </c>
       <c r="G23" t="n">
-        <v>12.1764224266673</v>
+        <v>12.3632898092355</v>
       </c>
       <c r="H23" t="n">
-        <v>12.064310179461</v>
+        <v>12.6291112022307</v>
       </c>
       <c r="I23" t="n">
-        <v>12.1355151778806</v>
+        <v>11.4088112557314</v>
       </c>
       <c r="J23" t="n">
-        <v>9.4126505693689</v>
+        <v>11.0703096727284</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-4.8855824120483</v>
+        <v>9.7168394384188</v>
       </c>
       <c r="B24" t="n">
-        <v>-5.31715248594076</v>
+        <v>11.2715281850011</v>
       </c>
       <c r="C24" t="n">
-        <v>-5.24992211724448</v>
+        <v>10.7380203154629</v>
       </c>
       <c r="D24" t="n">
-        <v>-4.94931118463644</v>
+        <v>12.5441751516622</v>
       </c>
       <c r="E24" t="n">
-        <v>-3.74152417026968</v>
+        <v>12.3118724777721</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.30151503659434</v>
+        <v>12.0655183390005</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.697533864987328</v>
+        <v>13.2068937822234</v>
       </c>
       <c r="H24" t="n">
-        <v>1.36889581801986</v>
+        <v>11.7657738394728</v>
       </c>
       <c r="I24" t="n">
-        <v>3.93165750665488</v>
+        <v>11.1479924809298</v>
       </c>
       <c r="J24" t="n">
-        <v>6.89594395875018</v>
+        <v>10.6279388716786</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-5.08168858818663</v>
+        <v>-4.99619314236248</v>
       </c>
       <c r="B25" t="n">
-        <v>-5.44372062389716</v>
+        <v>-5.11838797402404</v>
       </c>
       <c r="C25" t="n">
-        <v>-4.58411249977709</v>
+        <v>-4.93751747996698</v>
       </c>
       <c r="D25" t="n">
-        <v>-4.28468133283529</v>
+        <v>-4.76754055110285</v>
       </c>
       <c r="E25" t="n">
-        <v>-3.70962568008713</v>
+        <v>-3.88023876132048</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.61436628860727</v>
+        <v>-2.66957597622958</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.878850729096923</v>
+        <v>-0.830125470048988</v>
       </c>
       <c r="H25" t="n">
-        <v>1.2990744666796</v>
+        <v>1.16147169530509</v>
       </c>
       <c r="I25" t="n">
-        <v>3.89953305940708</v>
+        <v>3.59531320025327</v>
       </c>
       <c r="J25" t="n">
-        <v>6.79951142238386</v>
+        <v>6.66416410097402</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>9.55189288919041</v>
+        <v>8.9424058217782</v>
       </c>
       <c r="B26" t="n">
-        <v>10.6794563281722</v>
+        <v>11.5694701780285</v>
       </c>
       <c r="C26" t="n">
-        <v>12.0040780775534</v>
+        <v>11.5203447211066</v>
       </c>
       <c r="D26" t="n">
-        <v>12.416199073418</v>
+        <v>12.4560084840924</v>
       </c>
       <c r="E26" t="n">
-        <v>12.193672413005</v>
+        <v>12.1963090487785</v>
       </c>
       <c r="F26" t="n">
-        <v>12.9417796107425</v>
+        <v>11.7049165176212</v>
       </c>
       <c r="G26" t="n">
-        <v>12.7332092684381</v>
+        <v>10.9899450218326</v>
       </c>
       <c r="H26" t="n">
-        <v>11.7846448987045</v>
+        <v>13.0040950370626</v>
       </c>
       <c r="I26" t="n">
-        <v>10.9907927212048</v>
+        <v>11.468416828126</v>
       </c>
       <c r="J26" t="n">
-        <v>9.7178160120155</v>
+        <v>11.4232759492026</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>9.34242464191969</v>
+        <v>-4.85392618987383</v>
       </c>
       <c r="B27" t="n">
-        <v>11.0870878495405</v>
+        <v>-5.1899591079558</v>
       </c>
       <c r="C27" t="n">
-        <v>11.3649763603516</v>
+        <v>-5.26512157478578</v>
       </c>
       <c r="D27" t="n">
-        <v>11.7999825603109</v>
+        <v>-4.59089019083596</v>
       </c>
       <c r="E27" t="n">
-        <v>11.8313499705266</v>
+        <v>-4.01861482612585</v>
       </c>
       <c r="F27" t="n">
-        <v>11.1537233693353</v>
+        <v>-2.36880499859996</v>
       </c>
       <c r="G27" t="n">
-        <v>13.3907464470952</v>
+        <v>-0.251554592053634</v>
       </c>
       <c r="H27" t="n">
-        <v>11.7205017345932</v>
+        <v>1.33394735568981</v>
       </c>
       <c r="I27" t="n">
-        <v>12.5061009148743</v>
+        <v>3.76498457371393</v>
       </c>
       <c r="J27" t="n">
-        <v>11.2211972406374</v>
+        <v>6.56609042499091</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-5.15182390942024</v>
+        <v>9.79773868250807</v>
       </c>
       <c r="B28" t="n">
-        <v>-5.22513355257226</v>
+        <v>11.2947558644089</v>
       </c>
       <c r="C28" t="n">
-        <v>-4.99192944666507</v>
+        <v>10.1738604995398</v>
       </c>
       <c r="D28" t="n">
-        <v>-4.89001152376652</v>
+        <v>14.0690285675735</v>
       </c>
       <c r="E28" t="n">
-        <v>-3.93194034335008</v>
+        <v>11.9177333276013</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.62008480008275</v>
+        <v>12.3502861091281</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.796434955477221</v>
+        <v>12.1724902574357</v>
       </c>
       <c r="H28" t="n">
-        <v>1.83352262675488</v>
+        <v>11.3051213855108</v>
       </c>
       <c r="I28" t="n">
-        <v>4.01189819692887</v>
+        <v>11.0128068992945</v>
       </c>
       <c r="J28" t="n">
-        <v>6.39776815845214</v>
+        <v>12.6166727598915</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>10.4596014484734</v>
+        <v>10.2612420714242</v>
       </c>
       <c r="B29" t="n">
-        <v>9.86546563616278</v>
+        <v>10.5986130535572</v>
       </c>
       <c r="C29" t="n">
-        <v>11.6376416070388</v>
+        <v>11.9148693970055</v>
       </c>
       <c r="D29" t="n">
-        <v>11.420735264063</v>
+        <v>12.3235549419463</v>
       </c>
       <c r="E29" t="n">
-        <v>12.515689802403</v>
+        <v>12.1077788057614</v>
       </c>
       <c r="F29" t="n">
-        <v>11.0984474887263</v>
+        <v>12.940712256303</v>
       </c>
       <c r="G29" t="n">
-        <v>11.7991726940504</v>
+        <v>12.1228786136519</v>
       </c>
       <c r="H29" t="n">
-        <v>11.8322926153596</v>
+        <v>11.9119067424493</v>
       </c>
       <c r="I29" t="n">
-        <v>12.1371635280627</v>
+        <v>11.247302303826</v>
       </c>
       <c r="J29" t="n">
-        <v>11.4861426021161</v>
+        <v>10.3925230675815</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>11.098465827158</v>
+        <v>9.65832443376266</v>
       </c>
       <c r="B30" t="n">
-        <v>10.1527548572421</v>
+        <v>13.1108516600914</v>
       </c>
       <c r="C30" t="n">
-        <v>11.4949632952182</v>
+        <v>10.9907472588757</v>
       </c>
       <c r="D30" t="n">
-        <v>12.4667924513005</v>
+        <v>11.5973031866125</v>
       </c>
       <c r="E30" t="n">
-        <v>12.1923589769696</v>
+        <v>12.382679865889</v>
       </c>
       <c r="F30" t="n">
-        <v>12.9860181691681</v>
+        <v>12.6248474613108</v>
       </c>
       <c r="G30" t="n">
-        <v>12.8208284800286</v>
+        <v>12.5086284202628</v>
       </c>
       <c r="H30" t="n">
-        <v>13.1902349789454</v>
+        <v>12.4729019180278</v>
       </c>
       <c r="I30" t="n">
-        <v>11.8859595286762</v>
+        <v>11.3670451500751</v>
       </c>
       <c r="J30" t="n">
-        <v>10.2613505845778</v>
+        <v>10.22309728837</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>9.53597406395979</v>
+        <v>9.64955864874524</v>
       </c>
       <c r="B31" t="n">
-        <v>11.6675383670447</v>
+        <v>10.725824336436</v>
       </c>
       <c r="C31" t="n">
-        <v>12.0796313144872</v>
+        <v>10.4989137283247</v>
       </c>
       <c r="D31" t="n">
-        <v>12.5317609632804</v>
+        <v>12.371276535451</v>
       </c>
       <c r="E31" t="n">
-        <v>11.5797495545102</v>
+        <v>12.9575101524249</v>
       </c>
       <c r="F31" t="n">
-        <v>12.502915130057</v>
+        <v>13.282129551475</v>
       </c>
       <c r="G31" t="n">
-        <v>14.2219773230328</v>
+        <v>12.0203305066187</v>
       </c>
       <c r="H31" t="n">
-        <v>12.0660673095404</v>
+        <v>12.2234598229045</v>
       </c>
       <c r="I31" t="n">
-        <v>10.7391305706994</v>
+        <v>11.330406096147</v>
       </c>
       <c r="J31" t="n">
-        <v>12.020892234923</v>
+        <v>12.2031576823527</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>9.65250473925691</v>
+        <v>-5.23366692792616</v>
       </c>
       <c r="B32" t="n">
-        <v>9.68651490253719</v>
+        <v>-5.71341875886534</v>
       </c>
       <c r="C32" t="n">
-        <v>12.9297418413174</v>
+        <v>-5.29735813639765</v>
       </c>
       <c r="D32" t="n">
-        <v>12.5838090058957</v>
+        <v>-4.78955310197371</v>
       </c>
       <c r="E32" t="n">
-        <v>13.1736256819814</v>
+        <v>-4.17924543465192</v>
       </c>
       <c r="F32" t="n">
-        <v>12.0912701727131</v>
+        <v>-2.53557642015555</v>
       </c>
       <c r="G32" t="n">
-        <v>12.7839647132916</v>
+        <v>-0.384717826962266</v>
       </c>
       <c r="H32" t="n">
-        <v>12.7360242656945</v>
+        <v>0.92056139405854</v>
       </c>
       <c r="I32" t="n">
-        <v>11.2586265089152</v>
+        <v>3.92291846242743</v>
       </c>
       <c r="J32" t="n">
-        <v>10.7067750237013</v>
+        <v>6.93498545422148</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>10.0066215560318</v>
+        <v>9.31612129630941</v>
       </c>
       <c r="B33" t="n">
-        <v>9.81432786159297</v>
+        <v>10.1645697517233</v>
       </c>
       <c r="C33" t="n">
-        <v>11.7113052306757</v>
+        <v>10.6357943264375</v>
       </c>
       <c r="D33" t="n">
-        <v>12.4086737150998</v>
+        <v>10.5789262131646</v>
       </c>
       <c r="E33" t="n">
-        <v>11.3928982121988</v>
+        <v>12.3088053136166</v>
       </c>
       <c r="F33" t="n">
-        <v>13.4963482751077</v>
+        <v>11.8324929468261</v>
       </c>
       <c r="G33" t="n">
-        <v>13.0746520545325</v>
+        <v>12.0533008119584</v>
       </c>
       <c r="H33" t="n">
-        <v>12.2673157256732</v>
+        <v>11.5179991447125</v>
       </c>
       <c r="I33" t="n">
-        <v>12.9978189426373</v>
+        <v>12.831623784211</v>
       </c>
       <c r="J33" t="n">
-        <v>10.1098561415122</v>
+        <v>9.9599218901396</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-5.10686744162758</v>
+        <v>10.6552246631458</v>
       </c>
       <c r="B34" t="n">
-        <v>-5.09158580549711</v>
+        <v>9.26764366905028</v>
       </c>
       <c r="C34" t="n">
-        <v>-5.37506808987358</v>
+        <v>11.4140059280267</v>
       </c>
       <c r="D34" t="n">
-        <v>-4.78406437747915</v>
+        <v>12.2890162279844</v>
       </c>
       <c r="E34" t="n">
-        <v>-4.41855555342318</v>
+        <v>12.4811909516359</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.57445948125423</v>
+        <v>13.0971034105667</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.685196130938338</v>
+        <v>12.4976949254218</v>
       </c>
       <c r="H34" t="n">
-        <v>0.953481721129376</v>
+        <v>12.3130533579674</v>
       </c>
       <c r="I34" t="n">
-        <v>3.83100356057451</v>
+        <v>13.3254112100014</v>
       </c>
       <c r="J34" t="n">
-        <v>6.49260574337938</v>
+        <v>10.8479124117339</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-4.90861997938143</v>
+        <v>10.1136467809354</v>
       </c>
       <c r="B35" t="n">
-        <v>-5.07344157459081</v>
+        <v>11.7598342494635</v>
       </c>
       <c r="C35" t="n">
-        <v>-5.56831582677541</v>
+        <v>10.50249097249</v>
       </c>
       <c r="D35" t="n">
-        <v>-5.23110267232131</v>
+        <v>10.9497595194247</v>
       </c>
       <c r="E35" t="n">
-        <v>-3.88285217108689</v>
+        <v>12.450644273153</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.19918716689368</v>
+        <v>12.2988672493383</v>
       </c>
       <c r="G35" t="n">
-        <v>-1.32658341126878</v>
+        <v>12.8134493589988</v>
       </c>
       <c r="H35" t="n">
-        <v>1.35273386386588</v>
+        <v>11.64316650927</v>
       </c>
       <c r="I35" t="n">
-        <v>3.84473895102685</v>
+        <v>9.89846939594964</v>
       </c>
       <c r="J35" t="n">
-        <v>6.52404153425938</v>
+        <v>11.1205988894679</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-4.67271559788441</v>
+        <v>10.5734794440623</v>
       </c>
       <c r="B36" t="n">
-        <v>-5.47135640902968</v>
+        <v>9.54295802665744</v>
       </c>
       <c r="C36" t="n">
-        <v>-5.68715635822617</v>
+        <v>12.3880924429108</v>
       </c>
       <c r="D36" t="n">
-        <v>-4.95765844872945</v>
+        <v>13.030051277275</v>
       </c>
       <c r="E36" t="n">
-        <v>-3.99584775795977</v>
+        <v>12.3297805500281</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.42962676353787</v>
+        <v>12.8388315636217</v>
       </c>
       <c r="G36" t="n">
-        <v>-1.18891043689384</v>
+        <v>12.9588041791673</v>
       </c>
       <c r="H36" t="n">
-        <v>1.08810950354413</v>
+        <v>12.4556450462368</v>
       </c>
       <c r="I36" t="n">
-        <v>3.97825119048102</v>
+        <v>11.9024229128136</v>
       </c>
       <c r="J36" t="n">
-        <v>6.35150865971379</v>
+        <v>11.5334572893554</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-4.63432543747125</v>
+        <v>10.2934720150672</v>
       </c>
       <c r="B37" t="n">
-        <v>-5.4153858123792</v>
+        <v>11.170746739378</v>
       </c>
       <c r="C37" t="n">
-        <v>-5.38710906962029</v>
+        <v>10.2090077036937</v>
       </c>
       <c r="D37" t="n">
-        <v>-5.1484852421225</v>
+        <v>11.9098307084707</v>
       </c>
       <c r="E37" t="n">
-        <v>-4.26617159631258</v>
+        <v>12.1127330720672</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.25106687509825</v>
+        <v>12.6975826052233</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.589365528454269</v>
+        <v>12.5851462055368</v>
       </c>
       <c r="H37" t="n">
-        <v>1.18350089336333</v>
+        <v>11.3566977019711</v>
       </c>
       <c r="I37" t="n">
-        <v>3.75242565586894</v>
+        <v>11.407684127811</v>
       </c>
       <c r="J37" t="n">
-        <v>6.58591700337741</v>
+        <v>10.6123229640973</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>9.14922394246311</v>
+        <v>-5.22864045513096</v>
       </c>
       <c r="B38" t="n">
-        <v>10.812363391254</v>
+        <v>-5.39380610258741</v>
       </c>
       <c r="C38" t="n">
-        <v>11.953971299445</v>
+        <v>-4.95066205050803</v>
       </c>
       <c r="D38" t="n">
-        <v>11.1470250663644</v>
+        <v>-4.61752224947993</v>
       </c>
       <c r="E38" t="n">
-        <v>13.3614621140098</v>
+        <v>-3.71607828837934</v>
       </c>
       <c r="F38" t="n">
-        <v>13.0984408182321</v>
+        <v>-2.87324225260176</v>
       </c>
       <c r="G38" t="n">
-        <v>13.1530287372586</v>
+        <v>-0.802139913033359</v>
       </c>
       <c r="H38" t="n">
-        <v>11.7907624094437</v>
+        <v>1.02021903904175</v>
       </c>
       <c r="I38" t="n">
-        <v>12.0871139227673</v>
+        <v>4.0466893834567</v>
       </c>
       <c r="J38" t="n">
-        <v>10.8303680458843</v>
+        <v>6.51988511125933</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>9.31480704680632</v>
+        <v>11.0306169274435</v>
       </c>
       <c r="B39" t="n">
-        <v>11.1625471912377</v>
+        <v>12.2800971284276</v>
       </c>
       <c r="C39" t="n">
-        <v>10.9667793009968</v>
+        <v>10.1374910539033</v>
       </c>
       <c r="D39" t="n">
-        <v>10.4592304636727</v>
+        <v>12.4190456418639</v>
       </c>
       <c r="E39" t="n">
-        <v>11.5237046982181</v>
+        <v>12.7094034097265</v>
       </c>
       <c r="F39" t="n">
-        <v>12.8296631141674</v>
+        <v>12.5341166626054</v>
       </c>
       <c r="G39" t="n">
-        <v>12.7724441619086</v>
+        <v>12.7242948791254</v>
       </c>
       <c r="H39" t="n">
-        <v>11.8690833948193</v>
+        <v>12.6702284777606</v>
       </c>
       <c r="I39" t="n">
-        <v>12.1757432407592</v>
+        <v>11.4286937108576</v>
       </c>
       <c r="J39" t="n">
-        <v>10.2747472888007</v>
+        <v>10.7771939901332</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>8.6139631937748</v>
+        <v>-4.81367200894878</v>
       </c>
       <c r="B40" t="n">
-        <v>11.3481059460781</v>
+        <v>-5.76318030903231</v>
       </c>
       <c r="C40" t="n">
-        <v>11.2772423632826</v>
+        <v>-5.00295561061329</v>
       </c>
       <c r="D40" t="n">
-        <v>11.4275215885957</v>
+        <v>-4.58417645106049</v>
       </c>
       <c r="E40" t="n">
-        <v>10.8349061694547</v>
+        <v>-3.78776675601729</v>
       </c>
       <c r="F40" t="n">
-        <v>13.4985384815719</v>
+        <v>-2.34163497585591</v>
       </c>
       <c r="G40" t="n">
-        <v>12.9369489791669</v>
+        <v>-0.719469102699965</v>
       </c>
       <c r="H40" t="n">
-        <v>10.1647880968693</v>
+        <v>1.13618068746334</v>
       </c>
       <c r="I40" t="n">
-        <v>11.9786483291909</v>
+        <v>3.77313027726236</v>
       </c>
       <c r="J40" t="n">
-        <v>10.2046358257468</v>
+        <v>6.8776715849794</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>-5.63804930716016</v>
+        <v>9.91987852774259</v>
       </c>
       <c r="B41" t="n">
-        <v>-5.39383524167743</v>
+        <v>9.9627910115734</v>
       </c>
       <c r="C41" t="n">
-        <v>-4.69939054967766</v>
+        <v>10.94909487237</v>
       </c>
       <c r="D41" t="n">
-        <v>-5.02638059669253</v>
+        <v>12.4185698127923</v>
       </c>
       <c r="E41" t="n">
-        <v>-3.62664955181615</v>
+        <v>13.0524111128185</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.52810348886697</v>
+        <v>12.497481796246</v>
       </c>
       <c r="G41" t="n">
-        <v>-1.15595265029014</v>
+        <v>11.8645925355668</v>
       </c>
       <c r="H41" t="n">
-        <v>0.903904671321682</v>
+        <v>11.8079223874438</v>
       </c>
       <c r="I41" t="n">
-        <v>4.22105863777942</v>
+        <v>11.798375002774</v>
       </c>
       <c r="J41" t="n">
-        <v>6.41031016254579</v>
+        <v>11.1466050211817</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>-5.13018106493368</v>
+        <v>9.26334749043045</v>
       </c>
       <c r="B42" t="n">
-        <v>-5.42896524056067</v>
+        <v>10.2215628848757</v>
       </c>
       <c r="C42" t="n">
-        <v>-4.97245772201661</v>
+        <v>11.9224173471106</v>
       </c>
       <c r="D42" t="n">
-        <v>-4.41410011459343</v>
+        <v>11.3525791227521</v>
       </c>
       <c r="E42" t="n">
-        <v>-3.67044155112296</v>
+        <v>12.0516737810941</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.60653276084211</v>
+        <v>13.0380088132446</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.800045578577164</v>
+        <v>12.4463992572481</v>
       </c>
       <c r="H42" t="n">
-        <v>1.06946749148455</v>
+        <v>12.3908313554652</v>
       </c>
       <c r="I42" t="n">
-        <v>4.35802684751729</v>
+        <v>11.6503750293633</v>
       </c>
       <c r="J42" t="n">
-        <v>6.59417996199178</v>
+        <v>10.5362478747453</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>-5.03008709388262</v>
+        <v>-4.81243412321371</v>
       </c>
       <c r="B43" t="n">
-        <v>-5.49310503283309</v>
+        <v>-4.98253260817629</v>
       </c>
       <c r="C43" t="n">
-        <v>-5.44632861332255</v>
+        <v>-5.66639217144409</v>
       </c>
       <c r="D43" t="n">
-        <v>-4.33231546368197</v>
+        <v>-4.24655329341187</v>
       </c>
       <c r="E43" t="n">
-        <v>-3.67130437452329</v>
+        <v>-3.56258902099858</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.780140287527</v>
+        <v>-2.22995099481857</v>
       </c>
       <c r="G43" t="n">
-        <v>-0.640743161095331</v>
+        <v>-0.664538541131969</v>
       </c>
       <c r="H43" t="n">
-        <v>1.41799155275229</v>
+        <v>1.91725033615545</v>
       </c>
       <c r="I43" t="n">
-        <v>3.88929534101511</v>
+        <v>3.56725083047456</v>
       </c>
       <c r="J43" t="n">
-        <v>6.40868110840165</v>
+        <v>7.09274451590169</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>10.1212487775057</v>
+        <v>-5.24752087507387</v>
       </c>
       <c r="B44" t="n">
-        <v>10.5111076980817</v>
+        <v>-5.11125210997958</v>
       </c>
       <c r="C44" t="n">
-        <v>12.8707189719974</v>
+        <v>-5.44836460569972</v>
       </c>
       <c r="D44" t="n">
-        <v>12.4757005846498</v>
+        <v>-4.64678676566595</v>
       </c>
       <c r="E44" t="n">
-        <v>12.0337703067693</v>
+        <v>-3.6589377425453</v>
       </c>
       <c r="F44" t="n">
-        <v>12.0253862762467</v>
+        <v>-2.72521767895294</v>
       </c>
       <c r="G44" t="n">
-        <v>12.3792277829936</v>
+        <v>-1.06760977427906</v>
       </c>
       <c r="H44" t="n">
-        <v>12.4018924255067</v>
+        <v>1.61899651082568</v>
       </c>
       <c r="I44" t="n">
-        <v>10.7771684332433</v>
+        <v>3.8036815525488</v>
       </c>
       <c r="J44" t="n">
-        <v>11.2158148990699</v>
+        <v>6.87865694711825</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>9.27945550839776</v>
+        <v>-5.08158204130002</v>
       </c>
       <c r="B45" t="n">
-        <v>9.13766262195344</v>
+        <v>-5.55113234127807</v>
       </c>
       <c r="C45" t="n">
-        <v>10.2290908416027</v>
+        <v>-4.8776637787472</v>
       </c>
       <c r="D45" t="n">
-        <v>12.1533721512377</v>
+        <v>-4.64258658307934</v>
       </c>
       <c r="E45" t="n">
-        <v>12.5747015372877</v>
+        <v>-3.48982843200917</v>
       </c>
       <c r="F45" t="n">
-        <v>12.4919748539723</v>
+        <v>-2.62619369072577</v>
       </c>
       <c r="G45" t="n">
-        <v>12.3478172992773</v>
+        <v>-0.576506887970013</v>
       </c>
       <c r="H45" t="n">
-        <v>10.9615582457999</v>
+        <v>1.11180979864842</v>
       </c>
       <c r="I45" t="n">
-        <v>11.3189655821488</v>
+        <v>3.67793769253671</v>
       </c>
       <c r="J45" t="n">
-        <v>9.76126658054186</v>
+        <v>6.90382208769514</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>10.6762060098969</v>
+        <v>9.93302517446054</v>
       </c>
       <c r="B46" t="n">
-        <v>9.73941102941887</v>
+        <v>10.5852272152652</v>
       </c>
       <c r="C46" t="n">
-        <v>10.9453465074944</v>
+        <v>10.8088155034662</v>
       </c>
       <c r="D46" t="n">
-        <v>11.8636235563915</v>
+        <v>10.5419131758537</v>
       </c>
       <c r="E46" t="n">
-        <v>12.5995657645909</v>
+        <v>12.9147266687738</v>
       </c>
       <c r="F46" t="n">
-        <v>12.0028057486886</v>
+        <v>12.1003360493554</v>
       </c>
       <c r="G46" t="n">
-        <v>12.6258428116451</v>
+        <v>12.2665869368643</v>
       </c>
       <c r="H46" t="n">
-        <v>12.0958158241298</v>
+        <v>11.0612260081585</v>
       </c>
       <c r="I46" t="n">
-        <v>11.939406535258</v>
+        <v>11.9519019732389</v>
       </c>
       <c r="J46" t="n">
-        <v>12.3467542978336</v>
+        <v>10.6017667146822</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>9.37275776899834</v>
+        <v>9.64600316566578</v>
       </c>
       <c r="B47" t="n">
-        <v>10.039194936289</v>
+        <v>10.2960470009702</v>
       </c>
       <c r="C47" t="n">
-        <v>11.5865626979947</v>
+        <v>10.5678855837931</v>
       </c>
       <c r="D47" t="n">
-        <v>13.0592618562581</v>
+        <v>12.8752947167332</v>
       </c>
       <c r="E47" t="n">
-        <v>12.9223337487389</v>
+        <v>12.2851589472959</v>
       </c>
       <c r="F47" t="n">
-        <v>12.9773677929452</v>
+        <v>14.2257254440811</v>
       </c>
       <c r="G47" t="n">
-        <v>13.4342356313066</v>
+        <v>11.5631346232087</v>
       </c>
       <c r="H47" t="n">
-        <v>11.1931708853182</v>
+        <v>12.2163735382704</v>
       </c>
       <c r="I47" t="n">
-        <v>12.0590670674418</v>
+        <v>11.405255922692</v>
       </c>
       <c r="J47" t="n">
-        <v>11.4840996945399</v>
+        <v>11.3252050608823</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>9.96461462992512</v>
+        <v>8.68825182489584</v>
       </c>
       <c r="B48" t="n">
-        <v>10.2388699916137</v>
+        <v>11.3344086095317</v>
       </c>
       <c r="C48" t="n">
-        <v>11.2516782347792</v>
+        <v>9.79842334941637</v>
       </c>
       <c r="D48" t="n">
-        <v>12.5609457853985</v>
+        <v>12.2959315651383</v>
       </c>
       <c r="E48" t="n">
-        <v>11.6036231238323</v>
+        <v>12.2252502795693</v>
       </c>
       <c r="F48" t="n">
-        <v>13.1314291856199</v>
+        <v>11.9674553980309</v>
       </c>
       <c r="G48" t="n">
-        <v>12.3107798545624</v>
+        <v>12.8670012513363</v>
       </c>
       <c r="H48" t="n">
-        <v>11.7580571074382</v>
+        <v>11.0846269916139</v>
       </c>
       <c r="I48" t="n">
-        <v>12.9783128650101</v>
+        <v>10.0017319848586</v>
       </c>
       <c r="J48" t="n">
-        <v>12.322224578761</v>
+        <v>10.1883645688473</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>-5.13649999968635</v>
+        <v>10.5908290828112</v>
       </c>
       <c r="B49" t="n">
-        <v>-5.33138089344126</v>
+        <v>10.9514475903584</v>
       </c>
       <c r="C49" t="n">
-        <v>-5.19496739798602</v>
+        <v>12.2991162313867</v>
       </c>
       <c r="D49" t="n">
-        <v>-4.77449332920069</v>
+        <v>12.6653751757187</v>
       </c>
       <c r="E49" t="n">
-        <v>-3.77974202956333</v>
+        <v>13.2936919938775</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.45864738770293</v>
+        <v>12.5696673443931</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.619528438624228</v>
+        <v>11.888990166198</v>
       </c>
       <c r="H49" t="n">
-        <v>1.34511510657776</v>
+        <v>11.4972899655862</v>
       </c>
       <c r="I49" t="n">
-        <v>3.76461880267731</v>
+        <v>11.1718937239221</v>
       </c>
       <c r="J49" t="n">
-        <v>6.79302085088508</v>
+        <v>10.2535202457425</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>8.79098877712514</v>
+        <v>-4.93012544342279</v>
       </c>
       <c r="B50" t="n">
-        <v>11.848683918231</v>
+        <v>-5.22141000716966</v>
       </c>
       <c r="C50" t="n">
-        <v>11.5289597867358</v>
+        <v>-5.56998748920827</v>
       </c>
       <c r="D50" t="n">
-        <v>11.9885457260151</v>
+        <v>-4.52701300936177</v>
       </c>
       <c r="E50" t="n">
-        <v>12.2210735255792</v>
+        <v>-3.90190308730101</v>
       </c>
       <c r="F50" t="n">
-        <v>11.8082210597933</v>
+        <v>-2.65590006360058</v>
       </c>
       <c r="G50" t="n">
-        <v>12.0272949663467</v>
+        <v>-1.04564694240766</v>
       </c>
       <c r="H50" t="n">
-        <v>12.2806957452569</v>
+        <v>1.35151674315048</v>
       </c>
       <c r="I50" t="n">
-        <v>11.0736447856483</v>
+        <v>3.70397135502741</v>
       </c>
       <c r="J50" t="n">
-        <v>10.1773055877265</v>
+        <v>7.00823558339547</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-4.67299922869476</v>
+        <v>8.86817175621156</v>
       </c>
       <c r="B51" t="n">
-        <v>-5.72936501899967</v>
+        <v>12.2140169564825</v>
       </c>
       <c r="C51" t="n">
-        <v>-5.31564222334569</v>
+        <v>12.4144852598623</v>
       </c>
       <c r="D51" t="n">
-        <v>-4.95394283764759</v>
+        <v>12.6887858656315</v>
       </c>
       <c r="E51" t="n">
-        <v>-3.6306444687726</v>
+        <v>13.0622306315865</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.37740532074953</v>
+        <v>12.5012009080164</v>
       </c>
       <c r="G51" t="n">
-        <v>-0.416998854413799</v>
+        <v>13.1282576994682</v>
       </c>
       <c r="H51" t="n">
-        <v>0.911235146413646</v>
+        <v>11.5899026833987</v>
       </c>
       <c r="I51" t="n">
-        <v>3.84798808524416</v>
+        <v>12.2611706822872</v>
       </c>
       <c r="J51" t="n">
-        <v>7.06114099484479</v>
+        <v>10.6738939313877</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>10.1124127312298</v>
+        <v>10.0234546671507</v>
       </c>
       <c r="B52" t="n">
-        <v>10.3044724717271</v>
+        <v>10.7789039206242</v>
       </c>
       <c r="C52" t="n">
-        <v>12.3522656651066</v>
+        <v>11.368343420815</v>
       </c>
       <c r="D52" t="n">
-        <v>12.5912864552741</v>
+        <v>11.7763798441727</v>
       </c>
       <c r="E52" t="n">
-        <v>12.5304675453828</v>
+        <v>12.3743542931402</v>
       </c>
       <c r="F52" t="n">
-        <v>11.9890206897417</v>
+        <v>13.8691351322328</v>
       </c>
       <c r="G52" t="n">
-        <v>12.5481744929995</v>
+        <v>12.3748571611682</v>
       </c>
       <c r="H52" t="n">
-        <v>12.7453504498588</v>
+        <v>12.0729006691632</v>
       </c>
       <c r="I52" t="n">
-        <v>10.9900932717123</v>
+        <v>11.2078661758083</v>
       </c>
       <c r="J52" t="n">
-        <v>12.4027257608015</v>
+        <v>10.0785426105018</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>9.91624432467474</v>
+        <v>8.90422603603018</v>
       </c>
       <c r="B53" t="n">
-        <v>10.5812857454677</v>
+        <v>10.7923600674458</v>
       </c>
       <c r="C53" t="n">
-        <v>11.8349644831089</v>
+        <v>12.0874734383419</v>
       </c>
       <c r="D53" t="n">
-        <v>12.6400987273888</v>
+        <v>11.4645864665245</v>
       </c>
       <c r="E53" t="n">
-        <v>12.3308804478461</v>
+        <v>11.9670736297523</v>
       </c>
       <c r="F53" t="n">
-        <v>12.6392625733978</v>
+        <v>11.3203253247225</v>
       </c>
       <c r="G53" t="n">
-        <v>11.9465175838328</v>
+        <v>11.5738450873429</v>
       </c>
       <c r="H53" t="n">
-        <v>13.169966947735</v>
+        <v>12.8832712857342</v>
       </c>
       <c r="I53" t="n">
-        <v>12.9699923113833</v>
+        <v>11.6216411385662</v>
       </c>
       <c r="J53" t="n">
-        <v>10.6864495664552</v>
+        <v>11.0118728537485</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-4.75641014769396</v>
+        <v>9.95138819409171</v>
       </c>
       <c r="B54" t="n">
-        <v>-5.59204568244039</v>
+        <v>10.3211741805579</v>
       </c>
       <c r="C54" t="n">
-        <v>-5.06732421530668</v>
+        <v>11.8686024994677</v>
       </c>
       <c r="D54" t="n">
-        <v>-4.50823099932727</v>
+        <v>11.0604577350629</v>
       </c>
       <c r="E54" t="n">
-        <v>-3.73347561229034</v>
+        <v>12.7260422203004</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.2154735726413</v>
+        <v>12.5843120298111</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.692785753242474</v>
+        <v>12.7254877759254</v>
       </c>
       <c r="H54" t="n">
-        <v>1.41832209629807</v>
+        <v>11.8617445567634</v>
       </c>
       <c r="I54" t="n">
-        <v>4.05589108546924</v>
+        <v>10.8691581756489</v>
       </c>
       <c r="J54" t="n">
-        <v>6.96023064590532</v>
+        <v>10.8307222485877</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>10.1317450675908</v>
+        <v>-4.96822405239701</v>
       </c>
       <c r="B55" t="n">
-        <v>10.1560873698534</v>
+        <v>-5.43922732417967</v>
       </c>
       <c r="C55" t="n">
-        <v>12.1066291899056</v>
+        <v>-5.01787512782877</v>
       </c>
       <c r="D55" t="n">
-        <v>12.4639586128073</v>
+        <v>-4.68529373517485</v>
       </c>
       <c r="E55" t="n">
-        <v>13.1945244656308</v>
+        <v>-4.09413477052263</v>
       </c>
       <c r="F55" t="n">
-        <v>11.4444331033295</v>
+        <v>-2.66186766417951</v>
       </c>
       <c r="G55" t="n">
-        <v>13.4392989524672</v>
+        <v>-0.847847697316739</v>
       </c>
       <c r="H55" t="n">
-        <v>12.5854460528815</v>
+        <v>0.518828793627515</v>
       </c>
       <c r="I55" t="n">
-        <v>11.7409486035841</v>
+        <v>3.68690393257052</v>
       </c>
       <c r="J55" t="n">
-        <v>11.0487519183811</v>
+        <v>6.50883693287603</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>9.27243282672548</v>
+        <v>-5.12307316702242</v>
       </c>
       <c r="B56" t="n">
-        <v>10.5365826133687</v>
+        <v>-5.14895982198916</v>
       </c>
       <c r="C56" t="n">
-        <v>11.648271503648</v>
+        <v>-5.5080633277021</v>
       </c>
       <c r="D56" t="n">
-        <v>11.6201117078155</v>
+        <v>-4.30271378185839</v>
       </c>
       <c r="E56" t="n">
-        <v>11.7900947616652</v>
+        <v>-3.8060597629058</v>
       </c>
       <c r="F56" t="n">
-        <v>12.6256057673383</v>
+        <v>-2.62821241972492</v>
       </c>
       <c r="G56" t="n">
-        <v>12.2394892242571</v>
+        <v>-1.2407468744002</v>
       </c>
       <c r="H56" t="n">
-        <v>11.633030527656</v>
+        <v>0.96498760805805</v>
       </c>
       <c r="I56" t="n">
-        <v>10.310929538458</v>
+        <v>3.55854260697602</v>
       </c>
       <c r="J56" t="n">
-        <v>9.52479210003265</v>
+        <v>6.71047830694898</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>10.4783540019562</v>
+        <v>11.149109642344</v>
       </c>
       <c r="B57" t="n">
-        <v>10.826881234736</v>
+        <v>10.1002555601649</v>
       </c>
       <c r="C57" t="n">
-        <v>10.9277226542953</v>
+        <v>11.1945938927878</v>
       </c>
       <c r="D57" t="n">
-        <v>11.4714105458227</v>
+        <v>12.1458956676545</v>
       </c>
       <c r="E57" t="n">
-        <v>13.3112287554934</v>
+        <v>12.3301095713364</v>
       </c>
       <c r="F57" t="n">
-        <v>12.3436094591328</v>
+        <v>11.7350227579139</v>
       </c>
       <c r="G57" t="n">
-        <v>12.4542892713086</v>
+        <v>12.7620148431149</v>
       </c>
       <c r="H57" t="n">
-        <v>11.0394140645692</v>
+        <v>12.671572550234</v>
       </c>
       <c r="I57" t="n">
-        <v>11.1229413473961</v>
+        <v>12.3473192226531</v>
       </c>
       <c r="J57" t="n">
-        <v>9.14792939135891</v>
+        <v>10.9993288870171</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>9.91814369696421</v>
+        <v>-4.92917582295211</v>
       </c>
       <c r="B58" t="n">
-        <v>10.872957519808</v>
+        <v>-4.97957011839018</v>
       </c>
       <c r="C58" t="n">
-        <v>11.1560510340607</v>
+        <v>-5.20518105813577</v>
       </c>
       <c r="D58" t="n">
-        <v>12.1869001156807</v>
+        <v>-4.9944955578325</v>
       </c>
       <c r="E58" t="n">
-        <v>13.3576954272134</v>
+        <v>-3.57204380757814</v>
       </c>
       <c r="F58" t="n">
-        <v>12.0564690978591</v>
+        <v>-2.47763079730454</v>
       </c>
       <c r="G58" t="n">
-        <v>12.5945212808052</v>
+        <v>-0.526813496489063</v>
       </c>
       <c r="H58" t="n">
-        <v>11.8481656216054</v>
+        <v>0.964450057268883</v>
       </c>
       <c r="I58" t="n">
-        <v>11.7462888148849</v>
+        <v>3.70400813569911</v>
       </c>
       <c r="J58" t="n">
-        <v>10.7490632955777</v>
+        <v>6.51411143709671</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-5.12468737091502</v>
+        <v>-4.7833031403951</v>
       </c>
       <c r="B59" t="n">
-        <v>-5.13846269792631</v>
+        <v>-5.4110364793361</v>
       </c>
       <c r="C59" t="n">
-        <v>-5.57431914694927</v>
+        <v>-5.08493171731254</v>
       </c>
       <c r="D59" t="n">
-        <v>-4.74368836146063</v>
+        <v>-4.31782946304717</v>
       </c>
       <c r="E59" t="n">
-        <v>-3.7769981827207</v>
+        <v>-3.71432059714513</v>
       </c>
       <c r="F59" t="n">
-        <v>-2.48934827108984</v>
+        <v>-2.37499910781452</v>
       </c>
       <c r="G59" t="n">
-        <v>-1.07552890868944</v>
+        <v>-0.505814034500145</v>
       </c>
       <c r="H59" t="n">
-        <v>1.4741075632683</v>
+        <v>1.83197685040992</v>
       </c>
       <c r="I59" t="n">
-        <v>4.03841061193793</v>
+        <v>3.73215258187617</v>
       </c>
       <c r="J59" t="n">
-        <v>6.74551960516013</v>
+        <v>6.96177071326206</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>9.59812467177995</v>
+        <v>-4.67483876884696</v>
       </c>
       <c r="B60" t="n">
-        <v>10.1523036720779</v>
+        <v>-5.07000446550408</v>
       </c>
       <c r="C60" t="n">
-        <v>11.6444178108615</v>
+        <v>-5.25221314389114</v>
       </c>
       <c r="D60" t="n">
-        <v>11.5123988480933</v>
+        <v>-4.7984035952613</v>
       </c>
       <c r="E60" t="n">
-        <v>11.7768813625441</v>
+        <v>-3.81882849159154</v>
       </c>
       <c r="F60" t="n">
-        <v>11.7397754969753</v>
+        <v>-2.82799357475279</v>
       </c>
       <c r="G60" t="n">
-        <v>11.4677184615378</v>
+        <v>-0.595879268026592</v>
       </c>
       <c r="H60" t="n">
-        <v>13.1006369317946</v>
+        <v>1.44572786274888</v>
       </c>
       <c r="I60" t="n">
-        <v>12.1695140882618</v>
+        <v>3.73563795082406</v>
       </c>
       <c r="J60" t="n">
-        <v>11.1228356774576</v>
+        <v>6.81600823989617</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>9.08440310192678</v>
+        <v>10.3465526890536</v>
       </c>
       <c r="B61" t="n">
-        <v>10.497404871335</v>
+        <v>10.6305351695465</v>
       </c>
       <c r="C61" t="n">
-        <v>11.1745917909868</v>
+        <v>11.6973309067608</v>
       </c>
       <c r="D61" t="n">
-        <v>10.4560795779584</v>
+        <v>10.8242618486065</v>
       </c>
       <c r="E61" t="n">
-        <v>11.1923310510037</v>
+        <v>13.5018476256601</v>
       </c>
       <c r="F61" t="n">
-        <v>12.2986414562147</v>
+        <v>13.0349844207137</v>
       </c>
       <c r="G61" t="n">
-        <v>12.5833107045848</v>
+        <v>13.4740242518467</v>
       </c>
       <c r="H61" t="n">
-        <v>13.3110677322736</v>
+        <v>12.0147883799631</v>
       </c>
       <c r="I61" t="n">
-        <v>11.2628866792103</v>
+        <v>10.9830584933881</v>
       </c>
       <c r="J61" t="n">
-        <v>11.8501268449892</v>
+        <v>11.7290392947104</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>9.27514655880619</v>
+        <v>-5.10147814932095</v>
       </c>
       <c r="B62" t="n">
-        <v>10.4279921924212</v>
+        <v>-5.35892541087269</v>
       </c>
       <c r="C62" t="n">
-        <v>10.918653379634</v>
+        <v>-4.52103073284092</v>
       </c>
       <c r="D62" t="n">
-        <v>11.931757278439</v>
+        <v>-4.5627210005356</v>
       </c>
       <c r="E62" t="n">
-        <v>11.0190280564592</v>
+        <v>-3.58026784824789</v>
       </c>
       <c r="F62" t="n">
-        <v>10.9137037908071</v>
+        <v>-2.67445986906252</v>
       </c>
       <c r="G62" t="n">
-        <v>11.9643420213429</v>
+        <v>-1.07390422371745</v>
       </c>
       <c r="H62" t="n">
-        <v>12.7931274297912</v>
+        <v>1.42218996439729</v>
       </c>
       <c r="I62" t="n">
-        <v>11.8017745281324</v>
+        <v>3.63906794994997</v>
       </c>
       <c r="J62" t="n">
-        <v>9.8227293543045</v>
+        <v>6.49884754241524</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>9.77280473866612</v>
+        <v>-5.44456660413346</v>
       </c>
       <c r="B63" t="n">
-        <v>10.3973214522712</v>
+        <v>-5.20669359608764</v>
       </c>
       <c r="C63" t="n">
-        <v>13.0179790745686</v>
+        <v>-5.22950969970783</v>
       </c>
       <c r="D63" t="n">
-        <v>11.842915707881</v>
+        <v>-4.76140099356071</v>
       </c>
       <c r="E63" t="n">
-        <v>12.0702699576657</v>
+        <v>-3.97746060615424</v>
       </c>
       <c r="F63" t="n">
-        <v>11.2251398416831</v>
+        <v>-2.63957888437409</v>
       </c>
       <c r="G63" t="n">
-        <v>14.2735824617183</v>
+        <v>-0.434003182456022</v>
       </c>
       <c r="H63" t="n">
-        <v>12.8532688548077</v>
+        <v>1.26829362995008</v>
       </c>
       <c r="I63" t="n">
-        <v>11.9869908021094</v>
+        <v>3.84130429748244</v>
       </c>
       <c r="J63" t="n">
-        <v>11.1472096733873</v>
+        <v>6.87833697902573</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>9.69158257879193</v>
+        <v>9.81557907855444</v>
       </c>
       <c r="B64" t="n">
-        <v>11.1022013532368</v>
+        <v>10.7065241683461</v>
       </c>
       <c r="C64" t="n">
-        <v>12.4867314736742</v>
+        <v>12.5505448554713</v>
       </c>
       <c r="D64" t="n">
-        <v>12.0289477125803</v>
+        <v>12.229349633139</v>
       </c>
       <c r="E64" t="n">
-        <v>12.8323991777188</v>
+        <v>13.2651493757247</v>
       </c>
       <c r="F64" t="n">
-        <v>12.8518421159412</v>
+        <v>12.2311835244806</v>
       </c>
       <c r="G64" t="n">
-        <v>13.2807880494818</v>
+        <v>13.3891557904587</v>
       </c>
       <c r="H64" t="n">
-        <v>11.6649957570533</v>
+        <v>11.6320707235005</v>
       </c>
       <c r="I64" t="n">
-        <v>11.4006523327342</v>
+        <v>11.1835485586083</v>
       </c>
       <c r="J64" t="n">
-        <v>10.6486488315011</v>
+        <v>10.9114202133355</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-4.59338708311077</v>
+        <v>9.43531514518343</v>
       </c>
       <c r="B65" t="n">
-        <v>-5.35605464485649</v>
+        <v>12.0469029527652</v>
       </c>
       <c r="C65" t="n">
-        <v>-5.19552251629322</v>
+        <v>12.1349113327821</v>
       </c>
       <c r="D65" t="n">
-        <v>-4.52271133317011</v>
+        <v>13.1837930731141</v>
       </c>
       <c r="E65" t="n">
-        <v>-3.8835540330073</v>
+        <v>10.8040486916869</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.45868596167186</v>
+        <v>12.4078626526035</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.795885972113056</v>
+        <v>13.8057130315196</v>
       </c>
       <c r="H65" t="n">
-        <v>1.07937659328139</v>
+        <v>12.5890522496983</v>
       </c>
       <c r="I65" t="n">
-        <v>3.90810111997854</v>
+        <v>10.5473611452054</v>
       </c>
       <c r="J65" t="n">
-        <v>7.00280189704574</v>
+        <v>11.8633231179555</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>9.50194640624141</v>
+        <v>10.3764147558461</v>
       </c>
       <c r="B66" t="n">
-        <v>11.1549772932336</v>
+        <v>11.7699500567248</v>
       </c>
       <c r="C66" t="n">
-        <v>11.8464968467041</v>
+        <v>11.8638408671163</v>
       </c>
       <c r="D66" t="n">
-        <v>11.3489614345725</v>
+        <v>12.4633450157404</v>
       </c>
       <c r="E66" t="n">
-        <v>13.7165334873598</v>
+        <v>13.1678546354754</v>
       </c>
       <c r="F66" t="n">
-        <v>12.1632091198921</v>
+        <v>12.1339139605478</v>
       </c>
       <c r="G66" t="n">
-        <v>12.4931511120702</v>
+        <v>11.9915905189367</v>
       </c>
       <c r="H66" t="n">
-        <v>10.7948270365273</v>
+        <v>12.3059711399249</v>
       </c>
       <c r="I66" t="n">
-        <v>10.6566634788489</v>
+        <v>11.2662303271489</v>
       </c>
       <c r="J66" t="n">
-        <v>11.7331386042564</v>
+        <v>10.7665831560751</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-4.96323055464582</v>
+        <v>9.7555960639593</v>
       </c>
       <c r="B67" t="n">
-        <v>-5.48045100602633</v>
+        <v>10.3707008060079</v>
       </c>
       <c r="C67" t="n">
-        <v>-5.64863679076337</v>
+        <v>11.5938695496591</v>
       </c>
       <c r="D67" t="n">
-        <v>-5.16779164564397</v>
+        <v>10.8033132752228</v>
       </c>
       <c r="E67" t="n">
-        <v>-3.82990730388991</v>
+        <v>12.3590975933732</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.61522488811333</v>
+        <v>11.6603068793686</v>
       </c>
       <c r="G67" t="n">
-        <v>-1.24778883444014</v>
+        <v>10.9730652434872</v>
       </c>
       <c r="H67" t="n">
-        <v>1.32731638087768</v>
+        <v>12.4811808448492</v>
       </c>
       <c r="I67" t="n">
-        <v>3.91969729007854</v>
+        <v>10.7110373306985</v>
       </c>
       <c r="J67" t="n">
-        <v>7.27449876749899</v>
+        <v>10.5313873049919</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>10.2394856738443</v>
+        <v>-5.20411640141378</v>
       </c>
       <c r="B68" t="n">
-        <v>10.7016694816833</v>
+        <v>-5.21764298668878</v>
       </c>
       <c r="C68" t="n">
-        <v>10.6793217627416</v>
+        <v>-5.63369067999613</v>
       </c>
       <c r="D68" t="n">
-        <v>11.3874683598557</v>
+        <v>-4.77116969150618</v>
       </c>
       <c r="E68" t="n">
-        <v>12.5934550589037</v>
+        <v>-3.60921610504409</v>
       </c>
       <c r="F68" t="n">
-        <v>12.0263432068797</v>
+        <v>-2.25294605042687</v>
       </c>
       <c r="G68" t="n">
-        <v>11.6005180568305</v>
+        <v>-0.867527825337528</v>
       </c>
       <c r="H68" t="n">
-        <v>11.5572839628284</v>
+        <v>1.02146910836848</v>
       </c>
       <c r="I68" t="n">
-        <v>11.1356688782483</v>
+        <v>3.80315277431754</v>
       </c>
       <c r="J68" t="n">
-        <v>9.98146621711898</v>
+        <v>6.33268240333078</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>11.1854365725243</v>
+        <v>9.93381367541962</v>
       </c>
       <c r="B69" t="n">
-        <v>11.4366247732954</v>
+        <v>10.0847433756543</v>
       </c>
       <c r="C69" t="n">
-        <v>12.4592615421594</v>
+        <v>12.3926725814636</v>
       </c>
       <c r="D69" t="n">
-        <v>11.506229655199</v>
+        <v>12.4746431366282</v>
       </c>
       <c r="E69" t="n">
-        <v>13.62653989347</v>
+        <v>11.7013223702311</v>
       </c>
       <c r="F69" t="n">
-        <v>13.1966485588003</v>
+        <v>13.6387373194698</v>
       </c>
       <c r="G69" t="n">
-        <v>11.7795013828303</v>
+        <v>13.2890533827833</v>
       </c>
       <c r="H69" t="n">
-        <v>11.1152606393978</v>
+        <v>11.6176639267774</v>
       </c>
       <c r="I69" t="n">
-        <v>11.6374026590323</v>
+        <v>11.374547387388</v>
       </c>
       <c r="J69" t="n">
-        <v>11.2958802788299</v>
+        <v>10.3766364367295</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>-5.06929865727084</v>
+        <v>-4.95448997233175</v>
       </c>
       <c r="B70" t="n">
-        <v>-5.18370480402519</v>
+        <v>-5.40881563056199</v>
       </c>
       <c r="C70" t="n">
-        <v>-5.26924326700994</v>
+        <v>-5.20318639854773</v>
       </c>
       <c r="D70" t="n">
-        <v>-4.64781489829959</v>
+        <v>-4.64268731802451</v>
       </c>
       <c r="E70" t="n">
-        <v>-3.75595189391948</v>
+        <v>-3.63149248792546</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.74202657509736</v>
+        <v>-2.6416080352155</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.903104744912064</v>
+        <v>-0.747091597283762</v>
       </c>
       <c r="H70" t="n">
-        <v>1.41332523999176</v>
+        <v>0.827781555400147</v>
       </c>
       <c r="I70" t="n">
-        <v>3.665990562062</v>
+        <v>3.59168346425704</v>
       </c>
       <c r="J70" t="n">
-        <v>6.57987395581789</v>
+        <v>6.54349636230402</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>9.58836530720129</v>
+        <v>-5.26192414755254</v>
       </c>
       <c r="B71" t="n">
-        <v>10.8013841336497</v>
+        <v>-5.40644660692608</v>
       </c>
       <c r="C71" t="n">
-        <v>10.1731490026817</v>
+        <v>-5.15735021293673</v>
       </c>
       <c r="D71" t="n">
-        <v>12.6422643634056</v>
+        <v>-5.10001650196009</v>
       </c>
       <c r="E71" t="n">
-        <v>12.3833675802093</v>
+        <v>-3.86211137946806</v>
       </c>
       <c r="F71" t="n">
-        <v>11.7590290994119</v>
+        <v>-2.19191124312027</v>
       </c>
       <c r="G71" t="n">
-        <v>12.5145134283088</v>
+        <v>-0.610880271558894</v>
       </c>
       <c r="H71" t="n">
-        <v>11.4721396617994</v>
+        <v>1.40294649559277</v>
       </c>
       <c r="I71" t="n">
-        <v>11.4731136579395</v>
+        <v>4.15635342953881</v>
       </c>
       <c r="J71" t="n">
-        <v>9.47010306284783</v>
+        <v>6.78804682792107</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>10.7155239984481</v>
+        <v>9.13880420257655</v>
       </c>
       <c r="B72" t="n">
-        <v>10.9860131810342</v>
+        <v>11.0089054538387</v>
       </c>
       <c r="C72" t="n">
-        <v>12.0065549875489</v>
+        <v>12.6130853319129</v>
       </c>
       <c r="D72" t="n">
-        <v>11.3394134926049</v>
+        <v>13.0618695816265</v>
       </c>
       <c r="E72" t="n">
-        <v>12.3652165953565</v>
+        <v>11.7306036235679</v>
       </c>
       <c r="F72" t="n">
-        <v>13.4956784448891</v>
+        <v>12.1510389698091</v>
       </c>
       <c r="G72" t="n">
-        <v>11.4985555188406</v>
+        <v>11.7488212096777</v>
       </c>
       <c r="H72" t="n">
-        <v>12.0946174654672</v>
+        <v>12.5917432232848</v>
       </c>
       <c r="I72" t="n">
-        <v>10.9667484987116</v>
+        <v>12.6095397878462</v>
       </c>
       <c r="J72" t="n">
-        <v>10.1820073742015</v>
+        <v>12.0486141493879</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>10.0093417545713</v>
+        <v>10.124862256601</v>
       </c>
       <c r="B73" t="n">
-        <v>11.8996467970857</v>
+        <v>12.6621762291941</v>
       </c>
       <c r="C73" t="n">
-        <v>10.7644321613122</v>
+        <v>11.6397959331787</v>
       </c>
       <c r="D73" t="n">
-        <v>11.3031415363302</v>
+        <v>12.634003739585</v>
       </c>
       <c r="E73" t="n">
-        <v>12.8418617818304</v>
+        <v>11.217056156695</v>
       </c>
       <c r="F73" t="n">
-        <v>12.5244516306752</v>
+        <v>13.5233118247772</v>
       </c>
       <c r="G73" t="n">
-        <v>11.7719454048767</v>
+        <v>12.0275389950188</v>
       </c>
       <c r="H73" t="n">
-        <v>11.4081012781804</v>
+        <v>11.7982262750555</v>
       </c>
       <c r="I73" t="n">
-        <v>11.1284342478738</v>
+        <v>11.2194165430353</v>
       </c>
       <c r="J73" t="n">
-        <v>9.54237692595877</v>
+        <v>11.6779691621643</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>9.70593465025715</v>
+        <v>10.6370138701848</v>
       </c>
       <c r="B74" t="n">
-        <v>10.2374773572135</v>
+        <v>10.3585430278672</v>
       </c>
       <c r="C74" t="n">
-        <v>9.44995057973706</v>
+        <v>11.930272833738</v>
       </c>
       <c r="D74" t="n">
-        <v>10.6164956423302</v>
+        <v>10.3561925563761</v>
       </c>
       <c r="E74" t="n">
-        <v>12.72145218256</v>
+        <v>11.4414382999744</v>
       </c>
       <c r="F74" t="n">
-        <v>13.9184197866874</v>
+        <v>12.1785791926918</v>
       </c>
       <c r="G74" t="n">
-        <v>11.8568695996501</v>
+        <v>10.762922695764</v>
       </c>
       <c r="H74" t="n">
-        <v>11.3340652812057</v>
+        <v>13.0457375321142</v>
       </c>
       <c r="I74" t="n">
-        <v>10.7152412317464</v>
+        <v>10.9242019733311</v>
       </c>
       <c r="J74" t="n">
-        <v>10.9234815339772</v>
+        <v>10.0164690499194</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>-4.81415303466832</v>
+        <v>-4.96512672704876</v>
       </c>
       <c r="B75" t="n">
-        <v>-5.67683545885862</v>
+        <v>-5.21331990317838</v>
       </c>
       <c r="C75" t="n">
-        <v>-4.96669089268248</v>
+        <v>-5.21562438527377</v>
       </c>
       <c r="D75" t="n">
-        <v>-4.64519430153586</v>
+        <v>-4.47732459787495</v>
       </c>
       <c r="E75" t="n">
-        <v>-3.93273245266251</v>
+        <v>-3.74755083708985</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.50684954395081</v>
+        <v>-2.26088550502102</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.784208854374976</v>
+        <v>-0.34822366913752</v>
       </c>
       <c r="H75" t="n">
-        <v>0.857401344226232</v>
+        <v>1.69027340065152</v>
       </c>
       <c r="I75" t="n">
-        <v>3.9774847892524</v>
+        <v>4.10229960004875</v>
       </c>
       <c r="J75" t="n">
-        <v>6.85458576839002</v>
+        <v>6.86272574929111</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>10.6834638514875</v>
+        <v>-5.00856240160691</v>
       </c>
       <c r="B76" t="n">
-        <v>10.4863893028809</v>
+        <v>-5.07770288278199</v>
       </c>
       <c r="C76" t="n">
-        <v>11.1960636231415</v>
+        <v>-5.32428809912684</v>
       </c>
       <c r="D76" t="n">
-        <v>12.6936390750375</v>
+        <v>-4.71381919102343</v>
       </c>
       <c r="E76" t="n">
-        <v>12.0038202982717</v>
+        <v>-3.41573310749304</v>
       </c>
       <c r="F76" t="n">
-        <v>13.2168256151065</v>
+        <v>-2.69332924257528</v>
       </c>
       <c r="G76" t="n">
-        <v>12.0486190541487</v>
+        <v>-1.14162277980523</v>
       </c>
       <c r="H76" t="n">
-        <v>12.3383655658039</v>
+        <v>1.43626161206034</v>
       </c>
       <c r="I76" t="n">
-        <v>11.1862244765737</v>
+        <v>3.58884648980475</v>
       </c>
       <c r="J76" t="n">
-        <v>11.0749093332365</v>
+        <v>6.64073331507306</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>8.80910013699723</v>
+        <v>-5.17960546700298</v>
       </c>
       <c r="B77" t="n">
-        <v>12.2757559860668</v>
+        <v>-5.09677740600261</v>
       </c>
       <c r="C77" t="n">
-        <v>12.340508084237</v>
+        <v>-5.03838385583815</v>
       </c>
       <c r="D77" t="n">
-        <v>12.1274991817977</v>
+        <v>-4.54710548557984</v>
       </c>
       <c r="E77" t="n">
-        <v>13.1134381158583</v>
+        <v>-3.83846353113475</v>
       </c>
       <c r="F77" t="n">
-        <v>13.3361911369148</v>
+        <v>-2.28100646121534</v>
       </c>
       <c r="G77" t="n">
-        <v>11.9095735241081</v>
+        <v>-0.830144437850844</v>
       </c>
       <c r="H77" t="n">
-        <v>11.6019657081564</v>
+        <v>1.45892778885773</v>
       </c>
       <c r="I77" t="n">
-        <v>10.732838771753</v>
+        <v>4.00928420942972</v>
       </c>
       <c r="J77" t="n">
-        <v>10.8779413973707</v>
+        <v>6.90639286207359</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>9.7601641195683</v>
+        <v>-4.59417666892431</v>
       </c>
       <c r="B78" t="n">
-        <v>11.5619749488851</v>
+        <v>-5.3590771768861</v>
       </c>
       <c r="C78" t="n">
-        <v>12.9549687994768</v>
+        <v>-5.16167861757416</v>
       </c>
       <c r="D78" t="n">
-        <v>12.6644606422426</v>
+        <v>-5.11933871707364</v>
       </c>
       <c r="E78" t="n">
-        <v>11.3817204927776</v>
+        <v>-3.55009627067736</v>
       </c>
       <c r="F78" t="n">
-        <v>12.6523860867703</v>
+        <v>-2.67569571071533</v>
       </c>
       <c r="G78" t="n">
-        <v>11.4913793679682</v>
+        <v>-0.833061437513771</v>
       </c>
       <c r="H78" t="n">
-        <v>11.7940151927742</v>
+        <v>0.997047907956877</v>
       </c>
       <c r="I78" t="n">
-        <v>11.3121946796383</v>
+        <v>3.79327212629692</v>
       </c>
       <c r="J78" t="n">
-        <v>11.5240662839191</v>
+        <v>6.44904754978211</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>9.2479454699039</v>
+        <v>10.2187315040807</v>
       </c>
       <c r="B79" t="n">
-        <v>10.2711582669768</v>
+        <v>10.3223842979139</v>
       </c>
       <c r="C79" t="n">
-        <v>12.1121909259856</v>
+        <v>11.6221011030889</v>
       </c>
       <c r="D79" t="n">
-        <v>12.4793316289085</v>
+        <v>12.4658941422535</v>
       </c>
       <c r="E79" t="n">
-        <v>13.1782011680545</v>
+        <v>12.0477692909525</v>
       </c>
       <c r="F79" t="n">
-        <v>13.9468059260278</v>
+        <v>12.2884961118618</v>
       </c>
       <c r="G79" t="n">
-        <v>11.1422897816609</v>
+        <v>12.8398065188526</v>
       </c>
       <c r="H79" t="n">
-        <v>11.8083552047446</v>
+        <v>11.5340596579835</v>
       </c>
       <c r="I79" t="n">
-        <v>11.7410162083647</v>
+        <v>11.8255498683548</v>
       </c>
       <c r="J79" t="n">
-        <v>11.8689913631864</v>
+        <v>10.8889030911923</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>9.76727568361613</v>
+        <v>9.1266434035188</v>
       </c>
       <c r="B80" t="n">
-        <v>9.33199711982226</v>
+        <v>10.6484718480596</v>
       </c>
       <c r="C80" t="n">
-        <v>12.0038550139848</v>
+        <v>13.0326377758156</v>
       </c>
       <c r="D80" t="n">
-        <v>12.3027572918251</v>
+        <v>12.293423537001</v>
       </c>
       <c r="E80" t="n">
-        <v>12.7725157199507</v>
+        <v>13.6526263336582</v>
       </c>
       <c r="F80" t="n">
-        <v>12.1007610300615</v>
+        <v>12.4930531564902</v>
       </c>
       <c r="G80" t="n">
-        <v>13.4903912511048</v>
+        <v>12.4315900766787</v>
       </c>
       <c r="H80" t="n">
-        <v>12.4162700865612</v>
+        <v>12.4840068877801</v>
       </c>
       <c r="I80" t="n">
-        <v>12.0444085840417</v>
+        <v>11.5514444565299</v>
       </c>
       <c r="J80" t="n">
-        <v>11.8494705092861</v>
+        <v>10.5953696626188</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>9.70537322066492</v>
+        <v>9.60744095260886</v>
       </c>
       <c r="B81" t="n">
-        <v>11.2129200737425</v>
+        <v>10.6374125448294</v>
       </c>
       <c r="C81" t="n">
-        <v>11.5516217588539</v>
+        <v>11.5778001766411</v>
       </c>
       <c r="D81" t="n">
-        <v>11.7780585103896</v>
+        <v>11.6858733987157</v>
       </c>
       <c r="E81" t="n">
-        <v>11.6487210313255</v>
+        <v>12.2916607553045</v>
       </c>
       <c r="F81" t="n">
-        <v>11.2881383374652</v>
+        <v>12.4887082263413</v>
       </c>
       <c r="G81" t="n">
-        <v>13.1489225246948</v>
+        <v>12.3157044200804</v>
       </c>
       <c r="H81" t="n">
-        <v>11.4568596811474</v>
+        <v>11.6362282471089</v>
       </c>
       <c r="I81" t="n">
-        <v>10.7258466047576</v>
+        <v>11.5251834503149</v>
       </c>
       <c r="J81" t="n">
-        <v>11.3293148824717</v>
+        <v>10.478511415343</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>10.6021791306154</v>
+        <v>10.8919298719417</v>
       </c>
       <c r="B82" t="n">
-        <v>10.4923522160726</v>
+        <v>11.8842932262499</v>
       </c>
       <c r="C82" t="n">
-        <v>11.7665272161712</v>
+        <v>11.6826104613678</v>
       </c>
       <c r="D82" t="n">
-        <v>12.4545551900963</v>
+        <v>12.8824754242693</v>
       </c>
       <c r="E82" t="n">
-        <v>14.3547377917735</v>
+        <v>13.414301468579</v>
       </c>
       <c r="F82" t="n">
-        <v>12.181541129249</v>
+        <v>11.8349134214478</v>
       </c>
       <c r="G82" t="n">
-        <v>12.9264223115607</v>
+        <v>11.3809147473601</v>
       </c>
       <c r="H82" t="n">
-        <v>11.8856408821949</v>
+        <v>11.0797339523088</v>
       </c>
       <c r="I82" t="n">
-        <v>10.3084007959728</v>
+        <v>12.1754214599271</v>
       </c>
       <c r="J82" t="n">
-        <v>10.8867880962364</v>
+        <v>10.9515955451875</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-4.72936346589473</v>
+        <v>10.2089317408798</v>
       </c>
       <c r="B83" t="n">
-        <v>-4.93095628349516</v>
+        <v>12.0464543635152</v>
       </c>
       <c r="C83" t="n">
-        <v>-5.63373725581172</v>
+        <v>10.9598977109283</v>
       </c>
       <c r="D83" t="n">
-        <v>-4.61465739105462</v>
+        <v>12.2111435513624</v>
       </c>
       <c r="E83" t="n">
-        <v>-3.76784705105999</v>
+        <v>12.1139038488266</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.83242379248235</v>
+        <v>13.872805954875</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.602834253686665</v>
+        <v>11.3273945771996</v>
       </c>
       <c r="H83" t="n">
-        <v>0.89168555340784</v>
+        <v>11.8132314654255</v>
       </c>
       <c r="I83" t="n">
-        <v>3.16809731040425</v>
+        <v>10.339506404686</v>
       </c>
       <c r="J83" t="n">
-        <v>6.82290127069137</v>
+        <v>10.5243273999621</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>-5.2777132920274</v>
+        <v>9.7766231114451</v>
       </c>
       <c r="B84" t="n">
-        <v>-5.13605022506274</v>
+        <v>10.0572114563263</v>
       </c>
       <c r="C84" t="n">
-        <v>-4.92554197347164</v>
+        <v>12.417355775862</v>
       </c>
       <c r="D84" t="n">
-        <v>-4.664164239975</v>
+        <v>12.5095865777905</v>
       </c>
       <c r="E84" t="n">
-        <v>-3.38128051615375</v>
+        <v>12.5033840233914</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.1924973135141</v>
+        <v>13.5668563267896</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.625882226024854</v>
+        <v>12.2202803856071</v>
       </c>
       <c r="H84" t="n">
-        <v>1.08980189737051</v>
+        <v>11.9883578412866</v>
       </c>
       <c r="I84" t="n">
-        <v>3.91577137184858</v>
+        <v>11.3663012722145</v>
       </c>
       <c r="J84" t="n">
-        <v>6.36994115657015</v>
+        <v>10.4925855061853</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>8.90978298228181</v>
+        <v>-5.15393273539123</v>
       </c>
       <c r="B85" t="n">
-        <v>12.298176943695</v>
+        <v>-5.81975014940138</v>
       </c>
       <c r="C85" t="n">
-        <v>11.1621486907008</v>
+        <v>-5.12006365964942</v>
       </c>
       <c r="D85" t="n">
-        <v>13.093100201211</v>
+        <v>-4.89926058284004</v>
       </c>
       <c r="E85" t="n">
-        <v>10.421244369811</v>
+        <v>-3.61041703045256</v>
       </c>
       <c r="F85" t="n">
-        <v>12.5715714171842</v>
+        <v>-2.65358758147714</v>
       </c>
       <c r="G85" t="n">
-        <v>11.4730449499109</v>
+        <v>-0.664424169377528</v>
       </c>
       <c r="H85" t="n">
-        <v>12.8757374326462</v>
+        <v>1.47958046601032</v>
       </c>
       <c r="I85" t="n">
-        <v>10.9706643255935</v>
+        <v>3.97845571199163</v>
       </c>
       <c r="J85" t="n">
-        <v>9.48184607366833</v>
+        <v>6.13664215023809</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-5.0301781057317</v>
+        <v>8.50005523411557</v>
       </c>
       <c r="B86" t="n">
-        <v>-5.35001834095132</v>
+        <v>10.5552165274579</v>
       </c>
       <c r="C86" t="n">
-        <v>-5.26741781166161</v>
+        <v>10.9499952999484</v>
       </c>
       <c r="D86" t="n">
-        <v>-4.71390433561999</v>
+        <v>11.2266893883048</v>
       </c>
       <c r="E86" t="n">
-        <v>-3.62196979015642</v>
+        <v>13.3481403977751</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.87843650117005</v>
+        <v>11.956433963985</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.545449774993368</v>
+        <v>11.8983592964196</v>
       </c>
       <c r="H86" t="n">
-        <v>1.1347483270347</v>
+        <v>12.7161959711193</v>
       </c>
       <c r="I86" t="n">
-        <v>3.64585984517568</v>
+        <v>12.479130798769</v>
       </c>
       <c r="J86" t="n">
-        <v>6.72990517026153</v>
+        <v>11.6584797947483</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>10.1127468987639</v>
+        <v>9.17669626633658</v>
       </c>
       <c r="B87" t="n">
-        <v>10.528493214627</v>
+        <v>12.1422978325144</v>
       </c>
       <c r="C87" t="n">
-        <v>11.4319858216742</v>
+        <v>11.402686920089</v>
       </c>
       <c r="D87" t="n">
-        <v>11.2572832157681</v>
+        <v>11.8553845418293</v>
       </c>
       <c r="E87" t="n">
-        <v>12.8137158660882</v>
+        <v>13.04015584351</v>
       </c>
       <c r="F87" t="n">
-        <v>12.3806489026366</v>
+        <v>11.8270202423828</v>
       </c>
       <c r="G87" t="n">
-        <v>13.1372834614692</v>
+        <v>12.094111583739</v>
       </c>
       <c r="H87" t="n">
-        <v>11.9768827902889</v>
+        <v>12.4352038423899</v>
       </c>
       <c r="I87" t="n">
-        <v>11.9580920038644</v>
+        <v>10.7670722583852</v>
       </c>
       <c r="J87" t="n">
-        <v>10.8619225672822</v>
+        <v>11.2701482644348</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>10.1698910260609</v>
+        <v>-5.04500294610512</v>
       </c>
       <c r="B88" t="n">
-        <v>10.9006914172486</v>
+        <v>-5.29132197312986</v>
       </c>
       <c r="C88" t="n">
-        <v>10.5871539448617</v>
+        <v>-4.9160236304483</v>
       </c>
       <c r="D88" t="n">
-        <v>13.4819563192274</v>
+        <v>-4.67482839183746</v>
       </c>
       <c r="E88" t="n">
-        <v>12.1811601567598</v>
+        <v>-3.7138035194493</v>
       </c>
       <c r="F88" t="n">
-        <v>14.1716929089914</v>
+        <v>-2.46509350660038</v>
       </c>
       <c r="G88" t="n">
-        <v>11.3848959178769</v>
+        <v>-0.946189594624012</v>
       </c>
       <c r="H88" t="n">
-        <v>12.6447299876494</v>
+        <v>1.27817404989105</v>
       </c>
       <c r="I88" t="n">
-        <v>12.1679756112454</v>
+        <v>3.80669272095299</v>
       </c>
       <c r="J88" t="n">
-        <v>11.0857387156201</v>
+        <v>6.81902657153324</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>10.0789320690949</v>
+        <v>9.97789695060618</v>
       </c>
       <c r="B89" t="n">
-        <v>12.020907362474</v>
+        <v>11.2219535702131</v>
       </c>
       <c r="C89" t="n">
-        <v>12.1135274901038</v>
+        <v>11.1619942052161</v>
       </c>
       <c r="D89" t="n">
-        <v>13.0194982761504</v>
+        <v>11.38529927923</v>
       </c>
       <c r="E89" t="n">
-        <v>11.6514289372008</v>
+        <v>13.5678605873117</v>
       </c>
       <c r="F89" t="n">
-        <v>12.5204736344203</v>
+        <v>12.7988384840453</v>
       </c>
       <c r="G89" t="n">
-        <v>13.0943828696541</v>
+        <v>13.1526023374824</v>
       </c>
       <c r="H89" t="n">
-        <v>12.4980484862461</v>
+        <v>10.8928402190935</v>
       </c>
       <c r="I89" t="n">
-        <v>12.4652738772887</v>
+        <v>10.9025215875232</v>
       </c>
       <c r="J89" t="n">
-        <v>11.5153713709647</v>
+        <v>10.9563079559823</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>9.98745915585588</v>
+        <v>10.4859125723835</v>
       </c>
       <c r="B90" t="n">
-        <v>11.2985627894528</v>
+        <v>11.4714618666685</v>
       </c>
       <c r="C90" t="n">
-        <v>11.6771670572</v>
+        <v>10.5987264010837</v>
       </c>
       <c r="D90" t="n">
-        <v>12.5592029134924</v>
+        <v>12.1309721674962</v>
       </c>
       <c r="E90" t="n">
-        <v>11.8719067419087</v>
+        <v>12.1638070457067</v>
       </c>
       <c r="F90" t="n">
-        <v>12.8940338180118</v>
+        <v>13.5376615370158</v>
       </c>
       <c r="G90" t="n">
-        <v>12.8187170988268</v>
+        <v>13.3340637341234</v>
       </c>
       <c r="H90" t="n">
-        <v>11.9952385210526</v>
+        <v>12.676452101772</v>
       </c>
       <c r="I90" t="n">
-        <v>11.7202508349491</v>
+        <v>12.8396700797198</v>
       </c>
       <c r="J90" t="n">
-        <v>10.4905625841587</v>
+        <v>11.3595027066714</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-4.92100790201876</v>
+        <v>10.3839713522223</v>
       </c>
       <c r="B91" t="n">
-        <v>-5.45621600772492</v>
+        <v>11.4790951109083</v>
       </c>
       <c r="C91" t="n">
-        <v>-5.53560308910314</v>
+        <v>11.4369527921351</v>
       </c>
       <c r="D91" t="n">
-        <v>-4.58756866900644</v>
+        <v>11.7341289722858</v>
       </c>
       <c r="E91" t="n">
-        <v>-3.92497738466125</v>
+        <v>11.5174794584629</v>
       </c>
       <c r="F91" t="n">
-        <v>-2.22011193901443</v>
+        <v>12.4859222688306</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.236311985187431</v>
+        <v>12.7175330119711</v>
       </c>
       <c r="H91" t="n">
-        <v>1.27872149969803</v>
+        <v>12.2568983522415</v>
       </c>
       <c r="I91" t="n">
-        <v>3.54340344134946</v>
+        <v>12.4531210770086</v>
       </c>
       <c r="J91" t="n">
-        <v>6.46060471382939</v>
+        <v>11.5940678965008</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>9.51727859493134</v>
+        <v>-5.07306912539353</v>
       </c>
       <c r="B92" t="n">
-        <v>10.6573684763922</v>
+        <v>-5.44934976055136</v>
       </c>
       <c r="C92" t="n">
-        <v>10.9467420830858</v>
+        <v>-5.76739685547897</v>
       </c>
       <c r="D92" t="n">
-        <v>12.4446238823876</v>
+        <v>-4.69814285118799</v>
       </c>
       <c r="E92" t="n">
-        <v>13.0316832016091</v>
+        <v>-3.74362174374299</v>
       </c>
       <c r="F92" t="n">
-        <v>11.9105058023702</v>
+        <v>-1.7994042803111</v>
       </c>
       <c r="G92" t="n">
-        <v>11.9492531050097</v>
+        <v>-0.773473814482166</v>
       </c>
       <c r="H92" t="n">
-        <v>12.3462451444086</v>
+        <v>1.24164764170371</v>
       </c>
       <c r="I92" t="n">
-        <v>11.2671336346982</v>
+        <v>3.83461088964987</v>
       </c>
       <c r="J92" t="n">
-        <v>10.7588920205794</v>
+        <v>7.01599361689114</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>10.0242983058798</v>
+        <v>9.25245297826877</v>
       </c>
       <c r="B93" t="n">
-        <v>10.8072892266806</v>
+        <v>11.5285279649262</v>
       </c>
       <c r="C93" t="n">
-        <v>11.4620620935166</v>
+        <v>12.1535007755621</v>
       </c>
       <c r="D93" t="n">
-        <v>12.3235086029258</v>
+        <v>12.115343197349</v>
       </c>
       <c r="E93" t="n">
-        <v>10.8623931885655</v>
+        <v>11.4652286965168</v>
       </c>
       <c r="F93" t="n">
-        <v>11.6242723467531</v>
+        <v>12.7200935885425</v>
       </c>
       <c r="G93" t="n">
-        <v>13.0782322689634</v>
+        <v>10.4894690300548</v>
       </c>
       <c r="H93" t="n">
-        <v>11.9755357460692</v>
+        <v>11.437904843802</v>
       </c>
       <c r="I93" t="n">
-        <v>12.7843756294598</v>
+        <v>11.3609583773816</v>
       </c>
       <c r="J93" t="n">
-        <v>10.393383502736</v>
+        <v>10.4912486727449</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>8.87469825108513</v>
+        <v>-5.35367637147139</v>
       </c>
       <c r="B94" t="n">
-        <v>11.5898641515341</v>
+        <v>-5.37415094148544</v>
       </c>
       <c r="C94" t="n">
-        <v>11.7113913126569</v>
+        <v>-5.62085258483512</v>
       </c>
       <c r="D94" t="n">
-        <v>11.3623697289047</v>
+        <v>-4.52156818915809</v>
       </c>
       <c r="E94" t="n">
-        <v>12.3333010455999</v>
+        <v>-4.15414907480114</v>
       </c>
       <c r="F94" t="n">
-        <v>12.6772332750419</v>
+        <v>-2.5407522844316</v>
       </c>
       <c r="G94" t="n">
-        <v>12.9791258536952</v>
+        <v>-1.07762010315649</v>
       </c>
       <c r="H94" t="n">
-        <v>11.5394295120979</v>
+        <v>1.44769604846237</v>
       </c>
       <c r="I94" t="n">
-        <v>11.0878881656654</v>
+        <v>3.97597198870856</v>
       </c>
       <c r="J94" t="n">
-        <v>9.65661035748597</v>
+        <v>6.298294106663</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>9.20284187511469</v>
+        <v>-5.44550061323136</v>
       </c>
       <c r="B95" t="n">
-        <v>12.0174695158248</v>
+        <v>-5.01621594750424</v>
       </c>
       <c r="C95" t="n">
-        <v>11.0562717289188</v>
+        <v>-5.19020123346672</v>
       </c>
       <c r="D95" t="n">
-        <v>11.2447900690679</v>
+        <v>-4.64520410647219</v>
       </c>
       <c r="E95" t="n">
-        <v>13.1955110110294</v>
+        <v>-3.63167771057802</v>
       </c>
       <c r="F95" t="n">
-        <v>11.2958111638431</v>
+        <v>-2.38745906032075</v>
       </c>
       <c r="G95" t="n">
-        <v>11.2222340185856</v>
+        <v>-0.94708656424102</v>
       </c>
       <c r="H95" t="n">
-        <v>12.4839478788993</v>
+        <v>1.27377462136415</v>
       </c>
       <c r="I95" t="n">
-        <v>11.4664148252018</v>
+        <v>4.13267648866436</v>
       </c>
       <c r="J95" t="n">
-        <v>10.0764267076141</v>
+        <v>6.45274215562592</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>10.263429089922</v>
+        <v>10.0801379554414</v>
       </c>
       <c r="B96" t="n">
-        <v>11.3540245119875</v>
+        <v>10.1924253030708</v>
       </c>
       <c r="C96" t="n">
-        <v>11.3628973270692</v>
+        <v>12.9623558328218</v>
       </c>
       <c r="D96" t="n">
-        <v>12.5339166404843</v>
+        <v>12.40381325414</v>
       </c>
       <c r="E96" t="n">
-        <v>13.0280201508369</v>
+        <v>13.4242456242001</v>
       </c>
       <c r="F96" t="n">
-        <v>12.7549219874175</v>
+        <v>11.9621053175914</v>
       </c>
       <c r="G96" t="n">
-        <v>12.1289197182537</v>
+        <v>11.337884785687</v>
       </c>
       <c r="H96" t="n">
-        <v>12.0146763012662</v>
+        <v>11.9090113323061</v>
       </c>
       <c r="I96" t="n">
-        <v>11.5990543125755</v>
+        <v>10.3918456656114</v>
       </c>
       <c r="J96" t="n">
-        <v>11.0734987359132</v>
+        <v>10.43073103228</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>10.4245794441669</v>
+        <v>10.1560029246393</v>
       </c>
       <c r="B97" t="n">
-        <v>11.5834796685914</v>
+        <v>11.6674487748338</v>
       </c>
       <c r="C97" t="n">
-        <v>11.9692393057838</v>
+        <v>10.2313039408194</v>
       </c>
       <c r="D97" t="n">
-        <v>12.7775342510338</v>
+        <v>10.4394161847587</v>
       </c>
       <c r="E97" t="n">
-        <v>11.5796538834786</v>
+        <v>12.9736996338411</v>
       </c>
       <c r="F97" t="n">
-        <v>13.5404335181427</v>
+        <v>12.2420327144608</v>
       </c>
       <c r="G97" t="n">
-        <v>12.9046054725409</v>
+        <v>13.1425979438837</v>
       </c>
       <c r="H97" t="n">
-        <v>11.8779532784777</v>
+        <v>12.7604140170567</v>
       </c>
       <c r="I97" t="n">
-        <v>12.1023728550802</v>
+        <v>12.1238603200963</v>
       </c>
       <c r="J97" t="n">
-        <v>10.7744523681298</v>
+        <v>11.9053710866748</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>8.89658207170037</v>
+        <v>10.2376717187014</v>
       </c>
       <c r="B98" t="n">
-        <v>10.5646454872489</v>
+        <v>11.2106136622381</v>
       </c>
       <c r="C98" t="n">
-        <v>12.8048241922689</v>
+        <v>12.5563006003855</v>
       </c>
       <c r="D98" t="n">
-        <v>12.0332821842566</v>
+        <v>10.9660771734586</v>
       </c>
       <c r="E98" t="n">
-        <v>12.2342695645949</v>
+        <v>11.9081153630708</v>
       </c>
       <c r="F98" t="n">
-        <v>13.1045916781997</v>
+        <v>12.503640197059</v>
       </c>
       <c r="G98" t="n">
-        <v>12.9470878825575</v>
+        <v>11.4918345059137</v>
       </c>
       <c r="H98" t="n">
-        <v>12.6770465354557</v>
+        <v>12.2486376164115</v>
       </c>
       <c r="I98" t="n">
-        <v>11.1456255614946</v>
+        <v>12.2881636760148</v>
       </c>
       <c r="J98" t="n">
-        <v>9.16134476670226</v>
+        <v>11.3142846210885</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>10.3110019900242</v>
+        <v>9.42203906393479</v>
       </c>
       <c r="B99" t="n">
-        <v>10.4264117927722</v>
+        <v>9.86457067974655</v>
       </c>
       <c r="C99" t="n">
-        <v>10.7452109941801</v>
+        <v>11.5852817939521</v>
       </c>
       <c r="D99" t="n">
-        <v>12.1741267840049</v>
+        <v>12.7246076278518</v>
       </c>
       <c r="E99" t="n">
-        <v>11.7639743293283</v>
+        <v>11.483972383035</v>
       </c>
       <c r="F99" t="n">
-        <v>12.749361625034</v>
+        <v>12.5809550306793</v>
       </c>
       <c r="G99" t="n">
-        <v>12.9289034716714</v>
+        <v>13.4594357893755</v>
       </c>
       <c r="H99" t="n">
-        <v>12.1451447197029</v>
+        <v>11.7834760143674</v>
       </c>
       <c r="I99" t="n">
-        <v>11.5307401758017</v>
+        <v>11.9817056149321</v>
       </c>
       <c r="J99" t="n">
-        <v>10.1212182706233</v>
+        <v>11.8360203468047</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>11.1239277099317</v>
+        <v>11.9709719340011</v>
       </c>
       <c r="B100" t="n">
-        <v>10.5864336171982</v>
+        <v>11.5017304756736</v>
       </c>
       <c r="C100" t="n">
-        <v>11.5328480233065</v>
+        <v>10.801522310541</v>
       </c>
       <c r="D100" t="n">
-        <v>11.8055367150347</v>
+        <v>10.4730962478054</v>
       </c>
       <c r="E100" t="n">
-        <v>12.3357567462918</v>
+        <v>11.5736423468669</v>
       </c>
       <c r="F100" t="n">
-        <v>12.7761375909361</v>
+        <v>12.0126091473681</v>
       </c>
       <c r="G100" t="n">
-        <v>12.7565989655563</v>
+        <v>12.8121943600078</v>
       </c>
       <c r="H100" t="n">
-        <v>11.3524705549305</v>
+        <v>11.6909845371602</v>
       </c>
       <c r="I100" t="n">
-        <v>10.4589181620669</v>
+        <v>10.6116169614574</v>
       </c>
       <c r="J100" t="n">
-        <v>12.0608077825595</v>
+        <v>10.13134228232</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>8.70198408358471</v>
+        <v>10.8409672473643</v>
       </c>
       <c r="B101" t="n">
-        <v>11.9068961472712</v>
+        <v>12.2192393491619</v>
       </c>
       <c r="C101" t="n">
-        <v>11.6404175122413</v>
+        <v>11.9681673481188</v>
       </c>
       <c r="D101" t="n">
-        <v>12.737147562673</v>
+        <v>13.0804605863543</v>
       </c>
       <c r="E101" t="n">
-        <v>11.9105467008011</v>
+        <v>13.4269019741287</v>
       </c>
       <c r="F101" t="n">
-        <v>13.4894734735781</v>
+        <v>12.8694766928906</v>
       </c>
       <c r="G101" t="n">
-        <v>12.4276938912148</v>
+        <v>14.3281989091999</v>
       </c>
       <c r="H101" t="n">
-        <v>13.621491431734</v>
+        <v>13.1092590598258</v>
       </c>
       <c r="I101" t="n">
-        <v>10.6817103197088</v>
+        <v>11.2943358232545</v>
       </c>
       <c r="J101" t="n">
-        <v>10.6060358758757</v>
+        <v>11.5875542354388</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>-4.93498136623431</v>
+        <v>-4.74002804682087</v>
       </c>
       <c r="B102" t="n">
-        <v>-5.36399800442121</v>
+        <v>-5.13632270271742</v>
       </c>
       <c r="C102" t="n">
-        <v>-4.97425673175503</v>
+        <v>-4.79448806471007</v>
       </c>
       <c r="D102" t="n">
-        <v>-4.93823431621542</v>
+        <v>-4.48458700107101</v>
       </c>
       <c r="E102" t="n">
-        <v>-3.86116620948129</v>
+        <v>-3.52117825965707</v>
       </c>
       <c r="F102" t="n">
-        <v>-2.47216337966684</v>
+        <v>-2.21120539501724</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.563359218764576</v>
+        <v>-1.07237784436777</v>
       </c>
       <c r="H102" t="n">
-        <v>1.03254194527866</v>
+        <v>1.27135811675642</v>
       </c>
       <c r="I102" t="n">
-        <v>3.38114997989847</v>
+        <v>4.0845572796538</v>
       </c>
       <c r="J102" t="n">
-        <v>6.39774128782065</v>
+        <v>7.20562128873259</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>-4.60108084020532</v>
+        <v>-5.19319790657462</v>
       </c>
       <c r="B103" t="n">
-        <v>-5.20937854782621</v>
+        <v>-5.15992839589621</v>
       </c>
       <c r="C103" t="n">
-        <v>-4.9594042854985</v>
+        <v>-5.21905403164603</v>
       </c>
       <c r="D103" t="n">
-        <v>-4.56475782276552</v>
+        <v>-4.97407617311409</v>
       </c>
       <c r="E103" t="n">
-        <v>-3.38251706355766</v>
+        <v>-3.39513417701716</v>
       </c>
       <c r="F103" t="n">
-        <v>-2.44364202183353</v>
+        <v>-2.19635018067345</v>
       </c>
       <c r="G103" t="n">
-        <v>-0.671650724583762</v>
+        <v>-0.923387482717356</v>
       </c>
       <c r="H103" t="n">
-        <v>1.27891468527962</v>
+        <v>1.26359950072182</v>
       </c>
       <c r="I103" t="n">
-        <v>3.3707852297981</v>
+        <v>4.45964702714764</v>
       </c>
       <c r="J103" t="n">
-        <v>6.3548700683912</v>
+        <v>6.63308774992651</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>10.7319066833589</v>
+        <v>-4.7198864270997</v>
       </c>
       <c r="B104" t="n">
-        <v>10.2695822885824</v>
+        <v>-5.03617338572807</v>
       </c>
       <c r="C104" t="n">
-        <v>11.0079677084068</v>
+        <v>-5.69496685136507</v>
       </c>
       <c r="D104" t="n">
-        <v>12.1399694461946</v>
+        <v>-4.61444793275584</v>
       </c>
       <c r="E104" t="n">
-        <v>11.0818609207956</v>
+        <v>-3.80199593923194</v>
       </c>
       <c r="F104" t="n">
-        <v>12.4973718490647</v>
+        <v>-2.43796290104666</v>
       </c>
       <c r="G104" t="n">
-        <v>12.0847614107523</v>
+        <v>-0.432691059618481</v>
       </c>
       <c r="H104" t="n">
-        <v>10.3992427657787</v>
+        <v>1.00192347465033</v>
       </c>
       <c r="I104" t="n">
-        <v>12.7812329787514</v>
+        <v>3.55447986441987</v>
       </c>
       <c r="J104" t="n">
-        <v>10.4913298858142</v>
+        <v>6.45562268498333</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>-4.61371970799006</v>
+        <v>9.44008933672349</v>
       </c>
       <c r="B105" t="n">
-        <v>-5.5789479776241</v>
+        <v>10.9653500836142</v>
       </c>
       <c r="C105" t="n">
-        <v>-4.9582928574222</v>
+        <v>11.3471899779987</v>
       </c>
       <c r="D105" t="n">
-        <v>-4.09195736811253</v>
+        <v>12.3325959105496</v>
       </c>
       <c r="E105" t="n">
-        <v>-3.46625510093746</v>
+        <v>12.0084235435304</v>
       </c>
       <c r="F105" t="n">
-        <v>-2.18141760567163</v>
+        <v>11.6195290871575</v>
       </c>
       <c r="G105" t="n">
-        <v>-0.336983025260575</v>
+        <v>11.7362387394149</v>
       </c>
       <c r="H105" t="n">
-        <v>1.61350417856956</v>
+        <v>12.086567361153</v>
       </c>
       <c r="I105" t="n">
-        <v>3.59086955703452</v>
+        <v>11.4853745152286</v>
       </c>
       <c r="J105" t="n">
-        <v>6.88559367130372</v>
+        <v>9.5536526773255</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>10.7756419014513</v>
+        <v>9.97333096572748</v>
       </c>
       <c r="B106" t="n">
-        <v>10.4580413626773</v>
+        <v>10.7540585640372</v>
       </c>
       <c r="C106" t="n">
-        <v>12.1969603054816</v>
+        <v>12.0131757019698</v>
       </c>
       <c r="D106" t="n">
-        <v>12.3349629294658</v>
+        <v>10.8944786498233</v>
       </c>
       <c r="E106" t="n">
-        <v>13.00297690661</v>
+        <v>11.9207932201218</v>
       </c>
       <c r="F106" t="n">
-        <v>12.5920335748694</v>
+        <v>13.9744861148183</v>
       </c>
       <c r="G106" t="n">
-        <v>11.8595554451053</v>
+        <v>12.6943125592847</v>
       </c>
       <c r="H106" t="n">
-        <v>11.178721619706</v>
+        <v>11.4571596190489</v>
       </c>
       <c r="I106" t="n">
-        <v>11.0280509347702</v>
+        <v>11.2386933767374</v>
       </c>
       <c r="J106" t="n">
-        <v>11.0419113241128</v>
+        <v>11.1541388750906</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>-4.75775233023653</v>
+        <v>10.5359648559821</v>
       </c>
       <c r="B107" t="n">
-        <v>-5.316503064684</v>
+        <v>10.178029833298</v>
       </c>
       <c r="C107" t="n">
-        <v>-5.14113574622327</v>
+        <v>10.7529511442132</v>
       </c>
       <c r="D107" t="n">
-        <v>-5.02462059117352</v>
+        <v>13.2685820512263</v>
       </c>
       <c r="E107" t="n">
-        <v>-3.71935989610846</v>
+        <v>12.201285969479</v>
       </c>
       <c r="F107" t="n">
-        <v>-2.30373612119531</v>
+        <v>12.3937017839451</v>
       </c>
       <c r="G107" t="n">
-        <v>-0.755267236512659</v>
+        <v>11.7616684300916</v>
       </c>
       <c r="H107" t="n">
-        <v>1.3691919602567</v>
+        <v>12.5416642439307</v>
       </c>
       <c r="I107" t="n">
-        <v>3.72419088840138</v>
+        <v>12.1831120624891</v>
       </c>
       <c r="J107" t="n">
-        <v>6.56950099250681</v>
+        <v>11.8225716709684</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>10.027176252751</v>
+        <v>-5.22379690418539</v>
       </c>
       <c r="B108" t="n">
-        <v>11.8979635481854</v>
+        <v>-5.2885830948163</v>
       </c>
       <c r="C108" t="n">
-        <v>12.2442788862965</v>
+        <v>-5.00160539464415</v>
       </c>
       <c r="D108" t="n">
-        <v>11.0028640177593</v>
+        <v>-4.58681805063311</v>
       </c>
       <c r="E108" t="n">
-        <v>11.4128135071356</v>
+        <v>-3.52851096027026</v>
       </c>
       <c r="F108" t="n">
-        <v>13.170234462699</v>
+        <v>-2.5230802369975</v>
       </c>
       <c r="G108" t="n">
-        <v>11.0527782680812</v>
+        <v>-0.642679125596791</v>
       </c>
       <c r="H108" t="n">
-        <v>12.1490647590979</v>
+        <v>1.33392032979066</v>
       </c>
       <c r="I108" t="n">
-        <v>11.9625408962792</v>
+        <v>4.06335432978915</v>
       </c>
       <c r="J108" t="n">
-        <v>11.365862554806</v>
+        <v>6.81357270639351</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>-4.8988283649126</v>
+        <v>9.92990422451193</v>
       </c>
       <c r="B109" t="n">
-        <v>-5.18938851135002</v>
+        <v>9.84571878471399</v>
       </c>
       <c r="C109" t="n">
-        <v>-5.01591752906674</v>
+        <v>11.3840936981853</v>
       </c>
       <c r="D109" t="n">
-        <v>-4.8032191378735</v>
+        <v>11.4053728387821</v>
       </c>
       <c r="E109" t="n">
-        <v>-3.57976046202217</v>
+        <v>13.2493450652247</v>
       </c>
       <c r="F109" t="n">
-        <v>-2.61411841875876</v>
+        <v>12.8546077321272</v>
       </c>
       <c r="G109" t="n">
-        <v>-1.21274454382118</v>
+        <v>11.7340064573664</v>
       </c>
       <c r="H109" t="n">
-        <v>1.82449104723058</v>
+        <v>12.1023024647797</v>
       </c>
       <c r="I109" t="n">
-        <v>4.38892617481185</v>
+        <v>11.3346175510589</v>
       </c>
       <c r="J109" t="n">
-        <v>6.80162805334415</v>
+        <v>11.531508916399</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>-4.89440298557518</v>
+        <v>-4.87697454290883</v>
       </c>
       <c r="B110" t="n">
-        <v>-5.1528686019888</v>
+        <v>-5.18448069819016</v>
       </c>
       <c r="C110" t="n">
-        <v>-5.29728628328609</v>
+        <v>-5.6929477596583</v>
       </c>
       <c r="D110" t="n">
-        <v>-4.90159021015106</v>
+        <v>-5.24088527014644</v>
       </c>
       <c r="E110" t="n">
-        <v>-3.82403249227091</v>
+        <v>-4.14349524158481</v>
       </c>
       <c r="F110" t="n">
-        <v>-3.01089580334809</v>
+        <v>-2.76149365747894</v>
       </c>
       <c r="G110" t="n">
-        <v>-0.696096420029259</v>
+        <v>-1.09494864219877</v>
       </c>
       <c r="H110" t="n">
-        <v>1.42813972400759</v>
+        <v>1.0814783715189</v>
       </c>
       <c r="I110" t="n">
-        <v>3.43481259622021</v>
+        <v>3.6823802206097</v>
       </c>
       <c r="J110" t="n">
-        <v>6.50080376204272</v>
+        <v>6.54080317463248</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>9.86295809773934</v>
+        <v>-5.0660688618738</v>
       </c>
       <c r="B111" t="n">
-        <v>9.96628429037616</v>
+        <v>-5.16671588715131</v>
       </c>
       <c r="C111" t="n">
-        <v>11.2896059932621</v>
+        <v>-5.45619496887407</v>
       </c>
       <c r="D111" t="n">
-        <v>11.4613037921271</v>
+        <v>-4.54851431565698</v>
       </c>
       <c r="E111" t="n">
-        <v>11.1570911118118</v>
+        <v>-3.66818862947036</v>
       </c>
       <c r="F111" t="n">
-        <v>10.7470070803788</v>
+        <v>-1.89504558971601</v>
       </c>
       <c r="G111" t="n">
-        <v>12.8809626400997</v>
+        <v>-1.03408614230817</v>
       </c>
       <c r="H111" t="n">
-        <v>10.6527996871549</v>
+        <v>1.45811192762869</v>
       </c>
       <c r="I111" t="n">
-        <v>10.2047918187012</v>
+        <v>3.83629922757385</v>
       </c>
       <c r="J111" t="n">
-        <v>11.5295148958368</v>
+        <v>7.21465856512278</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>9.73287064563088</v>
+        <v>9.85740515907621</v>
       </c>
       <c r="B112" t="n">
-        <v>11.174115494612</v>
+        <v>10.3592474058921</v>
       </c>
       <c r="C112" t="n">
-        <v>10.8802664935861</v>
+        <v>11.3154635521797</v>
       </c>
       <c r="D112" t="n">
-        <v>12.183779263184</v>
+        <v>12.6934748827998</v>
       </c>
       <c r="E112" t="n">
-        <v>12.9959818546906</v>
+        <v>10.9318426452258</v>
       </c>
       <c r="F112" t="n">
-        <v>13.2037962245458</v>
+        <v>13.0256237122155</v>
       </c>
       <c r="G112" t="n">
-        <v>12.4636829560346</v>
+        <v>12.6919504048861</v>
       </c>
       <c r="H112" t="n">
-        <v>12.1190987002275</v>
+        <v>11.512241500172</v>
       </c>
       <c r="I112" t="n">
-        <v>11.1464485946359</v>
+        <v>11.7117616101333</v>
       </c>
       <c r="J112" t="n">
-        <v>11.4071875326237</v>
+        <v>12.674073020324</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>8.8008438283938</v>
+        <v>9.97494420311846</v>
       </c>
       <c r="B113" t="n">
-        <v>10.3998326901602</v>
+        <v>11.8146220984065</v>
       </c>
       <c r="C113" t="n">
-        <v>10.469967043545</v>
+        <v>11.18996884673</v>
       </c>
       <c r="D113" t="n">
-        <v>11.5475975917496</v>
+        <v>12.0143165506783</v>
       </c>
       <c r="E113" t="n">
-        <v>12.6362176100893</v>
+        <v>11.3239523828469</v>
       </c>
       <c r="F113" t="n">
-        <v>11.0250334382719</v>
+        <v>12.975684356343</v>
       </c>
       <c r="G113" t="n">
-        <v>13.8354866778087</v>
+        <v>12.1239394801349</v>
       </c>
       <c r="H113" t="n">
-        <v>10.4865339397261</v>
+        <v>13.6321019590907</v>
       </c>
       <c r="I113" t="n">
-        <v>12.3050024055354</v>
+        <v>13.2157797066311</v>
       </c>
       <c r="J113" t="n">
-        <v>10.0144131537331</v>
+        <v>12.0035703449332</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>9.2512803635122</v>
+        <v>9.71662658808361</v>
       </c>
       <c r="B114" t="n">
-        <v>10.4752004190927</v>
+        <v>11.4164257198328</v>
       </c>
       <c r="C114" t="n">
-        <v>10.6891371792384</v>
+        <v>11.9746991749522</v>
       </c>
       <c r="D114" t="n">
-        <v>11.4197678343387</v>
+        <v>12.085135459718</v>
       </c>
       <c r="E114" t="n">
-        <v>12.6646329492283</v>
+        <v>13.2022741320964</v>
       </c>
       <c r="F114" t="n">
-        <v>13.7234231193379</v>
+        <v>12.6492150384674</v>
       </c>
       <c r="G114" t="n">
-        <v>12.6201394017112</v>
+        <v>11.9188456572991</v>
       </c>
       <c r="H114" t="n">
-        <v>12.7350944493807</v>
+        <v>12.4705335562652</v>
       </c>
       <c r="I114" t="n">
-        <v>11.5234842221836</v>
+        <v>12.3741160447401</v>
       </c>
       <c r="J114" t="n">
-        <v>11.0671654379001</v>
+        <v>11.0533158288297</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>9.89248029113385</v>
+        <v>10.6778213475724</v>
       </c>
       <c r="B115" t="n">
-        <v>10.7958472767831</v>
+        <v>10.6886331439316</v>
       </c>
       <c r="C115" t="n">
-        <v>11.1612439460716</v>
+        <v>11.7681363125838</v>
       </c>
       <c r="D115" t="n">
-        <v>12.2565252306083</v>
+        <v>12.1265246158915</v>
       </c>
       <c r="E115" t="n">
-        <v>12.0146772230821</v>
+        <v>12.4961027238334</v>
       </c>
       <c r="F115" t="n">
-        <v>12.1300904270919</v>
+        <v>11.9980630728678</v>
       </c>
       <c r="G115" t="n">
-        <v>11.8911026376394</v>
+        <v>13.6434809220726</v>
       </c>
       <c r="H115" t="n">
-        <v>11.9858420584405</v>
+        <v>12.5427719282924</v>
       </c>
       <c r="I115" t="n">
-        <v>11.153314122107</v>
+        <v>10.7503330142202</v>
       </c>
       <c r="J115" t="n">
-        <v>11.7994690364906</v>
+        <v>11.7487183598388</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>9.04266844086805</v>
+        <v>-5.29482286411718</v>
       </c>
       <c r="B116" t="n">
-        <v>10.7876286307935</v>
+        <v>-5.48771551602585</v>
       </c>
       <c r="C116" t="n">
-        <v>12.6355467090764</v>
+        <v>-5.27700462712637</v>
       </c>
       <c r="D116" t="n">
-        <v>12.3994221363808</v>
+        <v>-4.26324210786871</v>
       </c>
       <c r="E116" t="n">
-        <v>11.4327333136415</v>
+        <v>-3.69089344950381</v>
       </c>
       <c r="F116" t="n">
-        <v>13.3488961105447</v>
+        <v>-2.59190447884003</v>
       </c>
       <c r="G116" t="n">
-        <v>12.4176761458645</v>
+        <v>-1.10245904658226</v>
       </c>
       <c r="H116" t="n">
-        <v>11.4543157966021</v>
+        <v>0.521023722939941</v>
       </c>
       <c r="I116" t="n">
-        <v>12.8187050771228</v>
+        <v>3.65364820518331</v>
       </c>
       <c r="J116" t="n">
-        <v>11.3930854501845</v>
+        <v>6.41427247050703</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>9.39353042048102</v>
+        <v>9.79079955925343</v>
       </c>
       <c r="B117" t="n">
-        <v>10.2296217661903</v>
+        <v>10.9388913762117</v>
       </c>
       <c r="C117" t="n">
-        <v>12.2839610622996</v>
+        <v>13.3323813996343</v>
       </c>
       <c r="D117" t="n">
-        <v>12.8134912317408</v>
+        <v>12.5362831679798</v>
       </c>
       <c r="E117" t="n">
-        <v>12.5180453479687</v>
+        <v>12.3822138051322</v>
       </c>
       <c r="F117" t="n">
-        <v>13.1792658788863</v>
+        <v>12.1729303806878</v>
       </c>
       <c r="G117" t="n">
-        <v>13.0013076051292</v>
+        <v>12.4434535393762</v>
       </c>
       <c r="H117" t="n">
-        <v>11.1175051219242</v>
+        <v>11.1500008498549</v>
       </c>
       <c r="I117" t="n">
-        <v>11.5465848883577</v>
+        <v>10.0586534858011</v>
       </c>
       <c r="J117" t="n">
-        <v>10.8493120719005</v>
+        <v>10.1918430562038</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>10.205946900749</v>
+        <v>9.8504306558667</v>
       </c>
       <c r="B118" t="n">
-        <v>11.6219058061524</v>
+        <v>12.7050594463539</v>
       </c>
       <c r="C118" t="n">
-        <v>11.5214327575664</v>
+        <v>11.5112944633558</v>
       </c>
       <c r="D118" t="n">
-        <v>9.99963903976263</v>
+        <v>12.4825459627996</v>
       </c>
       <c r="E118" t="n">
-        <v>12.1367071127371</v>
+        <v>13.2799936983775</v>
       </c>
       <c r="F118" t="n">
-        <v>12.7240038917917</v>
+        <v>11.7188010113129</v>
       </c>
       <c r="G118" t="n">
-        <v>12.5345274491943</v>
+        <v>12.681196084904</v>
       </c>
       <c r="H118" t="n">
-        <v>12.7532105888592</v>
+        <v>10.0940890031278</v>
       </c>
       <c r="I118" t="n">
-        <v>12.0050434734043</v>
+        <v>11.7581967507197</v>
       </c>
       <c r="J118" t="n">
-        <v>10.6100362488369</v>
+        <v>11.6817216821557</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>9.8173951462945</v>
+        <v>-4.88783640981428</v>
       </c>
       <c r="B119" t="n">
-        <v>10.5282896851776</v>
+        <v>-5.41815382806582</v>
       </c>
       <c r="C119" t="n">
-        <v>11.6292293190675</v>
+        <v>-5.46701821749053</v>
       </c>
       <c r="D119" t="n">
-        <v>12.3480653107987</v>
+        <v>-4.34456404178363</v>
       </c>
       <c r="E119" t="n">
-        <v>11.2855073475795</v>
+        <v>-3.71171001556463</v>
       </c>
       <c r="F119" t="n">
-        <v>12.5007807594177</v>
+        <v>-2.57193740962704</v>
       </c>
       <c r="G119" t="n">
-        <v>11.5387280299812</v>
+        <v>-0.618671877058066</v>
       </c>
       <c r="H119" t="n">
-        <v>12.879436676098</v>
+        <v>0.955150597849056</v>
       </c>
       <c r="I119" t="n">
-        <v>11.3611910235819</v>
+        <v>4.10889941000682</v>
       </c>
       <c r="J119" t="n">
-        <v>11.5196282081967</v>
+        <v>7.26496813177433</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>9.37942752703427</v>
+        <v>9.28237464079955</v>
       </c>
       <c r="B120" t="n">
-        <v>10.9768991195909</v>
+        <v>11.3227547656272</v>
       </c>
       <c r="C120" t="n">
-        <v>10.7985202074133</v>
+        <v>11.4888212414292</v>
       </c>
       <c r="D120" t="n">
-        <v>11.4336646716879</v>
+        <v>12.1249880192124</v>
       </c>
       <c r="E120" t="n">
-        <v>11.63706143672</v>
+        <v>11.559266112637</v>
       </c>
       <c r="F120" t="n">
-        <v>13.0079048923528</v>
+        <v>13.7930952871052</v>
       </c>
       <c r="G120" t="n">
-        <v>12.5859579493419</v>
+        <v>11.7323546941951</v>
       </c>
       <c r="H120" t="n">
-        <v>9.93001628774389</v>
+        <v>13.2497464173824</v>
       </c>
       <c r="I120" t="n">
-        <v>11.6047345734688</v>
+        <v>10.6214015031678</v>
       </c>
       <c r="J120" t="n">
-        <v>10.6345713942619</v>
+        <v>10.3467163575103</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>10.3046530257645</v>
+        <v>11.4020180578175</v>
       </c>
       <c r="B121" t="n">
-        <v>10.3474074379249</v>
+        <v>11.3266910117395</v>
       </c>
       <c r="C121" t="n">
-        <v>10.569176646623</v>
+        <v>11.8167901233878</v>
       </c>
       <c r="D121" t="n">
-        <v>12.4487237291472</v>
+        <v>13.0591752338875</v>
       </c>
       <c r="E121" t="n">
-        <v>11.6263357949361</v>
+        <v>12.5242306684875</v>
       </c>
       <c r="F121" t="n">
-        <v>13.1230271229626</v>
+        <v>12.187038721418</v>
       </c>
       <c r="G121" t="n">
-        <v>12.2693203081063</v>
+        <v>13.0995480419736</v>
       </c>
       <c r="H121" t="n">
-        <v>12.3533919638079</v>
+        <v>13.3085861579323</v>
       </c>
       <c r="I121" t="n">
-        <v>11.1049823539337</v>
+        <v>12.4762889969055</v>
       </c>
       <c r="J121" t="n">
-        <v>10.1661526227686</v>
+        <v>11.47116220869</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>10.6274145924266</v>
+        <v>9.80797464799132</v>
       </c>
       <c r="B122" t="n">
-        <v>11.7262154225946</v>
+        <v>9.54841547311278</v>
       </c>
       <c r="C122" t="n">
-        <v>11.7780672088198</v>
+        <v>11.4448114470076</v>
       </c>
       <c r="D122" t="n">
-        <v>12.1986873982756</v>
+        <v>12.8299186481082</v>
       </c>
       <c r="E122" t="n">
-        <v>12.2445462453981</v>
+        <v>11.7635489789309</v>
       </c>
       <c r="F122" t="n">
-        <v>13.1473206339263</v>
+        <v>12.4999484880315</v>
       </c>
       <c r="G122" t="n">
-        <v>13.6464342520524</v>
+        <v>12.1150435281985</v>
       </c>
       <c r="H122" t="n">
-        <v>11.8235505846615</v>
+        <v>12.3922807778127</v>
       </c>
       <c r="I122" t="n">
-        <v>12.5865219267633</v>
+        <v>11.1306262379506</v>
       </c>
       <c r="J122" t="n">
-        <v>10.5545776557649</v>
+        <v>11.9682433466824</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>9.21001382514317</v>
+        <v>9.78225158516495</v>
       </c>
       <c r="B123" t="n">
-        <v>10.3676836141309</v>
+        <v>11.4233943267476</v>
       </c>
       <c r="C123" t="n">
-        <v>11.5897801574746</v>
+        <v>13.1072058939504</v>
       </c>
       <c r="D123" t="n">
-        <v>12.0788272121235</v>
+        <v>12.90553723015</v>
       </c>
       <c r="E123" t="n">
-        <v>12.4532782444628</v>
+        <v>12.5597154160656</v>
       </c>
       <c r="F123" t="n">
-        <v>11.9555806120564</v>
+        <v>12.8947122422668</v>
       </c>
       <c r="G123" t="n">
-        <v>11.2362499181149</v>
+        <v>12.6412283830033</v>
       </c>
       <c r="H123" t="n">
-        <v>11.1804207531061</v>
+        <v>11.6865154072069</v>
       </c>
       <c r="I123" t="n">
-        <v>11.5903144041143</v>
+        <v>12.4701057681078</v>
       </c>
       <c r="J123" t="n">
-        <v>10.3361219777252</v>
+        <v>10.4235639405442</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>-5.0681643354014</v>
+        <v>11.3211307427376</v>
       </c>
       <c r="B124" t="n">
-        <v>-5.14562672570162</v>
+        <v>11.0061114272932</v>
       </c>
       <c r="C124" t="n">
-        <v>-5.1593646489992</v>
+        <v>10.8707795679195</v>
       </c>
       <c r="D124" t="n">
-        <v>-4.63744880692065</v>
+        <v>12.1658737717045</v>
       </c>
       <c r="E124" t="n">
-        <v>-3.79169408366636</v>
+        <v>12.0608975515875</v>
       </c>
       <c r="F124" t="n">
-        <v>-2.44985448826506</v>
+        <v>13.2343993101037</v>
       </c>
       <c r="G124" t="n">
-        <v>-0.919284100637089</v>
+        <v>11.5760842909256</v>
       </c>
       <c r="H124" t="n">
-        <v>1.16259329546455</v>
+        <v>12.310227846063</v>
       </c>
       <c r="I124" t="n">
-        <v>3.57065383173538</v>
+        <v>11.6934153248238</v>
       </c>
       <c r="J124" t="n">
-        <v>6.98637332222708</v>
+        <v>11.153320299471</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>8.94360605457046</v>
+        <v>9.39860303984022</v>
       </c>
       <c r="B125" t="n">
-        <v>11.1930420927835</v>
+        <v>10.8484856444038</v>
       </c>
       <c r="C125" t="n">
-        <v>11.1638771001978</v>
+        <v>11.5311583638426</v>
       </c>
       <c r="D125" t="n">
-        <v>11.8117752285102</v>
+        <v>12.4957355817286</v>
       </c>
       <c r="E125" t="n">
-        <v>11.8112282541178</v>
+        <v>13.1178725936604</v>
       </c>
       <c r="F125" t="n">
-        <v>12.9679056075458</v>
+        <v>12.4691100569901</v>
       </c>
       <c r="G125" t="n">
-        <v>11.2827080593915</v>
+        <v>11.9755643437126</v>
       </c>
       <c r="H125" t="n">
-        <v>12.7825557752502</v>
+        <v>14.6720565593786</v>
       </c>
       <c r="I125" t="n">
-        <v>10.4626621317748</v>
+        <v>10.2773031160683</v>
       </c>
       <c r="J125" t="n">
-        <v>10.466061443439</v>
+        <v>9.78681758889975</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>10.4853344054626</v>
+        <v>-4.76199087488166</v>
       </c>
       <c r="B126" t="n">
-        <v>10.2484008954281</v>
+        <v>-5.38359918674726</v>
       </c>
       <c r="C126" t="n">
-        <v>10.871919840577</v>
+        <v>-5.38523037106781</v>
       </c>
       <c r="D126" t="n">
-        <v>11.7019342385831</v>
+        <v>-4.86105301440625</v>
       </c>
       <c r="E126" t="n">
-        <v>12.6766409096414</v>
+        <v>-4.12240589699265</v>
       </c>
       <c r="F126" t="n">
-        <v>11.2005443231144</v>
+        <v>-2.32827511547882</v>
       </c>
       <c r="G126" t="n">
-        <v>13.0653556702141</v>
+        <v>-0.620027933104645</v>
       </c>
       <c r="H126" t="n">
-        <v>12.8755384757886</v>
+        <v>1.22434279865938</v>
       </c>
       <c r="I126" t="n">
-        <v>10.2638181779163</v>
+        <v>3.6282957303932</v>
       </c>
       <c r="J126" t="n">
-        <v>11.5344304206288</v>
+        <v>6.62012584698131</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>10.4867517359606</v>
+        <v>-4.4835675054599</v>
       </c>
       <c r="B127" t="n">
-        <v>11.0336825597284</v>
+        <v>-5.43522835750602</v>
       </c>
       <c r="C127" t="n">
-        <v>11.9871641706783</v>
+        <v>-4.8777852796154</v>
       </c>
       <c r="D127" t="n">
-        <v>11.3712093703276</v>
+        <v>-4.54751779850037</v>
       </c>
       <c r="E127" t="n">
-        <v>12.4068324948677</v>
+        <v>-4.39919653373699</v>
       </c>
       <c r="F127" t="n">
-        <v>12.1802965424304</v>
+        <v>-2.41188881924804</v>
       </c>
       <c r="G127" t="n">
-        <v>13.1249210980285</v>
+        <v>-1.03899913778139</v>
       </c>
       <c r="H127" t="n">
-        <v>11.4059079326079</v>
+        <v>1.53462159385468</v>
       </c>
       <c r="I127" t="n">
-        <v>12.1278762082376</v>
+        <v>3.69685616366019</v>
       </c>
       <c r="J127" t="n">
-        <v>9.5167060925806</v>
+        <v>6.65028836277432</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>-4.82167190021173</v>
+        <v>10.6143300777888</v>
       </c>
       <c r="B128" t="n">
-        <v>-4.92820208086965</v>
+        <v>10.3879381919243</v>
       </c>
       <c r="C128" t="n">
-        <v>-5.41524424010746</v>
+        <v>11.7826542000804</v>
       </c>
       <c r="D128" t="n">
-        <v>-5.07883384118017</v>
+        <v>11.495217800326</v>
       </c>
       <c r="E128" t="n">
-        <v>-3.65322370037936</v>
+        <v>12.7886175860284</v>
       </c>
       <c r="F128" t="n">
-        <v>-2.44693406019512</v>
+        <v>11.7351824954406</v>
       </c>
       <c r="G128" t="n">
-        <v>-0.668980411993174</v>
+        <v>12.2812770889889</v>
       </c>
       <c r="H128" t="n">
-        <v>1.38761530346238</v>
+        <v>12.4974121060502</v>
       </c>
       <c r="I128" t="n">
-        <v>3.679653958732</v>
+        <v>11.069731437473</v>
       </c>
       <c r="J128" t="n">
-        <v>6.39166626516958</v>
+        <v>11.0906300326756</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>8.80643548858617</v>
+        <v>-4.7768893048719</v>
       </c>
       <c r="B129" t="n">
-        <v>11.3735075905378</v>
+        <v>-5.20328725770114</v>
       </c>
       <c r="C129" t="n">
-        <v>12.9469249609727</v>
+        <v>-5.11775894203541</v>
       </c>
       <c r="D129" t="n">
-        <v>12.5947585101783</v>
+        <v>-4.57778590653644</v>
       </c>
       <c r="E129" t="n">
-        <v>12.2668296411092</v>
+        <v>-3.7639805358717</v>
       </c>
       <c r="F129" t="n">
-        <v>13.2266702751233</v>
+        <v>-2.73475079349296</v>
       </c>
       <c r="G129" t="n">
-        <v>12.4185413801678</v>
+        <v>-0.459389178524698</v>
       </c>
       <c r="H129" t="n">
-        <v>11.8655129605983</v>
+        <v>1.63255589809967</v>
       </c>
       <c r="I129" t="n">
-        <v>11.868865998981</v>
+        <v>3.62044110813049</v>
       </c>
       <c r="J129" t="n">
-        <v>10.4748644857257</v>
+        <v>6.65604659516387</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>10.3129767370635</v>
+        <v>9.9379815990447</v>
       </c>
       <c r="B130" t="n">
-        <v>10.4393581617467</v>
+        <v>11.5381612218623</v>
       </c>
       <c r="C130" t="n">
-        <v>11.2785458197228</v>
+        <v>12.6090122147371</v>
       </c>
       <c r="D130" t="n">
-        <v>11.5468812778097</v>
+        <v>12.1102608742845</v>
       </c>
       <c r="E130" t="n">
-        <v>11.7703065367984</v>
+        <v>12.2144471026823</v>
       </c>
       <c r="F130" t="n">
-        <v>12.9734747367143</v>
+        <v>12.3430402666606</v>
       </c>
       <c r="G130" t="n">
-        <v>12.6009065718348</v>
+        <v>11.7356803852593</v>
       </c>
       <c r="H130" t="n">
-        <v>13.0194137164994</v>
+        <v>11.4898738254161</v>
       </c>
       <c r="I130" t="n">
-        <v>11.4273555496426</v>
+        <v>9.78635758725161</v>
       </c>
       <c r="J130" t="n">
-        <v>11.2231192182495</v>
+        <v>10.9705092290683</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>10.0754253528924</v>
+        <v>-4.75088635950267</v>
       </c>
       <c r="B131" t="n">
-        <v>11.5400623263375</v>
+        <v>-5.55150739806634</v>
       </c>
       <c r="C131" t="n">
-        <v>12.0803186714657</v>
+        <v>-5.23249571173552</v>
       </c>
       <c r="D131" t="n">
-        <v>11.5541496952613</v>
+        <v>-4.47257712594083</v>
       </c>
       <c r="E131" t="n">
-        <v>12.3750054557323</v>
+        <v>-4.01940944756173</v>
       </c>
       <c r="F131" t="n">
-        <v>12.3657702360178</v>
+        <v>-2.82951122332584</v>
       </c>
       <c r="G131" t="n">
-        <v>12.6838009089342</v>
+        <v>-0.801994947022855</v>
       </c>
       <c r="H131" t="n">
-        <v>12.402201993795</v>
+        <v>1.35979417444154</v>
       </c>
       <c r="I131" t="n">
-        <v>10.9141688601251</v>
+        <v>3.61981971743805</v>
       </c>
       <c r="J131" t="n">
-        <v>10.3138587423134</v>
+        <v>6.57866820957486</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>8.7228213292403</v>
+        <v>9.67612228582484</v>
       </c>
       <c r="B132" t="n">
-        <v>10.4119358400104</v>
+        <v>10.7761255397709</v>
       </c>
       <c r="C132" t="n">
-        <v>11.5067327492632</v>
+        <v>11.1189189536568</v>
       </c>
       <c r="D132" t="n">
-        <v>11.8565218737889</v>
+        <v>11.406989848255</v>
       </c>
       <c r="E132" t="n">
-        <v>13.4894131228242</v>
+        <v>12.2261524088803</v>
       </c>
       <c r="F132" t="n">
-        <v>13.374429420706</v>
+        <v>12.6092741286363</v>
       </c>
       <c r="G132" t="n">
-        <v>11.2356163267902</v>
+        <v>12.2779632870794</v>
       </c>
       <c r="H132" t="n">
-        <v>11.8611956043975</v>
+        <v>12.0713921602089</v>
       </c>
       <c r="I132" t="n">
-        <v>10.6793602049528</v>
+        <v>11.1319196638143</v>
       </c>
       <c r="J132" t="n">
-        <v>9.67961625302468</v>
+        <v>11.1165347376103</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>-5.20499723306081</v>
+        <v>-5.30636959494939</v>
       </c>
       <c r="B133" t="n">
-        <v>-5.10550561234023</v>
+        <v>-4.87144685937094</v>
       </c>
       <c r="C133" t="n">
-        <v>-5.2898178582471</v>
+        <v>-4.61277060199362</v>
       </c>
       <c r="D133" t="n">
-        <v>-5.02635938967267</v>
+        <v>-4.19310173770024</v>
       </c>
       <c r="E133" t="n">
-        <v>-3.56047081872387</v>
+        <v>-4.07776894387974</v>
       </c>
       <c r="F133" t="n">
-        <v>-2.30084718436115</v>
+        <v>-2.20121415377607</v>
       </c>
       <c r="G133" t="n">
-        <v>-1.01414749003533</v>
+        <v>-0.859603526158297</v>
       </c>
       <c r="H133" t="n">
-        <v>0.909345179669269</v>
+        <v>1.7319471060081</v>
       </c>
       <c r="I133" t="n">
-        <v>3.80616540293644</v>
+        <v>3.82080034832299</v>
       </c>
       <c r="J133" t="n">
-        <v>6.67525390898959</v>
+        <v>6.71634945035048</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>9.68698259795389</v>
+        <v>-4.98444157712075</v>
       </c>
       <c r="B134" t="n">
-        <v>11.8651543670701</v>
+        <v>-5.27534707774032</v>
       </c>
       <c r="C134" t="n">
-        <v>10.9374750692324</v>
+        <v>-5.3007605008478</v>
       </c>
       <c r="D134" t="n">
-        <v>13.2690569165193</v>
+        <v>-5.05415423566219</v>
       </c>
       <c r="E134" t="n">
-        <v>12.2183678234168</v>
+        <v>-3.40036153356564</v>
       </c>
       <c r="F134" t="n">
-        <v>12.3498995548709</v>
+        <v>-2.45170693967856</v>
       </c>
       <c r="G134" t="n">
-        <v>13.0149415268401</v>
+        <v>-0.705972996548624</v>
       </c>
       <c r="H134" t="n">
-        <v>12.9671142174474</v>
+        <v>1.74871312240145</v>
       </c>
       <c r="I134" t="n">
-        <v>10.7812564731785</v>
+        <v>3.44803214252759</v>
       </c>
       <c r="J134" t="n">
-        <v>11.3986783775669</v>
+        <v>6.69766350279299</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>10.0138028967329</v>
+        <v>9.92941243140545</v>
       </c>
       <c r="B135" t="n">
-        <v>9.18889471938791</v>
+        <v>10.4880387818831</v>
       </c>
       <c r="C135" t="n">
-        <v>11.1498669396915</v>
+        <v>10.0881355591082</v>
       </c>
       <c r="D135" t="n">
-        <v>11.8272966531699</v>
+        <v>12.3701962703295</v>
       </c>
       <c r="E135" t="n">
-        <v>10.4890450634928</v>
+        <v>12.3644587877488</v>
       </c>
       <c r="F135" t="n">
-        <v>12.5117465247837</v>
+        <v>14.3106794073656</v>
       </c>
       <c r="G135" t="n">
-        <v>12.4766904732009</v>
+        <v>12.5197495464379</v>
       </c>
       <c r="H135" t="n">
-        <v>11.5593350115325</v>
+        <v>12.9017660828614</v>
       </c>
       <c r="I135" t="n">
-        <v>11.3844202424444</v>
+        <v>12.7817675824301</v>
       </c>
       <c r="J135" t="n">
-        <v>10.4155319538011</v>
+        <v>9.59343652364614</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>9.67138238932727</v>
+        <v>-4.57159274564912</v>
       </c>
       <c r="B136" t="n">
-        <v>10.7580590851611</v>
+        <v>-5.32603798754327</v>
       </c>
       <c r="C136" t="n">
-        <v>12.0021701626994</v>
+        <v>-5.21858430557874</v>
       </c>
       <c r="D136" t="n">
-        <v>11.8266039733214</v>
+        <v>-5.28605836530393</v>
       </c>
       <c r="E136" t="n">
-        <v>12.4416532285792</v>
+        <v>-3.70913617209887</v>
       </c>
       <c r="F136" t="n">
-        <v>12.4499357427954</v>
+        <v>-2.57136890253834</v>
       </c>
       <c r="G136" t="n">
-        <v>13.3467848862951</v>
+        <v>-0.579167506894682</v>
       </c>
       <c r="H136" t="n">
-        <v>12.1841023436127</v>
+        <v>1.63911858163941</v>
       </c>
       <c r="I136" t="n">
-        <v>10.9160439399751</v>
+        <v>3.4797357589396</v>
       </c>
       <c r="J136" t="n">
-        <v>10.7717256846737</v>
+        <v>6.74005499219192</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>10.4622961265934</v>
+        <v>9.12456485232934</v>
       </c>
       <c r="B137" t="n">
-        <v>10.8325798323542</v>
+        <v>11.5033788123144</v>
       </c>
       <c r="C137" t="n">
-        <v>12.9875120966615</v>
+        <v>13.9092987338142</v>
       </c>
       <c r="D137" t="n">
-        <v>11.6693931326634</v>
+        <v>13.2036857503582</v>
       </c>
       <c r="E137" t="n">
-        <v>12.584472854257</v>
+        <v>12.2267790800209</v>
       </c>
       <c r="F137" t="n">
-        <v>11.973330876572</v>
+        <v>12.7429222414805</v>
       </c>
       <c r="G137" t="n">
-        <v>12.5666061198491</v>
+        <v>12.8294079921722</v>
       </c>
       <c r="H137" t="n">
-        <v>12.3439385590078</v>
+        <v>12.6281712097901</v>
       </c>
       <c r="I137" t="n">
-        <v>11.3581267783092</v>
+        <v>11.6871573795253</v>
       </c>
       <c r="J137" t="n">
-        <v>9.34377913174259</v>
+        <v>11.0357331490517</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>9.80104065339289</v>
+        <v>10.0900121234041</v>
       </c>
       <c r="B138" t="n">
-        <v>11.103906816085</v>
+        <v>12.8054289814777</v>
       </c>
       <c r="C138" t="n">
-        <v>12.0384181955555</v>
+        <v>12.1464278166152</v>
       </c>
       <c r="D138" t="n">
-        <v>11.8494487761043</v>
+        <v>12.1217918180074</v>
       </c>
       <c r="E138" t="n">
-        <v>11.5257571711077</v>
+        <v>13.6532624978151</v>
       </c>
       <c r="F138" t="n">
-        <v>12.825607212087</v>
+        <v>11.8829381626711</v>
       </c>
       <c r="G138" t="n">
-        <v>12.2666382812573</v>
+        <v>12.2767223926834</v>
       </c>
       <c r="H138" t="n">
-        <v>12.4703516427998</v>
+        <v>11.566532067754</v>
       </c>
       <c r="I138" t="n">
-        <v>11.2660089759893</v>
+        <v>11.250546527931</v>
       </c>
       <c r="J138" t="n">
-        <v>10.026397875517</v>
+        <v>9.51292962241582</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>-4.70423575371796</v>
+        <v>-5.39171797142474</v>
       </c>
       <c r="B139" t="n">
-        <v>-5.29811173831498</v>
+        <v>-5.60169745464995</v>
       </c>
       <c r="C139" t="n">
-        <v>-5.31564544343993</v>
+        <v>-5.30231359494794</v>
       </c>
       <c r="D139" t="n">
-        <v>-4.64450423201977</v>
+        <v>-4.96296728415712</v>
       </c>
       <c r="E139" t="n">
-        <v>-3.6910885711937</v>
+        <v>-3.328769238801</v>
       </c>
       <c r="F139" t="n">
-        <v>-2.54727148867373</v>
+        <v>-2.71920230794408</v>
       </c>
       <c r="G139" t="n">
-        <v>-0.885493323804444</v>
+        <v>-0.699957333386323</v>
       </c>
       <c r="H139" t="n">
-        <v>1.5952415947108</v>
+        <v>1.15288528369795</v>
       </c>
       <c r="I139" t="n">
-        <v>3.69697263260468</v>
+        <v>3.7492958764941</v>
       </c>
       <c r="J139" t="n">
-        <v>6.56792640798198</v>
+        <v>6.48921886399447</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>-5.07333061070088</v>
+        <v>9.66592983118041</v>
       </c>
       <c r="B140" t="n">
-        <v>-5.66823788563213</v>
+        <v>10.107141107446</v>
       </c>
       <c r="C140" t="n">
-        <v>-5.42480637461935</v>
+        <v>10.7214353537802</v>
       </c>
       <c r="D140" t="n">
-        <v>-5.11157795364435</v>
+        <v>13.5804602791799</v>
       </c>
       <c r="E140" t="n">
-        <v>-3.57387512318428</v>
+        <v>11.8059320932684</v>
       </c>
       <c r="F140" t="n">
-        <v>-2.81126892352402</v>
+        <v>13.1291966099918</v>
       </c>
       <c r="G140" t="n">
-        <v>-0.534472131815004</v>
+        <v>11.6165527573323</v>
       </c>
       <c r="H140" t="n">
-        <v>1.34507773901571</v>
+        <v>10.2054110285996</v>
       </c>
       <c r="I140" t="n">
-        <v>3.50995967050783</v>
+        <v>11.058407670303</v>
       </c>
       <c r="J140" t="n">
-        <v>7.04689290648804</v>
+        <v>10.9718310336026</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>9.75561652343009</v>
+        <v>9.32313744250017</v>
       </c>
       <c r="B141" t="n">
-        <v>12.0885500083523</v>
+        <v>12.6081918550758</v>
       </c>
       <c r="C141" t="n">
-        <v>11.6630048923904</v>
+        <v>11.5849656344996</v>
       </c>
       <c r="D141" t="n">
-        <v>12.0980604606733</v>
+        <v>11.8209617221644</v>
       </c>
       <c r="E141" t="n">
-        <v>10.6287271819116</v>
+        <v>12.4475893285318</v>
       </c>
       <c r="F141" t="n">
-        <v>13.2168144091532</v>
+        <v>12.8152526890692</v>
       </c>
       <c r="G141" t="n">
-        <v>12.1818049388936</v>
+        <v>12.348653866063</v>
       </c>
       <c r="H141" t="n">
-        <v>12.704162501375</v>
+        <v>11.3320643981951</v>
       </c>
       <c r="I141" t="n">
-        <v>11.34494807601</v>
+        <v>11.0347155937453</v>
       </c>
       <c r="J141" t="n">
-        <v>10.8005315252607</v>
+        <v>11.6508055990291</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>9.47267508852233</v>
+        <v>9.34623095154176</v>
       </c>
       <c r="B142" t="n">
-        <v>10.4893199538852</v>
+        <v>11.4151720454991</v>
       </c>
       <c r="C142" t="n">
-        <v>11.0574057540455</v>
+        <v>10.5437514700916</v>
       </c>
       <c r="D142" t="n">
-        <v>12.9486560981404</v>
+        <v>11.5637182394027</v>
       </c>
       <c r="E142" t="n">
-        <v>12.9933949217612</v>
+        <v>12.339862879515</v>
       </c>
       <c r="F142" t="n">
-        <v>11.5052646719413</v>
+        <v>12.6666724450631</v>
       </c>
       <c r="G142" t="n">
-        <v>12.4997484265631</v>
+        <v>12.1837640341895</v>
       </c>
       <c r="H142" t="n">
-        <v>12.2766951114537</v>
+        <v>12.7102588372366</v>
       </c>
       <c r="I142" t="n">
-        <v>11.2281811109635</v>
+        <v>12.698214090124</v>
       </c>
       <c r="J142" t="n">
-        <v>11.2876707865037</v>
+        <v>11.3999715584103</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>9.2323410759007</v>
+        <v>9.58084401534686</v>
       </c>
       <c r="B143" t="n">
-        <v>10.8201920361795</v>
+        <v>10.6384114943408</v>
       </c>
       <c r="C143" t="n">
-        <v>12.3183680842622</v>
+        <v>10.7867868085885</v>
       </c>
       <c r="D143" t="n">
-        <v>11.5615493627216</v>
+        <v>11.1765403345535</v>
       </c>
       <c r="E143" t="n">
-        <v>11.8439743844582</v>
+        <v>12.2899862963597</v>
       </c>
       <c r="F143" t="n">
-        <v>11.4336235378357</v>
+        <v>12.9327398790734</v>
       </c>
       <c r="G143" t="n">
-        <v>12.7286114081067</v>
+        <v>12.9809334746822</v>
       </c>
       <c r="H143" t="n">
-        <v>12.890494367363</v>
+        <v>12.1079187163852</v>
       </c>
       <c r="I143" t="n">
-        <v>11.0375496905601</v>
+        <v>11.1516839548562</v>
       </c>
       <c r="J143" t="n">
-        <v>11.1712951059306</v>
+        <v>10.1634605818635</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>9.48578564063646</v>
+        <v>9.66669756167338</v>
       </c>
       <c r="B144" t="n">
-        <v>12.0716384986596</v>
+        <v>10.3899536755002</v>
       </c>
       <c r="C144" t="n">
-        <v>12.1630793257323</v>
+        <v>12.1359269109144</v>
       </c>
       <c r="D144" t="n">
-        <v>12.2534481703663</v>
+        <v>11.986534940916</v>
       </c>
       <c r="E144" t="n">
-        <v>12.7308390255154</v>
+        <v>11.377051673054</v>
       </c>
       <c r="F144" t="n">
-        <v>11.3152118536135</v>
+        <v>12.987335149801</v>
       </c>
       <c r="G144" t="n">
-        <v>12.5235054081685</v>
+        <v>12.1178792085202</v>
       </c>
       <c r="H144" t="n">
-        <v>12.2076964256511</v>
+        <v>12.2851992883992</v>
       </c>
       <c r="I144" t="n">
-        <v>12.3473368385901</v>
+        <v>11.6682057212212</v>
       </c>
       <c r="J144" t="n">
-        <v>10.5000869173278</v>
+        <v>10.1667482862741</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>11.1036534442821</v>
+        <v>-4.93573978041128</v>
       </c>
       <c r="B145" t="n">
-        <v>11.4012788082767</v>
+        <v>-5.44430402231925</v>
       </c>
       <c r="C145" t="n">
-        <v>12.2520868631732</v>
+        <v>-5.3134909239093</v>
       </c>
       <c r="D145" t="n">
-        <v>13.1041741689571</v>
+        <v>-4.80785116488422</v>
       </c>
       <c r="E145" t="n">
-        <v>13.2793518469284</v>
+        <v>-3.86776781854321</v>
       </c>
       <c r="F145" t="n">
-        <v>12.7489426327902</v>
+        <v>-2.27883892616842</v>
       </c>
       <c r="G145" t="n">
-        <v>13.2455332912195</v>
+        <v>-0.709042414418126</v>
       </c>
       <c r="H145" t="n">
-        <v>12.2519895320726</v>
+        <v>1.4781979496648</v>
       </c>
       <c r="I145" t="n">
-        <v>11.6070542574784</v>
+        <v>3.79316355809285</v>
       </c>
       <c r="J145" t="n">
-        <v>10.1530281870948</v>
+        <v>7.04221448813241</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>-5.13467250830774</v>
+        <v>10.4478335872366</v>
       </c>
       <c r="B146" t="n">
-        <v>-5.26235853592844</v>
+        <v>10.4114362385829</v>
       </c>
       <c r="C146" t="n">
-        <v>-4.97418200598563</v>
+        <v>11.8361341119334</v>
       </c>
       <c r="D146" t="n">
-        <v>-4.62235433158771</v>
+        <v>12.0837756275829</v>
       </c>
       <c r="E146" t="n">
-        <v>-3.51340754349843</v>
+        <v>12.2327524933121</v>
       </c>
       <c r="F146" t="n">
-        <v>-2.42435200513991</v>
+        <v>11.3877517417988</v>
       </c>
       <c r="G146" t="n">
-        <v>-0.736750914444941</v>
+        <v>10.1067069984565</v>
       </c>
       <c r="H146" t="n">
-        <v>1.46761640884925</v>
+        <v>11.7094700414412</v>
       </c>
       <c r="I146" t="n">
-        <v>3.75059063431916</v>
+        <v>11.7386869095105</v>
       </c>
       <c r="J146" t="n">
-        <v>6.96824718443765</v>
+        <v>11.2995820588257</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>9.87862406176812</v>
+        <v>-5.04758471584434</v>
       </c>
       <c r="B147" t="n">
-        <v>11.0140310610527</v>
+        <v>-5.21110831908914</v>
       </c>
       <c r="C147" t="n">
-        <v>11.3953716924644</v>
+        <v>-4.82380002249511</v>
       </c>
       <c r="D147" t="n">
-        <v>12.5030827478293</v>
+        <v>-4.8019669834671</v>
       </c>
       <c r="E147" t="n">
-        <v>11.7245763391616</v>
+        <v>-3.4413453840139</v>
       </c>
       <c r="F147" t="n">
-        <v>12.7951132599884</v>
+        <v>-2.186967265805</v>
       </c>
       <c r="G147" t="n">
-        <v>11.3315433963252</v>
+        <v>-1.67498119884995</v>
       </c>
       <c r="H147" t="n">
-        <v>11.8614129092681</v>
+        <v>1.37557898092414</v>
       </c>
       <c r="I147" t="n">
-        <v>11.5413913662351</v>
+        <v>3.59412656656301</v>
       </c>
       <c r="J147" t="n">
-        <v>11.4317032378484</v>
+        <v>6.86301837173338</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>10.505901470562</v>
+        <v>-4.45386056232228</v>
       </c>
       <c r="B148" t="n">
-        <v>10.4350320052506</v>
+        <v>-5.3154209547322</v>
       </c>
       <c r="C148" t="n">
-        <v>11.3045154882432</v>
+        <v>-5.21094813307756</v>
       </c>
       <c r="D148" t="n">
-        <v>12.4490570308091</v>
+        <v>-4.61487463273793</v>
       </c>
       <c r="E148" t="n">
-        <v>11.1515214105498</v>
+        <v>-4.10328537276184</v>
       </c>
       <c r="F148" t="n">
-        <v>12.5109793467766</v>
+        <v>-2.25100478945356</v>
       </c>
       <c r="G148" t="n">
-        <v>11.3972244574238</v>
+        <v>-1.24688637711948</v>
       </c>
       <c r="H148" t="n">
-        <v>12.3202898904162</v>
+        <v>1.66068956608085</v>
       </c>
       <c r="I148" t="n">
-        <v>12.7465429431006</v>
+        <v>3.78049371592819</v>
       </c>
       <c r="J148" t="n">
-        <v>10.273391224318</v>
+        <v>6.90651715663876</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>8.93109807642038</v>
+        <v>9.9577894569684</v>
       </c>
       <c r="B149" t="n">
-        <v>10.8081843150772</v>
+        <v>11.6508962317194</v>
       </c>
       <c r="C149" t="n">
-        <v>12.8072020800542</v>
+        <v>12.4927613542968</v>
       </c>
       <c r="D149" t="n">
-        <v>11.7027525137011</v>
+        <v>11.4140882076856</v>
       </c>
       <c r="E149" t="n">
-        <v>12.9174796975427</v>
+        <v>13.2694458468519</v>
       </c>
       <c r="F149" t="n">
-        <v>13.4235816063419</v>
+        <v>12.1348420170293</v>
       </c>
       <c r="G149" t="n">
-        <v>12.6564408763372</v>
+        <v>12.4594409970126</v>
       </c>
       <c r="H149" t="n">
-        <v>12.0190138430208</v>
+        <v>12.5023962877868</v>
       </c>
       <c r="I149" t="n">
-        <v>10.8022440073642</v>
+        <v>11.492141593832</v>
       </c>
       <c r="J149" t="n">
-        <v>11.1555659394152</v>
+        <v>11.0178416917051</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>9.89005418819714</v>
+        <v>8.81557680088664</v>
       </c>
       <c r="B150" t="n">
-        <v>9.54978455828247</v>
+        <v>10.8444246761271</v>
       </c>
       <c r="C150" t="n">
-        <v>11.8548402236355</v>
+        <v>11.2553825816925</v>
       </c>
       <c r="D150" t="n">
-        <v>12.2025480952382</v>
+        <v>10.7609752994818</v>
       </c>
       <c r="E150" t="n">
-        <v>13.0892238130467</v>
+        <v>12.7964981315665</v>
       </c>
       <c r="F150" t="n">
-        <v>12.4429314552115</v>
+        <v>11.74495476264</v>
       </c>
       <c r="G150" t="n">
-        <v>13.0861277047762</v>
+        <v>11.6674611354537</v>
       </c>
       <c r="H150" t="n">
-        <v>10.9849009338141</v>
+        <v>12.6191929490892</v>
       </c>
       <c r="I150" t="n">
-        <v>13.0494884930345</v>
+        <v>11.0821108253928</v>
       </c>
       <c r="J150" t="n">
-        <v>10.5618991328993</v>
+        <v>10.5055637944681</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>-4.72066556542461</v>
+        <v>9.48055274977941</v>
       </c>
       <c r="B151" t="n">
-        <v>-5.04901317282937</v>
+        <v>11.3345609995675</v>
       </c>
       <c r="C151" t="n">
-        <v>-4.92457993322221</v>
+        <v>11.1114046846418</v>
       </c>
       <c r="D151" t="n">
-        <v>-5.02335157631427</v>
+        <v>12.6655930914393</v>
       </c>
       <c r="E151" t="n">
-        <v>-3.84068750556308</v>
+        <v>11.941334661635</v>
       </c>
       <c r="F151" t="n">
-        <v>-2.22604738400315</v>
+        <v>12.7716088035731</v>
       </c>
       <c r="G151" t="n">
-        <v>-0.836328693383335</v>
+        <v>12.897384738842</v>
       </c>
       <c r="H151" t="n">
-        <v>1.69368550875045</v>
+        <v>11.139438065619</v>
       </c>
       <c r="I151" t="n">
-        <v>3.91802937775206</v>
+        <v>10.6307098280622</v>
       </c>
       <c r="J151" t="n">
-        <v>7.20903168415406</v>
+        <v>12.0972455682154</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>10.3141590889219</v>
+        <v>-5.14281671644605</v>
       </c>
       <c r="B152" t="n">
-        <v>10.1248000333206</v>
+        <v>-5.14237627278671</v>
       </c>
       <c r="C152" t="n">
-        <v>11.9284991231335</v>
+        <v>-5.27447890051868</v>
       </c>
       <c r="D152" t="n">
-        <v>13.1244905843947</v>
+        <v>-4.94712390476603</v>
       </c>
       <c r="E152" t="n">
-        <v>12.5117412887304</v>
+        <v>-3.77532128617887</v>
       </c>
       <c r="F152" t="n">
-        <v>11.8550329672472</v>
+        <v>-2.00944284104157</v>
       </c>
       <c r="G152" t="n">
-        <v>14.1121898104485</v>
+        <v>-0.852114208696393</v>
       </c>
       <c r="H152" t="n">
-        <v>11.6965513712985</v>
+        <v>1.39846252263878</v>
       </c>
       <c r="I152" t="n">
-        <v>12.4470827402573</v>
+        <v>4.08333734249841</v>
       </c>
       <c r="J152" t="n">
-        <v>9.74167491369004</v>
+        <v>6.73295734682048</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>-4.46402788354751</v>
+        <v>-4.67641556197148</v>
       </c>
       <c r="B153" t="n">
-        <v>-4.96062410315534</v>
+        <v>-5.0775575446617</v>
       </c>
       <c r="C153" t="n">
-        <v>-5.15120549036717</v>
+        <v>-5.05883222820118</v>
       </c>
       <c r="D153" t="n">
-        <v>-4.73512486434572</v>
+        <v>-4.55776289541156</v>
       </c>
       <c r="E153" t="n">
-        <v>-3.95170583885487</v>
+        <v>-3.71723216908411</v>
       </c>
       <c r="F153" t="n">
-        <v>-1.98145124512675</v>
+        <v>-2.88281735385049</v>
       </c>
       <c r="G153" t="n">
-        <v>-0.542913414607291</v>
+        <v>-0.548865129197403</v>
       </c>
       <c r="H153" t="n">
-        <v>1.14160732775864</v>
+        <v>1.4251547638783</v>
       </c>
       <c r="I153" t="n">
-        <v>3.15158435211918</v>
+        <v>3.76590043409621</v>
       </c>
       <c r="J153" t="n">
-        <v>6.75592397898455</v>
+        <v>7.0398373752149</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>10.6977944484438</v>
+        <v>-5.17358282431454</v>
       </c>
       <c r="B154" t="n">
-        <v>9.34805586665176</v>
+        <v>-5.02976095966584</v>
       </c>
       <c r="C154" t="n">
-        <v>11.4921765490055</v>
+        <v>-5.41519182732462</v>
       </c>
       <c r="D154" t="n">
-        <v>12.832842027784</v>
+        <v>-4.56808846165216</v>
       </c>
       <c r="E154" t="n">
-        <v>13.4762014562493</v>
+        <v>-3.67828598863496</v>
       </c>
       <c r="F154" t="n">
-        <v>11.6650280296436</v>
+        <v>-2.15226462672294</v>
       </c>
       <c r="G154" t="n">
-        <v>13.2652317143877</v>
+        <v>-1.12757130565916</v>
       </c>
       <c r="H154" t="n">
-        <v>10.7481114429513</v>
+        <v>1.17219643598053</v>
       </c>
       <c r="I154" t="n">
-        <v>10.7571399591416</v>
+        <v>4.0137795249291</v>
       </c>
       <c r="J154" t="n">
-        <v>10.0842934894834</v>
+        <v>6.53992653688799</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>-5.26766468840475</v>
+        <v>9.34072862881005</v>
       </c>
       <c r="B155" t="n">
-        <v>-5.05656985329525</v>
+        <v>11.1588519047452</v>
       </c>
       <c r="C155" t="n">
-        <v>-4.86842130166598</v>
+        <v>11.6730011622642</v>
       </c>
       <c r="D155" t="n">
-        <v>-4.08853611540528</v>
+        <v>12.1606802636237</v>
       </c>
       <c r="E155" t="n">
-        <v>-4.01302520059975</v>
+        <v>14.0476706985503</v>
       </c>
       <c r="F155" t="n">
-        <v>-2.48683416042756</v>
+        <v>12.8364254813151</v>
       </c>
       <c r="G155" t="n">
-        <v>-0.652404971932646</v>
+        <v>13.5026251312903</v>
       </c>
       <c r="H155" t="n">
-        <v>1.32400517116043</v>
+        <v>12.0157256738155</v>
       </c>
       <c r="I155" t="n">
-        <v>3.79658540523854</v>
+        <v>10.8065856118118</v>
       </c>
       <c r="J155" t="n">
-        <v>6.74990867149872</v>
+        <v>10.2365055390988</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>10.3312075060893</v>
+        <v>-4.68665488636623</v>
       </c>
       <c r="B156" t="n">
-        <v>12.0924542139764</v>
+        <v>-5.61033515467885</v>
       </c>
       <c r="C156" t="n">
-        <v>12.279728486858</v>
+        <v>-5.34650725081585</v>
       </c>
       <c r="D156" t="n">
-        <v>11.8424806745315</v>
+        <v>-4.87854081663681</v>
       </c>
       <c r="E156" t="n">
-        <v>11.9178057639739</v>
+        <v>-3.69441499315236</v>
       </c>
       <c r="F156" t="n">
-        <v>11.827217707559</v>
+        <v>-2.65459119764506</v>
       </c>
       <c r="G156" t="n">
-        <v>11.928481251696</v>
+        <v>-0.934086443271806</v>
       </c>
       <c r="H156" t="n">
-        <v>11.7571726414498</v>
+        <v>1.29310861403806</v>
       </c>
       <c r="I156" t="n">
-        <v>10.7527698897469</v>
+        <v>3.35044666860483</v>
       </c>
       <c r="J156" t="n">
-        <v>12.0989290236517</v>
+        <v>6.39022757269294</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>-5.09602238109927</v>
+        <v>9.95282339336605</v>
       </c>
       <c r="B157" t="n">
-        <v>-5.53103795930491</v>
+        <v>11.2556581609571</v>
       </c>
       <c r="C157" t="n">
-        <v>-5.77089857213718</v>
+        <v>12.2783642547107</v>
       </c>
       <c r="D157" t="n">
-        <v>-4.85240678867136</v>
+        <v>13.0418953283609</v>
       </c>
       <c r="E157" t="n">
-        <v>-3.60236724832384</v>
+        <v>11.9770085125037</v>
       </c>
       <c r="F157" t="n">
-        <v>-1.94239653914817</v>
+        <v>13.2793910326236</v>
       </c>
       <c r="G157" t="n">
-        <v>-0.708331522806174</v>
+        <v>12.448677802109</v>
       </c>
       <c r="H157" t="n">
-        <v>1.61629016287291</v>
+        <v>12.7569125324761</v>
       </c>
       <c r="I157" t="n">
-        <v>3.96227901510822</v>
+        <v>11.391411183569</v>
       </c>
       <c r="J157" t="n">
-        <v>7.16431740704905</v>
+        <v>10.4061242861153</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>10.6391964832761</v>
+        <v>10.0832329659628</v>
       </c>
       <c r="B158" t="n">
-        <v>11.6030231141811</v>
+        <v>10.0769525943061</v>
       </c>
       <c r="C158" t="n">
-        <v>11.4391652427423</v>
+        <v>11.3702309749861</v>
       </c>
       <c r="D158" t="n">
-        <v>12.4112605163788</v>
+        <v>12.0207162775991</v>
       </c>
       <c r="E158" t="n">
-        <v>12.7337114488021</v>
+        <v>14.1332098937795</v>
       </c>
       <c r="F158" t="n">
-        <v>13.0627596250564</v>
+        <v>13.5010315763787</v>
       </c>
       <c r="G158" t="n">
-        <v>13.4125716466117</v>
+        <v>11.9541054056893</v>
       </c>
       <c r="H158" t="n">
-        <v>10.7797058969808</v>
+        <v>12.4353642861088</v>
       </c>
       <c r="I158" t="n">
-        <v>11.0372409894322</v>
+        <v>11.7215333754225</v>
       </c>
       <c r="J158" t="n">
-        <v>11.5282494705389</v>
+        <v>11.012625810099</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>10.8784192583266</v>
+        <v>-5.22915558023134</v>
       </c>
       <c r="B159" t="n">
-        <v>11.3424139482707</v>
+        <v>-4.94724582590668</v>
       </c>
       <c r="C159" t="n">
-        <v>10.3767374073024</v>
+        <v>-4.97808823190932</v>
       </c>
       <c r="D159" t="n">
-        <v>11.8231190026901</v>
+        <v>-4.76655170248861</v>
       </c>
       <c r="E159" t="n">
-        <v>11.2016500781465</v>
+        <v>-3.75873224402907</v>
       </c>
       <c r="F159" t="n">
-        <v>13.1275452012202</v>
+        <v>-2.81563477513787</v>
       </c>
       <c r="G159" t="n">
-        <v>12.1510801559806</v>
+        <v>-1.04809207199038</v>
       </c>
       <c r="H159" t="n">
-        <v>12.7511891223971</v>
+        <v>0.890840818680519</v>
       </c>
       <c r="I159" t="n">
-        <v>11.6804246103635</v>
+        <v>3.56060750907304</v>
       </c>
       <c r="J159" t="n">
-        <v>10.8663461131668</v>
+        <v>6.94506981401742</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>9.65596946166524</v>
+        <v>9.40267418650784</v>
       </c>
       <c r="B160" t="n">
-        <v>11.3882204195698</v>
+        <v>11.3308813014612</v>
       </c>
       <c r="C160" t="n">
-        <v>10.3630468541602</v>
+        <v>10.7081027081779</v>
       </c>
       <c r="D160" t="n">
-        <v>12.0884524986256</v>
+        <v>11.5395498742779</v>
       </c>
       <c r="E160" t="n">
-        <v>13.321085455941</v>
+        <v>11.4416238091287</v>
       </c>
       <c r="F160" t="n">
-        <v>13.0629805265747</v>
+        <v>11.8523428064085</v>
       </c>
       <c r="G160" t="n">
-        <v>13.1612395142651</v>
+        <v>12.4627681978973</v>
       </c>
       <c r="H160" t="n">
-        <v>13.7862842031104</v>
+        <v>12.1135309267792</v>
       </c>
       <c r="I160" t="n">
-        <v>12.7255169551706</v>
+        <v>10.0528203731676</v>
       </c>
       <c r="J160" t="n">
-        <v>10.8320942223805</v>
+        <v>11.1474397645633</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>9.260401963938</v>
+        <v>-4.69858096033243</v>
       </c>
       <c r="B161" t="n">
-        <v>11.2002728836737</v>
+        <v>-5.39624043337683</v>
       </c>
       <c r="C161" t="n">
-        <v>12.7403906693805</v>
+        <v>-5.1637876410836</v>
       </c>
       <c r="D161" t="n">
-        <v>13.0747132240232</v>
+        <v>-4.30166355859771</v>
       </c>
       <c r="E161" t="n">
-        <v>11.6540589255991</v>
+        <v>-3.49069989607734</v>
       </c>
       <c r="F161" t="n">
-        <v>13.8251842944912</v>
+        <v>-2.21619718594602</v>
       </c>
       <c r="G161" t="n">
-        <v>11.6162759272211</v>
+        <v>-0.790662972837222</v>
       </c>
       <c r="H161" t="n">
-        <v>10.6362931897471</v>
+        <v>1.37775066913754</v>
       </c>
       <c r="I161" t="n">
-        <v>12.03988695803</v>
+        <v>3.87829891673569</v>
       </c>
       <c r="J161" t="n">
-        <v>11.1389889327204</v>
+        <v>6.62171719676386</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>-5.14592472049958</v>
+        <v>-4.95695108632774</v>
       </c>
       <c r="B162" t="n">
-        <v>-4.82311077050765</v>
+        <v>-5.50852947920077</v>
       </c>
       <c r="C162" t="n">
-        <v>-5.35638453168407</v>
+        <v>-5.46141454477864</v>
       </c>
       <c r="D162" t="n">
-        <v>-4.63705875927573</v>
+        <v>-4.56463096554686</v>
       </c>
       <c r="E162" t="n">
-        <v>-3.58614429556798</v>
+        <v>-3.55891628966824</v>
       </c>
       <c r="F162" t="n">
-        <v>-2.76804187832991</v>
+        <v>-3.0040209812278</v>
       </c>
       <c r="G162" t="n">
-        <v>-1.27720574628254</v>
+        <v>-0.757018111827767</v>
       </c>
       <c r="H162" t="n">
-        <v>1.30248833237576</v>
+        <v>0.894729947266781</v>
       </c>
       <c r="I162" t="n">
-        <v>3.53722778194912</v>
+        <v>3.93306831702343</v>
       </c>
       <c r="J162" t="n">
-        <v>6.68184781042351</v>
+        <v>6.40655625942868</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>10.8310811835559</v>
+        <v>-5.10940818361468</v>
       </c>
       <c r="B163" t="n">
-        <v>12.1673197202493</v>
+        <v>-5.10555093014172</v>
       </c>
       <c r="C163" t="n">
-        <v>11.4826466652661</v>
+        <v>-5.05189252131248</v>
       </c>
       <c r="D163" t="n">
-        <v>9.7062218574254</v>
+        <v>-5.06940618744639</v>
       </c>
       <c r="E163" t="n">
-        <v>11.6797068695533</v>
+        <v>-3.51436851297857</v>
       </c>
       <c r="F163" t="n">
-        <v>13.4203234771886</v>
+        <v>-2.60523792419757</v>
       </c>
       <c r="G163" t="n">
-        <v>12.0175074925261</v>
+        <v>-0.615969094953448</v>
       </c>
       <c r="H163" t="n">
-        <v>13.2577179572833</v>
+        <v>1.44706359602251</v>
       </c>
       <c r="I163" t="n">
-        <v>11.20103298398</v>
+        <v>3.49508451229791</v>
       </c>
       <c r="J163" t="n">
-        <v>11.4710188948449</v>
+        <v>6.69390478309227</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>9.60609149362657</v>
+        <v>9.15702716539262</v>
       </c>
       <c r="B164" t="n">
-        <v>10.8352649699392</v>
+        <v>9.69839339681969</v>
       </c>
       <c r="C164" t="n">
-        <v>11.212961199131</v>
+        <v>11.6973588830276</v>
       </c>
       <c r="D164" t="n">
-        <v>11.4289908064448</v>
+        <v>11.154235386754</v>
       </c>
       <c r="E164" t="n">
-        <v>13.0728022041909</v>
+        <v>11.6113860030437</v>
       </c>
       <c r="F164" t="n">
-        <v>13.1461621047673</v>
+        <v>11.5224942626571</v>
       </c>
       <c r="G164" t="n">
-        <v>11.8672112749051</v>
+        <v>12.0472755611871</v>
       </c>
       <c r="H164" t="n">
-        <v>11.2336454906927</v>
+        <v>11.8529664412488</v>
       </c>
       <c r="I164" t="n">
-        <v>11.3777144175142</v>
+        <v>12.2815094582788</v>
       </c>
       <c r="J164" t="n">
-        <v>9.94538213525649</v>
+        <v>10.6683361920668</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>10.3561168562636</v>
+        <v>11.0670887486183</v>
       </c>
       <c r="B165" t="n">
-        <v>10.1340658840735</v>
+        <v>9.42836340866068</v>
       </c>
       <c r="C165" t="n">
-        <v>12.5184591923539</v>
+        <v>13.2383015170787</v>
       </c>
       <c r="D165" t="n">
-        <v>10.879217380558</v>
+        <v>12.0204421704221</v>
       </c>
       <c r="E165" t="n">
-        <v>11.9503320873764</v>
+        <v>13.3028346050223</v>
       </c>
       <c r="F165" t="n">
-        <v>13.1884747554725</v>
+        <v>11.9600204627383</v>
       </c>
       <c r="G165" t="n">
-        <v>12.2943714279621</v>
+        <v>12.3951089347205</v>
       </c>
       <c r="H165" t="n">
-        <v>13.2941161511995</v>
+        <v>13.0073055829357</v>
       </c>
       <c r="I165" t="n">
-        <v>12.1735879782876</v>
+        <v>12.3241862324991</v>
       </c>
       <c r="J165" t="n">
-        <v>12.1754191534088</v>
+        <v>10.9470108338753</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>11.2450418969732</v>
+        <v>10.0948338981266</v>
       </c>
       <c r="B166" t="n">
-        <v>10.8240589255313</v>
+        <v>10.1091796349903</v>
       </c>
       <c r="C166" t="n">
-        <v>11.952325805589</v>
+        <v>11.490917493277</v>
       </c>
       <c r="D166" t="n">
-        <v>11.1638050456623</v>
+        <v>12.3905233961395</v>
       </c>
       <c r="E166" t="n">
-        <v>12.5675766887524</v>
+        <v>13.9640360599838</v>
       </c>
       <c r="F166" t="n">
-        <v>11.5770894252198</v>
+        <v>11.3824501122461</v>
       </c>
       <c r="G166" t="n">
-        <v>13.0783297382162</v>
+        <v>13.0705055656308</v>
       </c>
       <c r="H166" t="n">
-        <v>12.1237394047145</v>
+        <v>11.6724538016306</v>
       </c>
       <c r="I166" t="n">
-        <v>10.9271122974142</v>
+        <v>11.4744210698851</v>
       </c>
       <c r="J166" t="n">
-        <v>11.4893531681146</v>
+        <v>10.0071218984528</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>9.48928536295546</v>
+        <v>9.44385282515096</v>
       </c>
       <c r="B167" t="n">
-        <v>10.6183111373531</v>
+        <v>11.4412135974447</v>
       </c>
       <c r="C167" t="n">
-        <v>10.8510843557138</v>
+        <v>10.5931295175391</v>
       </c>
       <c r="D167" t="n">
-        <v>11.5857289653499</v>
+        <v>12.0346609043673</v>
       </c>
       <c r="E167" t="n">
-        <v>9.25263417679735</v>
+        <v>11.9848143693037</v>
       </c>
       <c r="F167" t="n">
-        <v>11.9322786658012</v>
+        <v>10.7576730682552</v>
       </c>
       <c r="G167" t="n">
-        <v>13.6273223984828</v>
+        <v>12.5225429447916</v>
       </c>
       <c r="H167" t="n">
-        <v>12.836016033415</v>
+        <v>11.9149418314356</v>
       </c>
       <c r="I167" t="n">
-        <v>11.2620521006156</v>
+        <v>10.4678070267759</v>
       </c>
       <c r="J167" t="n">
-        <v>11.3250049021655</v>
+        <v>11.2971010172217</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>-4.85036506126959</v>
+        <v>-4.97840600289681</v>
       </c>
       <c r="B168" t="n">
-        <v>-5.58343290282169</v>
+        <v>-5.45876285420385</v>
       </c>
       <c r="C168" t="n">
-        <v>-5.55640397874354</v>
+        <v>-4.89206777119897</v>
       </c>
       <c r="D168" t="n">
-        <v>-4.57878130383631</v>
+        <v>-5.00888682070787</v>
       </c>
       <c r="E168" t="n">
-        <v>-3.82373351127241</v>
+        <v>-3.86495305330672</v>
       </c>
       <c r="F168" t="n">
-        <v>-2.82229419305159</v>
+        <v>-2.56689265319731</v>
       </c>
       <c r="G168" t="n">
-        <v>-0.901754482881839</v>
+        <v>-0.497430432487576</v>
       </c>
       <c r="H168" t="n">
-        <v>1.27992251956492</v>
+        <v>1.67265864365711</v>
       </c>
       <c r="I168" t="n">
-        <v>3.73817883069348</v>
+        <v>3.51672652785816</v>
       </c>
       <c r="J168" t="n">
-        <v>7.18451291179637</v>
+        <v>6.36289689524883</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>10.0877568031243</v>
+        <v>-4.77066227496734</v>
       </c>
       <c r="B169" t="n">
-        <v>11.8225001197579</v>
+        <v>-5.40022836296147</v>
       </c>
       <c r="C169" t="n">
-        <v>11.1113312109666</v>
+        <v>-4.81470666189739</v>
       </c>
       <c r="D169" t="n">
-        <v>11.77234008051</v>
+        <v>-5.03314700684896</v>
       </c>
       <c r="E169" t="n">
-        <v>12.9317089005162</v>
+        <v>-4.21910497335184</v>
       </c>
       <c r="F169" t="n">
-        <v>13.5804358620218</v>
+        <v>-2.49397022590223</v>
       </c>
       <c r="G169" t="n">
-        <v>11.3612025784955</v>
+        <v>-0.870831882074253</v>
       </c>
       <c r="H169" t="n">
-        <v>12.2466546806815</v>
+        <v>1.22259859226502</v>
       </c>
       <c r="I169" t="n">
-        <v>11.8096782507603</v>
+        <v>3.77390806507964</v>
       </c>
       <c r="J169" t="n">
-        <v>10.4792753835484</v>
+        <v>6.36353396594932</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>10.6734594157708</v>
+        <v>9.72564858292176</v>
       </c>
       <c r="B170" t="n">
-        <v>11.1042415511247</v>
+        <v>9.55919253119846</v>
       </c>
       <c r="C170" t="n">
-        <v>11.7659405361773</v>
+        <v>10.8958466639357</v>
       </c>
       <c r="D170" t="n">
-        <v>11.6105712859219</v>
+        <v>12.6034176360373</v>
       </c>
       <c r="E170" t="n">
-        <v>13.4792563226594</v>
+        <v>12.092349564877</v>
       </c>
       <c r="F170" t="n">
-        <v>11.5349817734607</v>
+        <v>11.8878066701212</v>
       </c>
       <c r="G170" t="n">
-        <v>12.44253598923</v>
+        <v>10.2132377149126</v>
       </c>
       <c r="H170" t="n">
-        <v>12.9035033938638</v>
+        <v>12.1542091787152</v>
       </c>
       <c r="I170" t="n">
-        <v>11.8098021631628</v>
+        <v>11.8545899528728</v>
       </c>
       <c r="J170" t="n">
-        <v>10.187306921332</v>
+        <v>10.3490560758104</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>9.82292662427364</v>
+        <v>-4.52183522572042</v>
       </c>
       <c r="B171" t="n">
-        <v>9.5302587002601</v>
+        <v>-5.40315886372105</v>
       </c>
       <c r="C171" t="n">
-        <v>12.140052939008</v>
+        <v>-5.02542020326311</v>
       </c>
       <c r="D171" t="n">
-        <v>10.9217916679403</v>
+        <v>-4.73147544911423</v>
       </c>
       <c r="E171" t="n">
-        <v>12.7821911282288</v>
+        <v>-3.93101309878805</v>
       </c>
       <c r="F171" t="n">
-        <v>11.9543267999117</v>
+        <v>-2.8885730870016</v>
       </c>
       <c r="G171" t="n">
-        <v>12.9817891846545</v>
+        <v>-0.84482096699454</v>
       </c>
       <c r="H171" t="n">
-        <v>11.9410851478787</v>
+        <v>1.07115247662345</v>
       </c>
       <c r="I171" t="n">
-        <v>11.9192538119556</v>
+        <v>3.81574417840907</v>
       </c>
       <c r="J171" t="n">
-        <v>12.3524897704035</v>
+        <v>6.51859135239213</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>-4.70152840038894</v>
+        <v>-5.03299013133255</v>
       </c>
       <c r="B172" t="n">
-        <v>-5.2051764130502</v>
+        <v>-5.18154155847811</v>
       </c>
       <c r="C172" t="n">
-        <v>-5.60661548806031</v>
+        <v>-5.17086816112698</v>
       </c>
       <c r="D172" t="n">
-        <v>-4.59209085054656</v>
+        <v>-4.35651126623294</v>
       </c>
       <c r="E172" t="n">
-        <v>-3.91997908379532</v>
+        <v>-3.48380233865013</v>
       </c>
       <c r="F172" t="n">
-        <v>-2.31343046873959</v>
+        <v>-2.58250511393309</v>
       </c>
       <c r="G172" t="n">
-        <v>-0.852534983447179</v>
+        <v>-0.182263825658339</v>
       </c>
       <c r="H172" t="n">
-        <v>1.17195246037105</v>
+        <v>0.981659881611176</v>
       </c>
       <c r="I172" t="n">
-        <v>4.05734655690948</v>
+        <v>3.9449280640994</v>
       </c>
       <c r="J172" t="n">
-        <v>6.66445348397135</v>
+        <v>6.57858942415942</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>10.1568201099503</v>
+        <v>10.2732325043183</v>
       </c>
       <c r="B173" t="n">
-        <v>10.3444689015425</v>
+        <v>10.5370392125298</v>
       </c>
       <c r="C173" t="n">
-        <v>9.67815845693249</v>
+        <v>11.1521854294532</v>
       </c>
       <c r="D173" t="n">
-        <v>11.1853011382791</v>
+        <v>12.0954660979583</v>
       </c>
       <c r="E173" t="n">
-        <v>12.3887165299454</v>
+        <v>11.947147804674</v>
       </c>
       <c r="F173" t="n">
-        <v>15.2772325905841</v>
+        <v>12.0088079769218</v>
       </c>
       <c r="G173" t="n">
-        <v>13.3985831638211</v>
+        <v>12.2841790884445</v>
       </c>
       <c r="H173" t="n">
-        <v>13.2821608210072</v>
+        <v>11.8705870796295</v>
       </c>
       <c r="I173" t="n">
-        <v>12.4502734122742</v>
+        <v>12.1142498522434</v>
       </c>
       <c r="J173" t="n">
-        <v>11.2488189366419</v>
+        <v>10.5987819983362</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>-5.04432770555121</v>
+        <v>-5.30838789810752</v>
       </c>
       <c r="B174" t="n">
-        <v>-5.29269150801245</v>
+        <v>-5.36939316316583</v>
       </c>
       <c r="C174" t="n">
-        <v>-5.4255864559153</v>
+        <v>-4.84094458108794</v>
       </c>
       <c r="D174" t="n">
-        <v>-4.46951003404528</v>
+        <v>-4.71378148873255</v>
       </c>
       <c r="E174" t="n">
-        <v>-3.85537910826228</v>
+        <v>-3.45316165396212</v>
       </c>
       <c r="F174" t="n">
-        <v>-2.51299033343809</v>
+        <v>-2.56875223965015</v>
       </c>
       <c r="G174" t="n">
-        <v>-0.588967648019334</v>
+        <v>-0.710571186530825</v>
       </c>
       <c r="H174" t="n">
-        <v>0.993659445350957</v>
+        <v>1.21116769040321</v>
       </c>
       <c r="I174" t="n">
-        <v>3.99898894800527</v>
+        <v>3.71893016116093</v>
       </c>
       <c r="J174" t="n">
-        <v>6.76517517493975</v>
+        <v>6.29429547425007</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>9.30599274580003</v>
+        <v>10.5935955350732</v>
       </c>
       <c r="B175" t="n">
-        <v>10.5002376012398</v>
+        <v>10.6197870677498</v>
       </c>
       <c r="C175" t="n">
-        <v>11.5459781355844</v>
+        <v>11.6839100009101</v>
       </c>
       <c r="D175" t="n">
-        <v>12.0796717104963</v>
+        <v>11.0580242783182</v>
       </c>
       <c r="E175" t="n">
-        <v>11.9412591384052</v>
+        <v>12.2529649895494</v>
       </c>
       <c r="F175" t="n">
-        <v>11.9309150568481</v>
+        <v>12.2851713257918</v>
       </c>
       <c r="G175" t="n">
-        <v>11.993184407391</v>
+        <v>13.1763045565251</v>
       </c>
       <c r="H175" t="n">
-        <v>12.1941572939563</v>
+        <v>12.6355697939933</v>
       </c>
       <c r="I175" t="n">
-        <v>12.3877187334429</v>
+        <v>11.5275575737532</v>
       </c>
       <c r="J175" t="n">
-        <v>10.8476572920167</v>
+        <v>10.5694223877511</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>9.70028228784865</v>
+        <v>10.3358586790018</v>
       </c>
       <c r="B176" t="n">
-        <v>11.8415306576262</v>
+        <v>10.5282766368067</v>
       </c>
       <c r="C176" t="n">
-        <v>11.6743617769391</v>
+        <v>11.7311402114621</v>
       </c>
       <c r="D176" t="n">
-        <v>11.2533302257304</v>
+        <v>12.9677718851684</v>
       </c>
       <c r="E176" t="n">
-        <v>11.2572670744207</v>
+        <v>12.3691618622774</v>
       </c>
       <c r="F176" t="n">
-        <v>11.8418589562682</v>
+        <v>14.3683318297686</v>
       </c>
       <c r="G176" t="n">
-        <v>12.1985416980634</v>
+        <v>12.7820723925206</v>
       </c>
       <c r="H176" t="n">
-        <v>12.9779254704582</v>
+        <v>12.9439367216976</v>
       </c>
       <c r="I176" t="n">
-        <v>13.2647289590271</v>
+        <v>12.0096694184255</v>
       </c>
       <c r="J176" t="n">
-        <v>10.1117351177164</v>
+        <v>11.7101704026668</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>-4.98511408017268</v>
+        <v>10.2711159682775</v>
       </c>
       <c r="B177" t="n">
-        <v>-5.46951563716466</v>
+        <v>11.052802684134</v>
       </c>
       <c r="C177" t="n">
-        <v>-5.13186543434519</v>
+        <v>11.1913731416337</v>
       </c>
       <c r="D177" t="n">
-        <v>-4.79107902196719</v>
+        <v>13.0647847143919</v>
       </c>
       <c r="E177" t="n">
-        <v>-4.09528203866981</v>
+        <v>13.1931162073625</v>
       </c>
       <c r="F177" t="n">
-        <v>-2.30839144861903</v>
+        <v>14.1617991626759</v>
       </c>
       <c r="G177" t="n">
-        <v>-0.955649342028748</v>
+        <v>12.3608986359191</v>
       </c>
       <c r="H177" t="n">
-        <v>1.11496239631507</v>
+        <v>12.8137322242372</v>
       </c>
       <c r="I177" t="n">
-        <v>4.14249432413464</v>
+        <v>10.3584569097095</v>
       </c>
       <c r="J177" t="n">
-        <v>6.26738900644706</v>
+        <v>10.6853108684015</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>11.9147243286225</v>
+        <v>9.9777887328913</v>
       </c>
       <c r="B178" t="n">
-        <v>10.5866349614482</v>
+        <v>10.6819308646536</v>
       </c>
       <c r="C178" t="n">
-        <v>11.591176943689</v>
+        <v>12.3394123489427</v>
       </c>
       <c r="D178" t="n">
-        <v>11.9251265260632</v>
+        <v>12.3294495395603</v>
       </c>
       <c r="E178" t="n">
-        <v>12.3860808767146</v>
+        <v>12.5420949941952</v>
       </c>
       <c r="F178" t="n">
-        <v>13.4668430196493</v>
+        <v>12.4434242271468</v>
       </c>
       <c r="G178" t="n">
-        <v>11.2153116086485</v>
+        <v>12.8211791699496</v>
       </c>
       <c r="H178" t="n">
-        <v>12.2220966226663</v>
+        <v>11.7559817718761</v>
       </c>
       <c r="I178" t="n">
-        <v>11.5328062480492</v>
+        <v>11.8174581719396</v>
       </c>
       <c r="J178" t="n">
-        <v>10.8783938830817</v>
+        <v>12.2842920297569</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>11.7627895390545</v>
+        <v>10.1705758304276</v>
       </c>
       <c r="B179" t="n">
-        <v>11.5821854765644</v>
+        <v>10.1667453894955</v>
       </c>
       <c r="C179" t="n">
-        <v>12.0065601642554</v>
+        <v>11.842547228614</v>
       </c>
       <c r="D179" t="n">
-        <v>10.9446895639053</v>
+        <v>12.2960846038341</v>
       </c>
       <c r="E179" t="n">
-        <v>12.0374291099117</v>
+        <v>11.8091077158268</v>
       </c>
       <c r="F179" t="n">
-        <v>12.4660705748113</v>
+        <v>12.5560773804381</v>
       </c>
       <c r="G179" t="n">
-        <v>12.0945139446089</v>
+        <v>13.5347881958239</v>
       </c>
       <c r="H179" t="n">
-        <v>12.8877450860725</v>
+        <v>11.7231045662352</v>
       </c>
       <c r="I179" t="n">
-        <v>11.991349712381</v>
+        <v>12.2374765012674</v>
       </c>
       <c r="J179" t="n">
-        <v>12.0706833513478</v>
+        <v>9.87092044338237</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>-5.38083840689307</v>
+        <v>9.92529705920293</v>
       </c>
       <c r="B180" t="n">
-        <v>-5.48892064436652</v>
+        <v>11.0972102387924</v>
       </c>
       <c r="C180" t="n">
-        <v>-4.95931467441295</v>
+        <v>11.904497680881</v>
       </c>
       <c r="D180" t="n">
-        <v>-4.7138615476955</v>
+        <v>11.8376059730468</v>
       </c>
       <c r="E180" t="n">
-        <v>-3.3604959939518</v>
+        <v>12.8348949859998</v>
       </c>
       <c r="F180" t="n">
-        <v>-2.57087220891457</v>
+        <v>12.1619570111499</v>
       </c>
       <c r="G180" t="n">
-        <v>-0.898563599116776</v>
+        <v>12.4230301423744</v>
       </c>
       <c r="H180" t="n">
-        <v>1.21284623108349</v>
+        <v>11.876470357618</v>
       </c>
       <c r="I180" t="n">
-        <v>3.36384417621111</v>
+        <v>12.2352638105772</v>
       </c>
       <c r="J180" t="n">
-        <v>6.40241207392552</v>
+        <v>11.1907137067206</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>-5.13556519492867</v>
+        <v>9.3610033406629</v>
       </c>
       <c r="B181" t="n">
-        <v>-5.38936475924058</v>
+        <v>10.8093277047879</v>
       </c>
       <c r="C181" t="n">
-        <v>-5.33749824266225</v>
+        <v>11.3825536731209</v>
       </c>
       <c r="D181" t="n">
-        <v>-4.89154081896614</v>
+        <v>11.7424176083122</v>
       </c>
       <c r="E181" t="n">
-        <v>-4.08810652112596</v>
+        <v>13.1021374852884</v>
       </c>
       <c r="F181" t="n">
-        <v>-2.98537828874587</v>
+        <v>13.5796496697195</v>
       </c>
       <c r="G181" t="n">
-        <v>-0.513847012150568</v>
+        <v>11.1690077651099</v>
       </c>
       <c r="H181" t="n">
-        <v>1.49705677192289</v>
+        <v>12.7547890158892</v>
       </c>
       <c r="I181" t="n">
-        <v>3.61175005714571</v>
+        <v>11.5086182635261</v>
       </c>
       <c r="J181" t="n">
-        <v>7.08807164978363</v>
+        <v>11.5705754321901</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>10.111040843285</v>
+        <v>-5.10306067597536</v>
       </c>
       <c r="B182" t="n">
-        <v>11.1984620930349</v>
+        <v>-5.12820616243613</v>
       </c>
       <c r="C182" t="n">
-        <v>9.85168018497279</v>
+        <v>-5.33384529591294</v>
       </c>
       <c r="D182" t="n">
-        <v>12.1578033177465</v>
+        <v>-4.65527828819333</v>
       </c>
       <c r="E182" t="n">
-        <v>13.2608908869643</v>
+        <v>-3.46629139637752</v>
       </c>
       <c r="F182" t="n">
-        <v>12.5932601561301</v>
+        <v>-2.21992812478089</v>
       </c>
       <c r="G182" t="n">
-        <v>11.2795506222546</v>
+        <v>-1.03041627845996</v>
       </c>
       <c r="H182" t="n">
-        <v>12.7832382557702</v>
+        <v>1.3995326896173</v>
       </c>
       <c r="I182" t="n">
-        <v>11.1454101842638</v>
+        <v>4.12183200527367</v>
       </c>
       <c r="J182" t="n">
-        <v>11.85251748824</v>
+        <v>7.02226566805244</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>-4.90882818668554</v>
+        <v>11.1177357180492</v>
       </c>
       <c r="B183" t="n">
-        <v>-5.53039321001048</v>
+        <v>11.7609959091022</v>
       </c>
       <c r="C183" t="n">
-        <v>-4.9664409728503</v>
+        <v>12.5379275536924</v>
       </c>
       <c r="D183" t="n">
-        <v>-4.72968021950553</v>
+        <v>11.982485326134</v>
       </c>
       <c r="E183" t="n">
-        <v>-3.96106203874299</v>
+        <v>12.3038763618374</v>
       </c>
       <c r="F183" t="n">
-        <v>-2.07723249465467</v>
+        <v>12.5767275829292</v>
       </c>
       <c r="G183" t="n">
-        <v>-0.986966687107688</v>
+        <v>11.7046996536315</v>
       </c>
       <c r="H183" t="n">
-        <v>1.5829536509385</v>
+        <v>11.3230477000769</v>
       </c>
       <c r="I183" t="n">
-        <v>3.26820628657129</v>
+        <v>12.608263773146</v>
       </c>
       <c r="J183" t="n">
-        <v>6.51055174441944</v>
+        <v>11.0431594269252</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>9.60980241912076</v>
+        <v>-5.34895061352991</v>
       </c>
       <c r="B184" t="n">
-        <v>10.891435049598</v>
+        <v>-4.8600683848519</v>
       </c>
       <c r="C184" t="n">
-        <v>11.3127212378166</v>
+        <v>-5.21227936606557</v>
       </c>
       <c r="D184" t="n">
-        <v>12.108532856671</v>
+        <v>-4.99776692448111</v>
       </c>
       <c r="E184" t="n">
-        <v>12.46618251841</v>
+        <v>-3.84518247058356</v>
       </c>
       <c r="F184" t="n">
-        <v>12.4869763121265</v>
+        <v>-2.47496222940378</v>
       </c>
       <c r="G184" t="n">
-        <v>12.5690054550038</v>
+        <v>-0.944188966697137</v>
       </c>
       <c r="H184" t="n">
-        <v>12.7707994222558</v>
+        <v>1.5162258991506</v>
       </c>
       <c r="I184" t="n">
-        <v>10.8872249661295</v>
+        <v>3.74160894526658</v>
       </c>
       <c r="J184" t="n">
-        <v>11.1501036499938</v>
+        <v>6.65637188608963</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>10.7323324389947</v>
+        <v>-4.8780659849441</v>
       </c>
       <c r="B185" t="n">
-        <v>9.89836694784382</v>
+        <v>-5.71538398272196</v>
       </c>
       <c r="C185" t="n">
-        <v>12.2507292079173</v>
+        <v>-5.35600080637678</v>
       </c>
       <c r="D185" t="n">
-        <v>11.7575712101237</v>
+        <v>-4.47891016994387</v>
       </c>
       <c r="E185" t="n">
-        <v>11.0444967094917</v>
+        <v>-4.01059087565894</v>
       </c>
       <c r="F185" t="n">
-        <v>12.6200131951849</v>
+        <v>-2.19846582076279</v>
       </c>
       <c r="G185" t="n">
-        <v>12.0068071312739</v>
+        <v>-0.819239646258667</v>
       </c>
       <c r="H185" t="n">
-        <v>11.8757879112498</v>
+        <v>1.85759771278788</v>
       </c>
       <c r="I185" t="n">
-        <v>11.7158691401113</v>
+        <v>3.67604299004374</v>
       </c>
       <c r="J185" t="n">
-        <v>11.4316859406383</v>
+        <v>6.673529103958</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>-5.30377951380658</v>
+        <v>8.34993261266522</v>
       </c>
       <c r="B186" t="n">
-        <v>-5.38409313531535</v>
+        <v>10.8344417852331</v>
       </c>
       <c r="C186" t="n">
-        <v>-5.23093779866554</v>
+        <v>10.6015094675137</v>
       </c>
       <c r="D186" t="n">
-        <v>-4.76223853472209</v>
+        <v>10.1071270855732</v>
       </c>
       <c r="E186" t="n">
-        <v>-3.8244402062259</v>
+        <v>11.8775135874946</v>
       </c>
       <c r="F186" t="n">
-        <v>-2.30534777869747</v>
+        <v>12.5326671595583</v>
       </c>
       <c r="G186" t="n">
-        <v>-0.952305102980009</v>
+        <v>12.5794602006498</v>
       </c>
       <c r="H186" t="n">
-        <v>1.12606168073913</v>
+        <v>11.7049584289158</v>
       </c>
       <c r="I186" t="n">
-        <v>3.92507259656159</v>
+        <v>11.4085779367455</v>
       </c>
       <c r="J186" t="n">
-        <v>6.72338868990919</v>
+        <v>10.330440700767</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>-5.07347661290803</v>
+        <v>10.5342208436807</v>
       </c>
       <c r="B187" t="n">
-        <v>-5.06452950650873</v>
+        <v>11.5961139438997</v>
       </c>
       <c r="C187" t="n">
-        <v>-4.76487601388146</v>
+        <v>11.1527704969193</v>
       </c>
       <c r="D187" t="n">
-        <v>-4.87275261250628</v>
+        <v>12.0124765055999</v>
       </c>
       <c r="E187" t="n">
-        <v>-3.93486001483823</v>
+        <v>11.8503045965092</v>
       </c>
       <c r="F187" t="n">
-        <v>-2.62612924097487</v>
+        <v>13.3564479708678</v>
       </c>
       <c r="G187" t="n">
-        <v>-0.657913676323699</v>
+        <v>12.5804887366784</v>
       </c>
       <c r="H187" t="n">
-        <v>1.88571821035722</v>
+        <v>10.4170877179042</v>
       </c>
       <c r="I187" t="n">
-        <v>3.96248365953793</v>
+        <v>11.4451290016126</v>
       </c>
       <c r="J187" t="n">
-        <v>6.51193323881906</v>
+        <v>10.1308444630802</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>9.81901660117445</v>
+        <v>12.273360507949</v>
       </c>
       <c r="B188" t="n">
-        <v>10.7685718318722</v>
+        <v>9.9776151314454</v>
       </c>
       <c r="C188" t="n">
-        <v>11.7325435706618</v>
+        <v>11.2712470707261</v>
       </c>
       <c r="D188" t="n">
-        <v>11.2342153754347</v>
+        <v>11.0656640997084</v>
       </c>
       <c r="E188" t="n">
-        <v>13.3264716902433</v>
+        <v>12.8175171968727</v>
       </c>
       <c r="F188" t="n">
-        <v>14.5303226777172</v>
+        <v>12.9571563100324</v>
       </c>
       <c r="G188" t="n">
-        <v>13.2269799870349</v>
+        <v>12.3829578521229</v>
       </c>
       <c r="H188" t="n">
-        <v>12.1990385517932</v>
+        <v>10.4165566959345</v>
       </c>
       <c r="I188" t="n">
-        <v>11.4282709608769</v>
+        <v>11.58580686373</v>
       </c>
       <c r="J188" t="n">
-        <v>10.9526491372284</v>
+        <v>10.5203156165692</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>-4.61500827393066</v>
+        <v>9.23804404477027</v>
       </c>
       <c r="B189" t="n">
-        <v>-5.51673784812736</v>
+        <v>11.6333564648749</v>
       </c>
       <c r="C189" t="n">
-        <v>-5.21028669666798</v>
+        <v>12.152954802626</v>
       </c>
       <c r="D189" t="n">
-        <v>-4.63300368614378</v>
+        <v>11.7538219428139</v>
       </c>
       <c r="E189" t="n">
-        <v>-3.64271752011685</v>
+        <v>11.649586363044</v>
       </c>
       <c r="F189" t="n">
-        <v>-2.23410804284442</v>
+        <v>11.6421356291606</v>
       </c>
       <c r="G189" t="n">
-        <v>-0.371423924785408</v>
+        <v>12.5554794095343</v>
       </c>
       <c r="H189" t="n">
-        <v>1.36728268068352</v>
+        <v>10.9678782161222</v>
       </c>
       <c r="I189" t="n">
-        <v>3.56232070970657</v>
+        <v>11.5248655864685</v>
       </c>
       <c r="J189" t="n">
-        <v>6.93778198748691</v>
+        <v>11.3572931025721</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>9.41727511889023</v>
+        <v>9.51273369888906</v>
       </c>
       <c r="B190" t="n">
-        <v>11.36033664642</v>
+        <v>11.5733783678956</v>
       </c>
       <c r="C190" t="n">
-        <v>11.4347996234582</v>
+        <v>10.9591696795134</v>
       </c>
       <c r="D190" t="n">
-        <v>11.8709551115114</v>
+        <v>12.9445596726652</v>
       </c>
       <c r="E190" t="n">
-        <v>11.2151232804739</v>
+        <v>11.8436947578083</v>
       </c>
       <c r="F190" t="n">
-        <v>11.8622957729923</v>
+        <v>12.0594954662966</v>
       </c>
       <c r="G190" t="n">
-        <v>13.1804172834381</v>
+        <v>12.4799114179215</v>
       </c>
       <c r="H190" t="n">
-        <v>13.2545987824453</v>
+        <v>11.5311240036927</v>
       </c>
       <c r="I190" t="n">
-        <v>12.4803070436784</v>
+        <v>11.2242747454435</v>
       </c>
       <c r="J190" t="n">
-        <v>9.90780892344085</v>
+        <v>10.6452761103635</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>8.47599346884334</v>
+        <v>8.75636968915853</v>
       </c>
       <c r="B191" t="n">
-        <v>10.4069329437244</v>
+        <v>11.1327972931275</v>
       </c>
       <c r="C191" t="n">
-        <v>11.3426299012963</v>
+        <v>10.5715925214155</v>
       </c>
       <c r="D191" t="n">
-        <v>11.1099924961758</v>
+        <v>11.9915181589054</v>
       </c>
       <c r="E191" t="n">
-        <v>11.2744916801803</v>
+        <v>12.0922763988784</v>
       </c>
       <c r="F191" t="n">
-        <v>12.342594343654</v>
+        <v>11.8768540650027</v>
       </c>
       <c r="G191" t="n">
-        <v>12.302340845463</v>
+        <v>11.5422873480768</v>
       </c>
       <c r="H191" t="n">
-        <v>11.5303461204485</v>
+        <v>11.5163402288976</v>
       </c>
       <c r="I191" t="n">
-        <v>10.3596882449139</v>
+        <v>12.498738399756</v>
       </c>
       <c r="J191" t="n">
-        <v>11.1270946792437</v>
+        <v>10.7156216359737</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>-5.12312407089582</v>
+        <v>9.95459380000902</v>
       </c>
       <c r="B192" t="n">
-        <v>-5.0613105153921</v>
+        <v>12.737406863158</v>
       </c>
       <c r="C192" t="n">
-        <v>-5.36122603932807</v>
+        <v>11.7130281527155</v>
       </c>
       <c r="D192" t="n">
-        <v>-4.79850991222224</v>
+        <v>11.578288068689</v>
       </c>
       <c r="E192" t="n">
-        <v>-3.57966806630502</v>
+        <v>12.576234901199</v>
       </c>
       <c r="F192" t="n">
-        <v>-2.09229575538657</v>
+        <v>12.8599204605089</v>
       </c>
       <c r="G192" t="n">
-        <v>-1.19999827834415</v>
+        <v>12.2215979316521</v>
       </c>
       <c r="H192" t="n">
-        <v>1.18101651891645</v>
+        <v>11.4259229484717</v>
       </c>
       <c r="I192" t="n">
-        <v>3.94155510564957</v>
+        <v>11.1195707786017</v>
       </c>
       <c r="J192" t="n">
-        <v>7.0220004992357</v>
+        <v>10.7352632032713</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>10.6070902692238</v>
+        <v>-5.18084379982457</v>
       </c>
       <c r="B193" t="n">
-        <v>11.3157129953071</v>
+        <v>-5.31355107373283</v>
       </c>
       <c r="C193" t="n">
-        <v>11.0945251328503</v>
+        <v>-5.67574391406619</v>
       </c>
       <c r="D193" t="n">
-        <v>10.761640901926</v>
+        <v>-5.10557991743243</v>
       </c>
       <c r="E193" t="n">
-        <v>12.5287560385115</v>
+        <v>-3.74054662468631</v>
       </c>
       <c r="F193" t="n">
-        <v>12.593458670535</v>
+        <v>-2.50317011111964</v>
       </c>
       <c r="G193" t="n">
-        <v>13.0339821397465</v>
+        <v>-0.925154777232125</v>
       </c>
       <c r="H193" t="n">
-        <v>11.0135354212793</v>
+        <v>1.34487638963432</v>
       </c>
       <c r="I193" t="n">
-        <v>12.246648798472</v>
+        <v>3.84475467535822</v>
       </c>
       <c r="J193" t="n">
-        <v>10.3426043512184</v>
+        <v>6.88395705766079</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>-5.02725058318172</v>
+        <v>-5.18419002969167</v>
       </c>
       <c r="B194" t="n">
-        <v>-5.57168638472428</v>
+        <v>-5.28988570590442</v>
       </c>
       <c r="C194" t="n">
-        <v>-4.90868086284332</v>
+        <v>-5.27953003540767</v>
       </c>
       <c r="D194" t="n">
-        <v>-4.39324857167817</v>
+        <v>-4.93110765722344</v>
       </c>
       <c r="E194" t="n">
-        <v>-4.22850522510432</v>
+        <v>-3.78561470841728</v>
       </c>
       <c r="F194" t="n">
-        <v>-2.28948836321729</v>
+        <v>-2.38706174379445</v>
       </c>
       <c r="G194" t="n">
-        <v>-0.762041198897923</v>
+        <v>-0.919023271886535</v>
       </c>
       <c r="H194" t="n">
-        <v>1.25869313583994</v>
+        <v>1.47390409280144</v>
       </c>
       <c r="I194" t="n">
-        <v>3.94727549617836</v>
+        <v>4.01324079384269</v>
       </c>
       <c r="J194" t="n">
-        <v>6.75447501943374</v>
+        <v>6.62674122618195</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>8.45452769069093</v>
+        <v>-5.00465240420257</v>
       </c>
       <c r="B195" t="n">
-        <v>11.0535833831797</v>
+        <v>-5.16537353033582</v>
       </c>
       <c r="C195" t="n">
-        <v>12.7523959361304</v>
+        <v>-5.31293876604342</v>
       </c>
       <c r="D195" t="n">
-        <v>12.3892115974365</v>
+        <v>-4.8226724460701</v>
       </c>
       <c r="E195" t="n">
-        <v>12.9908197123172</v>
+        <v>-3.50885796377816</v>
       </c>
       <c r="F195" t="n">
-        <v>12.0078592074382</v>
+        <v>-2.44121469268654</v>
       </c>
       <c r="G195" t="n">
-        <v>13.2312362669358</v>
+        <v>-0.994909097870951</v>
       </c>
       <c r="H195" t="n">
-        <v>12.3070917261152</v>
+        <v>1.44699932355037</v>
       </c>
       <c r="I195" t="n">
-        <v>11.3862258839675</v>
+        <v>3.69192318279236</v>
       </c>
       <c r="J195" t="n">
-        <v>10.3125435426279</v>
+        <v>6.64428108287901</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>-5.22662824038608</v>
+        <v>10.6050228084074</v>
       </c>
       <c r="B196" t="n">
-        <v>-5.34222409821827</v>
+        <v>12.1080818442993</v>
       </c>
       <c r="C196" t="n">
-        <v>-4.98778318192617</v>
+        <v>11.8880627122354</v>
       </c>
       <c r="D196" t="n">
-        <v>-4.70466259580751</v>
+        <v>11.5609739423758</v>
       </c>
       <c r="E196" t="n">
-        <v>-3.51856020938061</v>
+        <v>12.0746603742699</v>
       </c>
       <c r="F196" t="n">
-        <v>-2.29546684936252</v>
+        <v>13.1009072226342</v>
       </c>
       <c r="G196" t="n">
-        <v>-0.649529154702287</v>
+        <v>12.7752266045227</v>
       </c>
       <c r="H196" t="n">
-        <v>1.41779890221973</v>
+        <v>11.8798340345967</v>
       </c>
       <c r="I196" t="n">
-        <v>3.24883979558322</v>
+        <v>10.9802145563655</v>
       </c>
       <c r="J196" t="n">
-        <v>6.85895824228254</v>
+        <v>11.1042629980798</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>10.3552335890897</v>
+        <v>-5.4560139377687</v>
       </c>
       <c r="B197" t="n">
-        <v>11.9971571736672</v>
+        <v>-5.21905657046265</v>
       </c>
       <c r="C197" t="n">
-        <v>10.2557363094695</v>
+        <v>-5.22123805179647</v>
       </c>
       <c r="D197" t="n">
-        <v>12.2241301445972</v>
+        <v>-4.80371991884876</v>
       </c>
       <c r="E197" t="n">
-        <v>11.4409327080831</v>
+        <v>-3.93673657594635</v>
       </c>
       <c r="F197" t="n">
-        <v>12.0305462562317</v>
+        <v>-2.54982975850395</v>
       </c>
       <c r="G197" t="n">
-        <v>11.6318390399583</v>
+        <v>-0.546980774398539</v>
       </c>
       <c r="H197" t="n">
-        <v>12.4673424424003</v>
+        <v>1.41770889489269</v>
       </c>
       <c r="I197" t="n">
-        <v>11.3051888744525</v>
+        <v>3.60125474881133</v>
       </c>
       <c r="J197" t="n">
-        <v>11.1049486724034</v>
+        <v>6.5433849430326</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>9.78996424734524</v>
+        <v>9.7826077074708</v>
       </c>
       <c r="B198" t="n">
-        <v>11.4577619060643</v>
+        <v>11.9022943916688</v>
       </c>
       <c r="C198" t="n">
-        <v>11.996493131575</v>
+        <v>11.5581176762525</v>
       </c>
       <c r="D198" t="n">
-        <v>12.2560670508355</v>
+        <v>10.9932959011703</v>
       </c>
       <c r="E198" t="n">
-        <v>13.4357208239723</v>
+        <v>11.6854058929106</v>
       </c>
       <c r="F198" t="n">
-        <v>11.2403586011951</v>
+        <v>13.429004514854</v>
       </c>
       <c r="G198" t="n">
-        <v>11.529208382642</v>
+        <v>11.9475497581615</v>
       </c>
       <c r="H198" t="n">
-        <v>11.2337522474258</v>
+        <v>12.1084913941168</v>
       </c>
       <c r="I198" t="n">
-        <v>11.0719508184441</v>
+        <v>10.9434613539534</v>
       </c>
       <c r="J198" t="n">
-        <v>11.2305275692068</v>
+        <v>10.8576266883498</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>10.2651271453298</v>
+        <v>10.8711910276762</v>
       </c>
       <c r="B199" t="n">
-        <v>10.7987718805054</v>
+        <v>11.399265161105</v>
       </c>
       <c r="C199" t="n">
-        <v>11.306183065797</v>
+        <v>11.5977292192921</v>
       </c>
       <c r="D199" t="n">
-        <v>13.0361408332047</v>
+        <v>13.8577891261272</v>
       </c>
       <c r="E199" t="n">
-        <v>11.8468137949779</v>
+        <v>12.5702501506466</v>
       </c>
       <c r="F199" t="n">
-        <v>11.8259690464072</v>
+        <v>12.2661211820264</v>
       </c>
       <c r="G199" t="n">
-        <v>12.161227368435</v>
+        <v>13.1469569181336</v>
       </c>
       <c r="H199" t="n">
-        <v>12.0154938223143</v>
+        <v>12.4516831401293</v>
       </c>
       <c r="I199" t="n">
-        <v>11.4003453855126</v>
+        <v>11.2802457412651</v>
       </c>
       <c r="J199" t="n">
-        <v>10.4486107759962</v>
+        <v>8.80158514270139</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>11.9387925548005</v>
+        <v>10.0044408818269</v>
       </c>
       <c r="B200" t="n">
-        <v>11.1930161966853</v>
+        <v>11.8019582955658</v>
       </c>
       <c r="C200" t="n">
-        <v>12.3864847075582</v>
+        <v>10.861125547802</v>
       </c>
       <c r="D200" t="n">
-        <v>12.5343776235645</v>
+        <v>11.9321430340031</v>
       </c>
       <c r="E200" t="n">
-        <v>12.9475882273332</v>
+        <v>12.8553002628044</v>
       </c>
       <c r="F200" t="n">
-        <v>12.7432098708519</v>
+        <v>11.429176234527</v>
       </c>
       <c r="G200" t="n">
-        <v>12.9294727750187</v>
+        <v>13.1741359764725</v>
       </c>
       <c r="H200" t="n">
-        <v>12.2170124029514</v>
+        <v>12.5033766276374</v>
       </c>
       <c r="I200" t="n">
-        <v>11.6397837343288</v>
+        <v>11.7159019666897</v>
       </c>
       <c r="J200" t="n">
-        <v>11.7670834317098</v>
+        <v>10.5555455208034</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>-4.8245685344204</v>
+        <v>9.37321894143304</v>
       </c>
       <c r="B201" t="n">
-        <v>-5.37797944351623</v>
+        <v>10.9237781825089</v>
       </c>
       <c r="C201" t="n">
-        <v>-5.3049755296315</v>
+        <v>11.229952586053</v>
       </c>
       <c r="D201" t="n">
-        <v>-4.58755506116111</v>
+        <v>12.1205743729255</v>
       </c>
       <c r="E201" t="n">
-        <v>-3.91680149730307</v>
+        <v>12.5448468602169</v>
       </c>
       <c r="F201" t="n">
-        <v>-2.48401053946307</v>
+        <v>12.6010630001206</v>
       </c>
       <c r="G201" t="n">
-        <v>-1.34510237235633</v>
+        <v>11.562034000595</v>
       </c>
       <c r="H201" t="n">
-        <v>0.999639344869423</v>
+        <v>10.989459856733</v>
       </c>
       <c r="I201" t="n">
-        <v>3.87273226327611</v>
+        <v>12.0465338289424</v>
       </c>
       <c r="J201" t="n">
-        <v>6.62206925672874</v>
+        <v>9.41391317725877</v>
       </c>
     </row>
   </sheetData>
